--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\毕业设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Github\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -541,67 +541,7 @@
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1240,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2002,9 +1942,15 @@
         <f t="shared" si="0"/>
         <v>1.8199880311190904</v>
       </c>
+      <c r="O13">
+        <v>40.850490000000001</v>
+      </c>
+      <c r="P13">
+        <v>40.322890000000001</v>
+      </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.586690000000004</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
@@ -2055,9 +2001,15 @@
         <f t="shared" si="0"/>
         <v>2.1405476740349716</v>
       </c>
+      <c r="O14">
+        <v>40.885309999999997</v>
+      </c>
+      <c r="P14">
+        <v>40.322890000000001</v>
+      </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.604100000000003</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
@@ -2108,9 +2060,15 @@
         <f t="shared" si="0"/>
         <v>2.3949503374023804</v>
       </c>
+      <c r="O15">
+        <v>40.837290000000003</v>
+      </c>
+      <c r="P15">
+        <v>40.328009999999999</v>
+      </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.582650000000001</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
@@ -2161,9 +2119,15 @@
         <f t="shared" si="0"/>
         <v>2.7395669375079765</v>
       </c>
+      <c r="O16">
+        <v>40.886800000000001</v>
+      </c>
+      <c r="P16">
+        <v>40.378070000000001</v>
+      </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.632435000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
@@ -2214,9 +2178,15 @@
         <f t="shared" si="0"/>
         <v>3.1954917017587312</v>
       </c>
+      <c r="O17">
+        <v>40.882689999999997</v>
+      </c>
+      <c r="P17">
+        <v>40.3812</v>
+      </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.631945000000002</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
@@ -2267,9 +2237,15 @@
         <f t="shared" si="0"/>
         <v>3.4781960697725767</v>
       </c>
+      <c r="O18">
+        <v>40.825189999999999</v>
+      </c>
+      <c r="P18">
+        <v>40.333959999999998</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.579574999999998</v>
       </c>
       <c r="R18">
         <f t="shared" si="2"/>
@@ -2320,9 +2296,15 @@
         <f>(J19+K19)/(L19+M19)</f>
         <v>4.1140462280924552</v>
       </c>
+      <c r="O19">
+        <v>40.868980000000001</v>
+      </c>
+      <c r="P19">
+        <v>40.39199</v>
+      </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.630485</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
@@ -2373,9 +2355,15 @@
         <f t="shared" si="0"/>
         <v>4.7512331590959294</v>
       </c>
+      <c r="O20">
+        <v>40.88353</v>
+      </c>
+      <c r="P20">
+        <v>40.394010000000002</v>
+      </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.638770000000001</v>
       </c>
       <c r="R20">
         <f t="shared" si="2"/>
@@ -2426,9 +2414,15 @@
         <f t="shared" si="0"/>
         <v>5.3622047244094482</v>
       </c>
+      <c r="O21">
+        <v>40.81521</v>
+      </c>
+      <c r="P21">
+        <v>40.34704</v>
+      </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.581125</v>
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
@@ -2479,9 +2473,15 @@
         <f t="shared" si="0"/>
         <v>6.2864068256738417</v>
       </c>
+      <c r="O22">
+        <v>40.883769999999998</v>
+      </c>
+      <c r="P22">
+        <v>40.405299999999997</v>
+      </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.644534999999998</v>
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
@@ -2532,9 +2532,15 @@
         <f t="shared" si="0"/>
         <v>7.3567952925200855</v>
       </c>
+      <c r="O23">
+        <v>40.865630000000003</v>
+      </c>
+      <c r="P23">
+        <v>40.399279999999997</v>
+      </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.632455</v>
       </c>
       <c r="R23">
         <f t="shared" si="2"/>
@@ -2585,9 +2591,15 @@
         <f t="shared" si="0"/>
         <v>1.3763667310965584</v>
       </c>
+      <c r="O24">
+        <v>39.802500000000002</v>
+      </c>
+      <c r="P24">
+        <v>39.350459999999998</v>
+      </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.576480000000004</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
@@ -2638,9 +2650,15 @@
         <f t="shared" si="0"/>
         <v>1.6165612687481377</v>
       </c>
+      <c r="O25">
+        <v>39.885469999999998</v>
+      </c>
+      <c r="P25">
+        <v>39.198999999999998</v>
+      </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.542234999999998</v>
       </c>
       <c r="R25">
         <f t="shared" si="2"/>
@@ -2691,9 +2709,15 @@
         <f t="shared" si="0"/>
         <v>1.8003615499489114</v>
       </c>
+      <c r="O26">
+        <v>39.809130000000003</v>
+      </c>
+      <c r="P26">
+        <v>39.308149999999998</v>
+      </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.558639999999997</v>
       </c>
       <c r="R26">
         <f t="shared" si="2"/>
@@ -2744,9 +2768,15 @@
         <f t="shared" si="0"/>
         <v>2.078152224724831</v>
       </c>
+      <c r="O27">
+        <v>39.884819999999998</v>
+      </c>
+      <c r="P27">
+        <v>39.371360000000003</v>
+      </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.62809</v>
       </c>
       <c r="R27">
         <f t="shared" si="2"/>
@@ -2797,9 +2827,15 @@
         <f t="shared" si="0"/>
         <v>2.3642466434609646</v>
       </c>
+      <c r="O28">
+        <v>39.813319999999997</v>
+      </c>
+      <c r="P28">
+        <v>39.371360000000003</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.59234</v>
       </c>
       <c r="R28">
         <f t="shared" si="2"/>
@@ -2850,9 +2886,15 @@
         <f t="shared" si="0"/>
         <v>2.6898989341138786</v>
       </c>
+      <c r="O29">
+        <v>39.892670000000003</v>
+      </c>
+      <c r="P29">
+        <v>39.369500000000002</v>
+      </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.631084999999999</v>
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
@@ -2903,9 +2945,15 @@
         <f t="shared" si="0"/>
         <v>3.1230364813746236</v>
       </c>
+      <c r="O30">
+        <v>39.892139999999998</v>
+      </c>
+      <c r="P30">
+        <v>39.379429999999999</v>
+      </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.635784999999998</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
@@ -2956,9 +3004,15 @@
         <f t="shared" si="0"/>
         <v>3.5313377679231337</v>
       </c>
+      <c r="O31">
+        <v>39.806719999999999</v>
+      </c>
+      <c r="P31">
+        <v>39.323369999999997</v>
+      </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.565044999999998</v>
       </c>
       <c r="R31">
         <f t="shared" si="2"/>
@@ -3009,9 +3063,15 @@
         <f t="shared" si="0"/>
         <v>4.1545415778251602</v>
       </c>
+      <c r="O32">
+        <v>39.885289999999998</v>
+      </c>
+      <c r="P32">
+        <v>39.392580000000002</v>
+      </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.638935000000004</v>
       </c>
       <c r="R32">
         <f t="shared" si="2"/>
@@ -3062,9 +3122,15 @@
         <f t="shared" si="0"/>
         <v>4.7378527785859763</v>
       </c>
+      <c r="O33">
+        <v>39.885289999999998</v>
+      </c>
+      <c r="P33">
+        <v>39.368020000000001</v>
+      </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.626655</v>
       </c>
       <c r="R33">
         <f t="shared" si="2"/>
@@ -3115,9 +3181,15 @@
         <f t="shared" ref="N34:N65" si="3">(J34+K34)/(L34+M34)</f>
         <v>5.417783329548036</v>
       </c>
+      <c r="O34">
+        <v>39.809379999999997</v>
+      </c>
+      <c r="P34">
+        <v>39.306800000000003</v>
+      </c>
       <c r="Q34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.55809</v>
       </c>
       <c r="R34">
         <f t="shared" si="2"/>
@@ -3168,9 +3240,15 @@
         <f t="shared" si="3"/>
         <v>1.0752223928602473</v>
       </c>
+      <c r="O35">
+        <v>38.845779999999998</v>
+      </c>
+      <c r="P35">
+        <v>38.315399999999997</v>
+      </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.580590000000001</v>
       </c>
       <c r="R35">
         <f t="shared" si="2"/>
@@ -3221,9 +3299,15 @@
         <f t="shared" si="3"/>
         <v>1.4214693566806242</v>
       </c>
+      <c r="O36">
+        <v>38.856209999999997</v>
+      </c>
+      <c r="P36">
+        <v>38.29045</v>
+      </c>
       <c r="Q36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.573329999999999</v>
       </c>
       <c r="R36">
         <f t="shared" si="2"/>
@@ -3274,9 +3358,15 @@
         <f t="shared" si="3"/>
         <v>1.3849200362100182</v>
       </c>
+      <c r="O37">
+        <v>39.809130000000003</v>
+      </c>
+      <c r="P37">
+        <v>39.308149999999998</v>
+      </c>
       <c r="Q37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.558639999999997</v>
       </c>
       <c r="R37">
         <f t="shared" si="2"/>
@@ -3327,9 +3417,15 @@
         <f t="shared" si="3"/>
         <v>1.5747981300467488</v>
       </c>
+      <c r="O38">
+        <v>38.763930000000002</v>
+      </c>
+      <c r="P38">
+        <v>38.229950000000002</v>
+      </c>
       <c r="Q38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.496940000000002</v>
       </c>
       <c r="R38">
         <f t="shared" si="2"/>
@@ -3380,9 +3476,15 @@
         <f t="shared" si="3"/>
         <v>1.7840490797546011</v>
       </c>
+      <c r="O39">
+        <v>38.880040000000001</v>
+      </c>
+      <c r="P39">
+        <v>38.329740000000001</v>
+      </c>
       <c r="Q39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.604889999999997</v>
       </c>
       <c r="R39">
         <f t="shared" si="2"/>
@@ -3433,9 +3535,15 @@
         <f t="shared" si="3"/>
         <v>2.0345434543454344</v>
       </c>
+      <c r="O40">
+        <v>38.871670000000002</v>
+      </c>
+      <c r="P40">
+        <v>38.291840000000001</v>
+      </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.581755000000001</v>
       </c>
       <c r="R40">
         <f t="shared" si="2"/>
@@ -3486,9 +3594,15 @@
         <f t="shared" si="3"/>
         <v>2.3142857142857145</v>
       </c>
+      <c r="O41">
+        <v>38.768250000000002</v>
+      </c>
+      <c r="P41">
+        <v>38.266190000000002</v>
+      </c>
       <c r="Q41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.517220000000002</v>
       </c>
       <c r="R41">
         <f t="shared" si="2"/>
@@ -3539,9 +3653,15 @@
         <f t="shared" si="3"/>
         <v>2.7407571724341908</v>
       </c>
+      <c r="O42">
+        <v>38.887830000000001</v>
+      </c>
+      <c r="P42">
+        <v>38.33</v>
+      </c>
       <c r="Q42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.608914999999996</v>
       </c>
       <c r="R42">
         <f t="shared" si="2"/>
@@ -3592,9 +3712,15 @@
         <f t="shared" si="3"/>
         <v>3.1389853476751077</v>
       </c>
+      <c r="O43">
+        <v>38.856079999999999</v>
+      </c>
+      <c r="P43">
+        <v>38.275669999999998</v>
+      </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.565874999999998</v>
       </c>
       <c r="R43">
         <f t="shared" si="2"/>
@@ -3645,9 +3771,15 @@
         <f t="shared" si="3"/>
         <v>3.5548424737456239</v>
       </c>
+      <c r="O44">
+        <v>38.748370000000001</v>
+      </c>
+      <c r="P44">
+        <v>38.247570000000003</v>
+      </c>
       <c r="Q44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.497970000000002</v>
       </c>
       <c r="R44">
         <f t="shared" si="2"/>
@@ -3698,9 +3830,15 @@
         <f t="shared" si="3"/>
         <v>4.2821510297482837</v>
       </c>
+      <c r="O45">
+        <v>38.868209999999998</v>
+      </c>
+      <c r="P45">
+        <v>38.295479999999998</v>
+      </c>
       <c r="Q45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.581845000000001</v>
       </c>
       <c r="R45">
         <f t="shared" si="2"/>
@@ -3751,9 +3889,15 @@
         <f t="shared" si="3"/>
         <v>0.83142741046032409</v>
       </c>
+      <c r="O46">
+        <v>37.744770000000003</v>
+      </c>
+      <c r="P46">
+        <v>37.238979999999998</v>
+      </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.491875</v>
       </c>
       <c r="R46">
         <f t="shared" si="2"/>
@@ -3804,9 +3948,15 @@
         <f t="shared" si="3"/>
         <v>0.92379789445892868</v>
       </c>
+      <c r="O47">
+        <v>37.666890000000002</v>
+      </c>
+      <c r="P47">
+        <v>37.17313</v>
+      </c>
       <c r="Q47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.420010000000005</v>
       </c>
       <c r="R47">
         <f t="shared" si="2"/>
@@ -3857,9 +4007,15 @@
         <f t="shared" si="3"/>
         <v>1.0807361684401864</v>
       </c>
+      <c r="O48">
+        <v>37.70391</v>
+      </c>
+      <c r="P48">
+        <v>37.23892</v>
+      </c>
       <c r="Q48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.471415</v>
       </c>
       <c r="R48">
         <f t="shared" si="2"/>
@@ -3910,9 +4066,15 @@
         <f t="shared" si="3"/>
         <v>1.2100669434793663</v>
       </c>
+      <c r="O49">
+        <v>37.722819999999999</v>
+      </c>
+      <c r="P49">
+        <v>37.242899999999999</v>
+      </c>
       <c r="Q49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.482860000000002</v>
       </c>
       <c r="R49">
         <f t="shared" si="2"/>
@@ -3963,9 +4125,15 @@
         <f t="shared" si="3"/>
         <v>1.3852024381783041</v>
       </c>
+      <c r="O50">
+        <v>37.68336</v>
+      </c>
+      <c r="P50">
+        <v>37.163089999999997</v>
+      </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.423225000000002</v>
       </c>
       <c r="R50">
         <f t="shared" si="2"/>
@@ -4016,9 +4184,15 @@
         <f t="shared" si="3"/>
         <v>1.5818332871780671</v>
       </c>
+      <c r="O51">
+        <v>37.735109999999999</v>
+      </c>
+      <c r="P51">
+        <v>37.253970000000002</v>
+      </c>
       <c r="Q51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.494540000000001</v>
       </c>
       <c r="R51">
         <f t="shared" si="2"/>
@@ -4069,9 +4243,15 @@
         <f t="shared" si="3"/>
         <v>1.7588335741494814</v>
       </c>
+      <c r="O52">
+        <v>37.677439999999997</v>
+      </c>
+      <c r="P52">
+        <v>37.199779999999997</v>
+      </c>
       <c r="Q52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.438609999999997</v>
       </c>
       <c r="R52">
         <f t="shared" si="2"/>
@@ -4122,9 +4302,15 @@
         <f t="shared" si="3"/>
         <v>2.1007029226785057</v>
       </c>
+      <c r="O53">
+        <v>37.68479</v>
+      </c>
+      <c r="P53">
+        <v>37.254379999999998</v>
+      </c>
       <c r="Q53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.469584999999995</v>
       </c>
       <c r="R53">
         <f t="shared" si="2"/>
@@ -4175,9 +4361,15 @@
         <f t="shared" si="3"/>
         <v>2.4015447292480059</v>
       </c>
+      <c r="O54">
+        <v>37.65014</v>
+      </c>
+      <c r="P54">
+        <v>37.162610000000001</v>
+      </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.406374999999997</v>
       </c>
       <c r="R54">
         <f t="shared" si="2"/>
@@ -4228,9 +4420,15 @@
         <f t="shared" si="3"/>
         <v>2.8176838810641622</v>
       </c>
+      <c r="O55">
+        <v>37.730710000000002</v>
+      </c>
+      <c r="P55">
+        <v>37.254519999999999</v>
+      </c>
       <c r="Q55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.492615000000001</v>
       </c>
       <c r="R55">
         <f t="shared" si="2"/>
@@ -4281,9 +4479,15 @@
         <f t="shared" si="3"/>
         <v>3.2884988031460165</v>
       </c>
+      <c r="O56">
+        <v>37.696680000000001</v>
+      </c>
+      <c r="P56">
+        <v>37.233840000000001</v>
+      </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.465260000000001</v>
       </c>
       <c r="R56">
         <f t="shared" si="2"/>
@@ -6086,11 +6290,11 @@
         <v>41.200069999999997</v>
       </c>
       <c r="P90">
-        <f>(N90+O90)/2</f>
+        <f t="shared" ref="P90:P114" si="7">(N90+O90)/2</f>
         <v>41.443325000000002</v>
       </c>
       <c r="Q90">
-        <f>SUM(J90:K90)</f>
+        <f t="shared" ref="Q90:Q114" si="8">SUM(J90:K90)</f>
         <v>1065.28</v>
       </c>
       <c r="R90" t="s">
@@ -6144,11 +6348,11 @@
         <v>40.24156</v>
       </c>
       <c r="P91">
-        <f>(N91+O91)/2</f>
+        <f t="shared" si="7"/>
         <v>40.521999999999998</v>
       </c>
       <c r="Q91">
-        <f>SUM(J91:K91)</f>
+        <f t="shared" si="8"/>
         <v>825.06</v>
       </c>
       <c r="R91" s="10" t="s">
@@ -6202,11 +6406,11 @@
         <v>39.182980000000001</v>
       </c>
       <c r="P92">
-        <f>(N92+O92)/2</f>
+        <f t="shared" si="7"/>
         <v>39.468095000000005</v>
       </c>
       <c r="Q92">
-        <f>SUM(J92:K92)</f>
+        <f t="shared" si="8"/>
         <v>647.46</v>
       </c>
       <c r="R92" t="s">
@@ -6260,11 +6464,11 @@
         <v>38.227710000000002</v>
       </c>
       <c r="P93">
-        <f>(N93+O93)/2</f>
+        <f t="shared" si="7"/>
         <v>38.516370000000002</v>
       </c>
       <c r="Q93">
-        <f>SUM(J93:K93)</f>
+        <f t="shared" si="8"/>
         <v>526.55999999999995</v>
       </c>
       <c r="R93" s="10" t="s">
@@ -6318,11 +6522,11 @@
         <v>37.033679999999997</v>
       </c>
       <c r="P94">
-        <f>(N94+O94)/2</f>
+        <f t="shared" si="7"/>
         <v>37.402825</v>
       </c>
       <c r="Q94">
-        <f>SUM(J94:K94)</f>
+        <f t="shared" si="8"/>
         <v>431.2</v>
       </c>
       <c r="R94" t="s">
@@ -6376,11 +6580,11 @@
         <v>35.791229999999999</v>
       </c>
       <c r="P95">
-        <f>(N95+O95)/2</f>
+        <f t="shared" si="7"/>
         <v>36.165350000000004</v>
       </c>
       <c r="Q95">
-        <f>SUM(J95:K95)</f>
+        <f t="shared" si="8"/>
         <v>353.78</v>
       </c>
       <c r="R95" s="10" t="s">
@@ -6434,11 +6638,11 @@
         <v>34.754890000000003</v>
       </c>
       <c r="P96">
-        <f>(N96+O96)/2</f>
+        <f t="shared" si="7"/>
         <v>35.115895000000002</v>
       </c>
       <c r="Q96">
-        <f>SUM(J96:K96)</f>
+        <f t="shared" si="8"/>
         <v>302.22000000000003</v>
       </c>
       <c r="R96" t="s">
@@ -6492,11 +6696,11 @@
         <v>33.383690000000001</v>
       </c>
       <c r="P97">
-        <f>(N97+O97)/2</f>
+        <f t="shared" si="7"/>
         <v>33.833320000000001</v>
       </c>
       <c r="Q97">
-        <f>SUM(J97:K97)</f>
+        <f t="shared" si="8"/>
         <v>261.39999999999998</v>
       </c>
       <c r="R97" s="10" t="s">
@@ -6550,11 +6754,11 @@
         <v>41.295610000000003</v>
       </c>
       <c r="P98">
-        <f>(N98+O98)/2</f>
+        <f t="shared" si="7"/>
         <v>41.546620000000004</v>
       </c>
       <c r="Q98">
-        <f>SUM(J98:K98)</f>
+        <f t="shared" si="8"/>
         <v>846</v>
       </c>
       <c r="R98" t="s">
@@ -6608,11 +6812,11 @@
         <v>40.38373</v>
       </c>
       <c r="P99">
-        <f>(N99+O99)/2</f>
+        <f t="shared" si="7"/>
         <v>40.639049999999997</v>
       </c>
       <c r="Q99">
-        <f>SUM(J99:K99)</f>
+        <f t="shared" si="8"/>
         <v>631.98</v>
       </c>
       <c r="R99" s="10" t="s">
@@ -6666,11 +6870,11 @@
         <v>39.389580000000002</v>
       </c>
       <c r="P100">
-        <f>(N100+O100)/2</f>
+        <f t="shared" si="7"/>
         <v>39.657939999999996</v>
       </c>
       <c r="Q100">
-        <f>SUM(J100:K100)</f>
+        <f t="shared" si="8"/>
         <v>472.34000000000003</v>
       </c>
       <c r="R100" t="s">
@@ -6724,11 +6928,11 @@
         <v>38.274979999999999</v>
       </c>
       <c r="P101">
-        <f>(N101+O101)/2</f>
+        <f t="shared" si="7"/>
         <v>38.555475000000001</v>
       </c>
       <c r="Q101">
-        <f>SUM(J101:K101)</f>
+        <f t="shared" si="8"/>
         <v>355.48</v>
       </c>
       <c r="R101" s="10" t="s">
@@ -6782,11 +6986,11 @@
         <v>37.242100000000001</v>
       </c>
       <c r="P102">
-        <f>(N102+O102)/2</f>
+        <f t="shared" si="7"/>
         <v>37.501959999999997</v>
       </c>
       <c r="Q102">
-        <f>SUM(J102:K102)</f>
+        <f t="shared" si="8"/>
         <v>277.39999999999998</v>
       </c>
       <c r="R102" t="s">
@@ -6840,11 +7044,11 @@
         <v>36.15607</v>
       </c>
       <c r="P103">
-        <f>(N103+O103)/2</f>
+        <f t="shared" si="7"/>
         <v>36.427435000000003</v>
       </c>
       <c r="Q103">
-        <f>SUM(J103:K103)</f>
+        <f t="shared" si="8"/>
         <v>217.68</v>
       </c>
       <c r="R103" s="10" t="s">
@@ -6898,11 +7102,11 @@
         <v>36.15607</v>
       </c>
       <c r="P104">
-        <f>(N104+O104)/2</f>
+        <f t="shared" si="7"/>
         <v>35.804994999999998</v>
       </c>
       <c r="Q104">
-        <f>SUM(J104:K104)</f>
+        <f t="shared" si="8"/>
         <v>170.51999999999998</v>
       </c>
       <c r="R104" t="s">
@@ -6956,11 +7160,11 @@
         <v>34.03416</v>
       </c>
       <c r="P105">
-        <f>(N105+O105)/2</f>
+        <f t="shared" si="7"/>
         <v>34.233580000000003</v>
       </c>
       <c r="Q105">
-        <f>SUM(J105:K105)</f>
+        <f t="shared" si="8"/>
         <v>142.32</v>
       </c>
       <c r="R105" s="10" t="s">
@@ -7014,11 +7218,11 @@
         <v>33.843409999999999</v>
       </c>
       <c r="P106">
-        <f>(N106+O106)/2</f>
+        <f t="shared" si="7"/>
         <v>34.027090000000001</v>
       </c>
       <c r="Q106">
-        <f>SUM(J106:K106)</f>
+        <f t="shared" si="8"/>
         <v>137.84</v>
       </c>
       <c r="R106" s="10" t="s">
@@ -7072,11 +7276,11 @@
         <v>41.045999999999999</v>
       </c>
       <c r="P107">
-        <f>(N107+O107)/2</f>
+        <f t="shared" si="7"/>
         <v>41.329975000000005</v>
       </c>
       <c r="Q107">
-        <f>SUM(J107:K107)</f>
+        <f t="shared" si="8"/>
         <v>933.83999999999992</v>
       </c>
       <c r="R107" t="s">
@@ -7130,11 +7334,11 @@
         <v>40.068260000000002</v>
       </c>
       <c r="P108">
-        <f>(N108+O108)/2</f>
+        <f t="shared" si="7"/>
         <v>40.343045000000004</v>
       </c>
       <c r="Q108">
-        <f>SUM(J108:K108)</f>
+        <f t="shared" si="8"/>
         <v>673.83999999999992</v>
       </c>
       <c r="R108" s="10" t="s">
@@ -7188,11 +7392,11 @@
         <v>39.093089999999997</v>
       </c>
       <c r="P109">
-        <f>(N109+O109)/2</f>
+        <f t="shared" si="7"/>
         <v>39.407349999999994</v>
       </c>
       <c r="Q109">
-        <f>SUM(J109:K109)</f>
+        <f t="shared" si="8"/>
         <v>519.28</v>
       </c>
       <c r="R109" t="s">
@@ -7246,11 +7450,11 @@
         <v>37.966290000000001</v>
       </c>
       <c r="P110">
-        <f>(N110+O110)/2</f>
+        <f t="shared" si="7"/>
         <v>38.350970000000004</v>
       </c>
       <c r="Q110">
-        <f>SUM(J110:K110)</f>
+        <f t="shared" si="8"/>
         <v>380.58000000000004</v>
       </c>
       <c r="R110" s="10" t="s">
@@ -7304,11 +7508,11 @@
         <v>36.88494</v>
       </c>
       <c r="P111">
-        <f>(N111+O111)/2</f>
+        <f t="shared" si="7"/>
         <v>37.220505000000003</v>
       </c>
       <c r="Q111">
-        <f>SUM(J111:K111)</f>
+        <f t="shared" si="8"/>
         <v>293.98</v>
       </c>
       <c r="R111" t="s">
@@ -7362,11 +7566,11 @@
         <v>35.921880000000002</v>
       </c>
       <c r="P112">
-        <f>(N112+O112)/2</f>
+        <f t="shared" si="7"/>
         <v>36.244299999999996</v>
       </c>
       <c r="Q112">
-        <f>SUM(J112:K112)</f>
+        <f t="shared" si="8"/>
         <v>233.60000000000002</v>
       </c>
       <c r="R112" s="10" t="s">
@@ -7420,11 +7624,11 @@
         <v>34.860639999999997</v>
       </c>
       <c r="P113">
-        <f>(N113+O113)/2</f>
+        <f t="shared" si="7"/>
         <v>35.128554999999999</v>
       </c>
       <c r="Q113">
-        <f>SUM(J113:K113)</f>
+        <f t="shared" si="8"/>
         <v>170.98000000000002</v>
       </c>
       <c r="R113" t="s">
@@ -7478,11 +7682,11 @@
         <v>33.61795</v>
       </c>
       <c r="P114">
-        <f>(N114+O114)/2</f>
+        <f t="shared" si="7"/>
         <v>33.894539999999999</v>
       </c>
       <c r="Q114">
-        <f>SUM(J114:K114)</f>
+        <f t="shared" si="8"/>
         <v>147.42000000000002</v>
       </c>
       <c r="R114" s="10" t="s">
@@ -7516,42 +7720,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S22">
-    <cfRule type="containsText" dxfId="41" priority="225" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="35" priority="225" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S22">
-    <cfRule type="containsText" dxfId="40" priority="212" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="34" priority="212" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:S29">
-    <cfRule type="containsText" dxfId="39" priority="201" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="33" priority="201" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:S29">
-    <cfRule type="containsText" dxfId="38" priority="195" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="32" priority="195" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:S36">
-    <cfRule type="containsText" dxfId="37" priority="173" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="31" priority="173" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:S36">
-    <cfRule type="containsText" dxfId="36" priority="167" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="30" priority="167" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37:S43">
-    <cfRule type="containsText" dxfId="35" priority="154" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="29" priority="154" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37:S43">
-    <cfRule type="containsText" dxfId="34" priority="148" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="28" priority="148" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",S37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7652,7 +7856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R90:R97">
-    <cfRule type="containsText" dxfId="33" priority="91" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="27" priority="91" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R90)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7681,7 +7885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R90:R91">
-    <cfRule type="containsText" dxfId="32" priority="88" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="26" priority="88" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R90)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7698,7 +7902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R92:R93">
-    <cfRule type="containsText" dxfId="31" priority="86" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="25" priority="86" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R92)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7727,7 +7931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R92:R93">
-    <cfRule type="containsText" dxfId="30" priority="83" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="24" priority="83" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R92)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7744,7 +7948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R94:R95">
-    <cfRule type="containsText" dxfId="29" priority="81" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="23" priority="81" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R94)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7773,7 +7977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R94:R95">
-    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="22" priority="78" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R94)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7790,7 +7994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R96:R97">
-    <cfRule type="containsText" dxfId="27" priority="76" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="21" priority="76" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7819,7 +8023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R96:R97">
-    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="20" priority="73" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7860,12 +8064,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R98:R105">
-    <cfRule type="containsText" dxfId="25" priority="69" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="19" priority="69" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R98:R99">
-    <cfRule type="containsText" dxfId="24" priority="68" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="18" priority="68" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7894,7 +8098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R98:R99">
-    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="17" priority="65" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7911,7 +8115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R100:R101">
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R100)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7940,7 +8144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R100:R101">
-    <cfRule type="containsText" dxfId="21" priority="60" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="15" priority="60" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R100)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7957,7 +8161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R102:R103">
-    <cfRule type="containsText" dxfId="20" priority="58" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R102)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7986,7 +8190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R102:R103">
-    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="13" priority="55" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R102)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8003,7 +8207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R104:R105">
-    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="12" priority="53" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R104)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8032,7 +8236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R104:R105">
-    <cfRule type="containsText" dxfId="17" priority="50" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="11" priority="50" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R104)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8073,7 +8277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R107:R114">
-    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="10" priority="46" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R107)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8102,7 +8306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R107:R108">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="9" priority="43" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R107)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8119,7 +8323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R109:R110">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R109)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8148,7 +8352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R109:R110">
-    <cfRule type="containsText" dxfId="13" priority="38" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="7" priority="38" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R109)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8165,7 +8369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R111:R112">
-    <cfRule type="containsText" dxfId="12" priority="36" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R111)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8194,7 +8398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R111:R112">
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R111)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8211,7 +8415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R113:R114">
-    <cfRule type="containsText" dxfId="10" priority="31" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R113)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8240,7 +8444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R113:R114">
-    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="3" priority="28" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R113)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8281,7 +8485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R106">
-    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="Description">
+    <cfRule type="containsText" dxfId="2" priority="24" operator="containsText" text="Description">
       <formula>NOT(ISERROR(SEARCH("Description",R106)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Github\DataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Overture\Documents\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,237 +24,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="27">
   <si>
     <t>Sequence</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DepthBaseMVP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AdaptiveLuminanceCompensation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VSP_Enable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Texture_QPISlice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Texture_QPPSlice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FrameToBeEncoded</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Depth_QPISlice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Depth_QPPSlice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kendo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">kendo </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DMVP=0,QP=2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=0,QP=40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMVP=1,QP=40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSP=1,QP=40</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=26</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=28</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=30</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=32</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=34</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=36</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=38</t>
-  </si>
-  <si>
-    <t>ALC=0,QP=40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T1_Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T5_Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D1_Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D5_Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SUM_Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ratio</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T1_PSNR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T5_PSNR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Enable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Disable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AVE_PSNR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,15 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -298,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,24 +333,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,16 +366,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -534,375 +391,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - 着色 1" xfId="4" builtinId="30"/>
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
     <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1178,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106:P106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,7 +684,7 @@
     <col min="17" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +697,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1212,55 +706,52 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6">
         <v>26</v>
@@ -1277,16 +768,16 @@
       <c r="I2" s="5">
         <v>28</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>405.58</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <v>467.09</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>143.99</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>199.48</v>
       </c>
       <c r="N2">
@@ -1308,18 +799,18 @@
         <v>1216.1399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>26</v>
@@ -1342,10 +833,10 @@
       <c r="K3" s="6">
         <v>476.52</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>126.29</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>176.86</v>
       </c>
       <c r="N3">
@@ -1367,18 +858,18 @@
         <v>1193.3899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6">
         <v>26</v>
@@ -1401,10 +892,10 @@
       <c r="K4" s="6">
         <v>474.13</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>110.48</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>154.22</v>
       </c>
       <c r="N4">
@@ -1426,18 +917,18 @@
         <v>1151.78</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>26</v>
@@ -1460,10 +951,10 @@
       <c r="K5" s="6">
         <v>466.15</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>98.31</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>136.96</v>
       </c>
       <c r="N5">
@@ -1485,18 +976,18 @@
         <v>1105.72</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6">
         <v>26</v>
@@ -1519,10 +1010,10 @@
       <c r="K6" s="6">
         <v>475.9</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>85.47</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>115.77</v>
       </c>
       <c r="N6">
@@ -1544,18 +1035,18 @@
         <v>1091.1600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>26</v>
@@ -1578,10 +1069,10 @@
       <c r="K7" s="6">
         <v>474.7</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>76.48</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>104.95</v>
       </c>
       <c r="N7">
@@ -1603,18 +1094,18 @@
         <v>1069.55</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6">
         <v>26</v>
@@ -1637,10 +1128,10 @@
       <c r="K8" s="6">
         <v>467.64</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>65.150000000000006</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>91.96</v>
       </c>
       <c r="N8">
@@ -1662,18 +1153,18 @@
         <v>1028.4599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>26</v>
@@ -1696,10 +1187,10 @@
       <c r="K9" s="6">
         <v>475.98</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>57.28</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>78.680000000000007</v>
       </c>
       <c r="N9">
@@ -1721,18 +1212,18 @@
         <v>1023.81</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>26</v>
@@ -1755,10 +1246,10 @@
       <c r="K10" s="6">
         <v>474.97</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>48.99</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>68.819999999999993</v>
       </c>
       <c r="N10">
@@ -1780,18 +1271,18 @@
         <v>1005.0899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>26</v>
@@ -1814,10 +1305,10 @@
       <c r="K11" s="6">
         <v>468.98</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>43.27</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>60.13</v>
       </c>
       <c r="N11">
@@ -1839,18 +1330,18 @@
         <v>977.92</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6">
         <v>26</v>
@@ -1873,10 +1364,10 @@
       <c r="K12" s="6">
         <v>475.41</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>36.950000000000003</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <v>50.99</v>
       </c>
       <c r="N12">
@@ -1898,23 +1389,23 @@
         <v>978.31000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
         <v>28</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>28</v>
       </c>
       <c r="G13" s="5">
@@ -1957,23 +1448,23 @@
         <v>942.44</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="11">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
         <v>28</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>28</v>
       </c>
       <c r="G14" s="5">
@@ -1991,10 +1482,10 @@
       <c r="K14" s="6">
         <v>344.59</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>126.89</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>176.21</v>
       </c>
       <c r="N14">
@@ -2016,23 +1507,23 @@
         <v>951.9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9">
         <v>28</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>28</v>
       </c>
       <c r="G15" s="5">
@@ -2050,10 +1541,10 @@
       <c r="K15" s="6">
         <v>337.07</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <v>110.01</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <v>153.77000000000001</v>
       </c>
       <c r="N15">
@@ -2075,23 +1566,23 @@
         <v>895.52</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
         <v>28</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>28</v>
       </c>
       <c r="G16" s="5">
@@ -2109,10 +1600,10 @@
       <c r="K16" s="6">
         <v>342.56</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>97.24</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <v>137.83000000000001</v>
       </c>
       <c r="N16">
@@ -2136,21 +1627,21 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="11">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9">
         <v>28</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>28</v>
       </c>
       <c r="G17" s="5">
@@ -2168,10 +1659,10 @@
       <c r="K17" s="6">
         <v>343.08</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>85.43</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="9">
         <v>116.42</v>
       </c>
       <c r="N17">
@@ -2195,21 +1686,21 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="11">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>28</v>
       </c>
       <c r="G18" s="5">
@@ -2227,10 +1718,10 @@
       <c r="K18" s="6">
         <v>335.86</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <v>76.849999999999994</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <v>104.31</v>
       </c>
       <c r="N18">
@@ -2254,21 +1745,21 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="11">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9">
         <v>28</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>28</v>
       </c>
       <c r="G19" s="5">
@@ -2286,10 +1777,10 @@
       <c r="K19" s="6">
         <v>345.23</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <v>65.06</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <v>92.42</v>
       </c>
       <c r="N19">
@@ -2313,21 +1804,21 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="11">
+        <v>24</v>
+      </c>
+      <c r="E20" s="9">
         <v>28</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>28</v>
       </c>
       <c r="G20" s="5">
@@ -2345,10 +1836,10 @@
       <c r="K20" s="6">
         <v>344.16</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <v>56.94</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <v>78.89</v>
       </c>
       <c r="N20">
@@ -2372,21 +1863,21 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="11">
+        <v>24</v>
+      </c>
+      <c r="E21" s="9">
         <v>28</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>28</v>
       </c>
       <c r="G21" s="5">
@@ -2404,10 +1895,10 @@
       <c r="K21" s="6">
         <v>338.12</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="9">
         <v>49.3</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="9">
         <v>68.81</v>
       </c>
       <c r="N21">
@@ -2431,21 +1922,21 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="11">
+        <v>24</v>
+      </c>
+      <c r="E22" s="9">
         <v>28</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>28</v>
       </c>
       <c r="G22" s="5">
@@ -2463,10 +1954,10 @@
       <c r="K22" s="3">
         <v>345.27</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="9">
         <v>43.39</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="9">
         <v>59.75</v>
       </c>
       <c r="N22">
@@ -2490,21 +1981,21 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9">
         <v>28</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>28</v>
       </c>
       <c r="G23" s="5">
@@ -2516,16 +2007,16 @@
       <c r="I23" s="5">
         <v>38</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <v>304.38</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="13">
         <v>345.74</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="9">
         <v>37.4</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="9">
         <v>50.97</v>
       </c>
       <c r="N23">
@@ -2549,21 +2040,21 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="11">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9">
         <v>30</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>30</v>
       </c>
       <c r="G24" s="5">
@@ -2575,16 +2066,16 @@
       <c r="I24" s="5">
         <v>28</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <v>223.98</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <v>253.11</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="9">
         <v>145</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="9">
         <v>201.63</v>
       </c>
       <c r="N24">
@@ -2608,21 +2099,21 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="11">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9">
         <v>30</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>30</v>
       </c>
       <c r="G25" s="5">
@@ -2634,16 +2125,16 @@
       <c r="I25" s="5">
         <v>29</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <v>228.87</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>259.38</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="9">
         <v>126.21</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="9">
         <v>175.82</v>
       </c>
       <c r="N25">
@@ -2667,21 +2158,21 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="11">
+        <v>24</v>
+      </c>
+      <c r="E26" s="9">
         <v>30</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>30</v>
       </c>
       <c r="G26" s="5">
@@ -2726,21 +2217,21 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="11">
+        <v>24</v>
+      </c>
+      <c r="E27" s="9">
         <v>30</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>30</v>
       </c>
       <c r="G27" s="5">
@@ -2752,16 +2243,16 @@
       <c r="I27" s="5">
         <v>31</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <v>230.3</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="9">
         <v>258.70999999999998</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>98.89</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="9">
         <v>136.41999999999999</v>
       </c>
       <c r="N27">
@@ -2785,21 +2276,21 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="11">
+        <v>24</v>
+      </c>
+      <c r="E28" s="9">
         <v>30</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <v>30</v>
       </c>
       <c r="G28" s="5">
@@ -2811,16 +2302,16 @@
       <c r="I28" s="5">
         <v>32</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="9">
         <v>223.06</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <v>252.39</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="9">
         <v>84.34</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="9">
         <v>116.76</v>
       </c>
       <c r="N28">
@@ -2844,21 +2335,21 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="11">
+        <v>24</v>
+      </c>
+      <c r="E29" s="9">
         <v>30</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <v>30</v>
       </c>
       <c r="G29" s="5">
@@ -2870,16 +2361,16 @@
       <c r="I29" s="5">
         <v>33</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <v>230.41</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="9">
         <v>256.64999999999998</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="9">
         <v>76.41</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <v>104.66</v>
       </c>
       <c r="N29">
@@ -2903,21 +2394,21 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="11">
+        <v>24</v>
+      </c>
+      <c r="E30" s="9">
         <v>30</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <v>30</v>
       </c>
       <c r="G30" s="5">
@@ -2929,16 +2420,16 @@
       <c r="I30" s="5">
         <v>34</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <v>230.48</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <v>256.62</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="9">
         <v>64.8</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="9">
         <v>91.17</v>
       </c>
       <c r="N30">
@@ -2962,21 +2453,21 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="11">
+        <v>24</v>
+      </c>
+      <c r="E31" s="9">
         <v>30</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <v>30</v>
       </c>
       <c r="G31" s="5">
@@ -2988,16 +2479,16 @@
       <c r="I31" s="5">
         <v>35</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="9">
         <v>223.27</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="9">
         <v>254.52</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="9">
         <v>56.88</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="9">
         <v>78.42</v>
       </c>
       <c r="N31">
@@ -3021,21 +2512,21 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="11">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
         <v>30</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>30</v>
       </c>
       <c r="G32" s="5">
@@ -3047,16 +2538,16 @@
       <c r="I32" s="5">
         <v>36</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <v>229.36</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="9">
         <v>257.76</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="9">
         <v>49.11</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="9">
         <v>68.14</v>
       </c>
       <c r="N32">
@@ -3080,21 +2571,21 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="11">
+        <v>24</v>
+      </c>
+      <c r="E33" s="9">
         <v>30</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>30</v>
       </c>
       <c r="G33" s="5">
@@ -3106,16 +2597,16 @@
       <c r="I33" s="5">
         <v>37</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <v>229.93</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="9">
         <v>258.58999999999997</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="9">
         <v>43.28</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="9">
         <v>59.83</v>
       </c>
       <c r="N33">
@@ -3139,21 +2630,21 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="11">
+        <v>24</v>
+      </c>
+      <c r="E34" s="9">
         <v>30</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>30</v>
       </c>
       <c r="G34" s="5">
@@ -3165,16 +2656,16 @@
       <c r="I34" s="5">
         <v>38</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="9">
         <v>222.9</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="9">
         <v>254.19</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="9">
         <v>37.25</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="9">
         <v>50.81</v>
       </c>
       <c r="N34">
@@ -3198,16 +2689,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>32</v>
@@ -3224,16 +2715,16 @@
       <c r="I35" s="5">
         <v>28</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <v>176.43</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="9">
         <v>194.64</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="9">
         <v>144.22999999999999</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="9">
         <v>200.88</v>
       </c>
       <c r="N35">
@@ -3257,16 +2748,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>32</v>
@@ -3283,16 +2774,16 @@
       <c r="I36" s="5">
         <v>29</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <v>177.76</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="9">
         <v>195.66</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="9">
         <v>110</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="9">
         <v>152.69999999999999</v>
       </c>
       <c r="N36">
@@ -3316,16 +2807,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>32</v>
@@ -3342,16 +2833,16 @@
       <c r="I37" s="5">
         <v>30</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <v>173.52</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="9">
         <v>193.65</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="9">
         <v>110.93</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="9">
         <v>154.19</v>
       </c>
       <c r="N37">
@@ -3375,16 +2866,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>32</v>
@@ -3401,16 +2892,16 @@
       <c r="I38" s="5">
         <v>31</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <v>176.3</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="9">
         <v>194.25</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <v>98.21</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="9">
         <v>137.09</v>
       </c>
       <c r="N38">
@@ -3434,16 +2925,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>32</v>
@@ -3493,16 +2984,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>32</v>
@@ -3519,16 +3010,16 @@
       <c r="I40" s="5">
         <v>33</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="9">
         <v>176.38</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="9">
         <v>193.5</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="9">
         <v>76.66</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="9">
         <v>105.14</v>
       </c>
       <c r="N40">
@@ -3552,16 +3043,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>32</v>
@@ -3578,16 +3069,16 @@
       <c r="I41" s="5">
         <v>34</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="9">
         <v>172.08</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="9">
         <v>191.61</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="9">
         <v>65.28</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="9">
         <v>91.87</v>
       </c>
       <c r="N41">
@@ -3611,16 +3102,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>32</v>
@@ -3637,16 +3128,16 @@
       <c r="I42" s="5">
         <v>35</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="9">
         <v>176.53</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="9">
         <v>194.13</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="9">
         <v>56.69</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="9">
         <v>78.55</v>
       </c>
       <c r="N42">
@@ -3670,16 +3161,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>32</v>
@@ -3696,16 +3187,16 @@
       <c r="I43" s="5">
         <v>36</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="9">
         <v>176.02</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="9">
         <v>194.6</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="9">
         <v>49.06</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="9">
         <v>69.010000000000005</v>
       </c>
       <c r="N43">
@@ -3729,16 +3220,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>32</v>
@@ -3755,16 +3246,16 @@
       <c r="I44" s="5">
         <v>37</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <v>171.89</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="9">
         <v>193.69</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="9">
         <v>42.63</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="9">
         <v>60.21</v>
       </c>
       <c r="N44">
@@ -3788,16 +3279,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>32</v>
@@ -3814,16 +3305,16 @@
       <c r="I45" s="5">
         <v>38</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="9">
         <v>177.09</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="9">
         <v>197.17</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="9">
         <v>37.14</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="9">
         <v>50.26</v>
       </c>
       <c r="N45">
@@ -3847,16 +3338,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>34</v>
@@ -3873,16 +3364,16 @@
       <c r="I46" s="5">
         <v>28</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>138.55000000000001</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="9">
         <v>147.91</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="9">
         <v>144.47</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="9">
         <v>200.07</v>
       </c>
       <c r="N46">
@@ -3906,16 +3397,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>34</v>
@@ -3932,16 +3423,16 @@
       <c r="I47" s="5">
         <v>29</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="9">
         <v>134.41</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="9">
         <v>145.51</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="9">
         <v>126.19</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="9">
         <v>176.82</v>
       </c>
       <c r="N47">
@@ -3965,16 +3456,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>34</v>
@@ -3991,16 +3482,16 @@
       <c r="I48" s="5">
         <v>30</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>136.61000000000001</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <v>148.78</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="9">
         <v>110.22</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="9">
         <v>153.85</v>
       </c>
       <c r="N48">
@@ -4024,16 +3515,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>34</v>
@@ -4050,16 +3541,16 @@
       <c r="I49" s="5">
         <v>31</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="9">
         <v>135.88999999999999</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="9">
         <v>149.71</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="9">
         <v>98.06</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="9">
         <v>137.96</v>
       </c>
       <c r="N49">
@@ -4083,16 +3574,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>34</v>
@@ -4109,16 +3600,16 @@
       <c r="I50" s="5">
         <v>32</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>133.46</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="9">
         <v>146.06</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="9">
         <v>85.57</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="9">
         <v>116.22</v>
       </c>
       <c r="N50">
@@ -4142,16 +3633,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>34</v>
@@ -4168,16 +3659,16 @@
       <c r="I51" s="5">
         <v>33</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="9">
         <v>135.80000000000001</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="9">
         <v>149.80000000000001</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="9">
         <v>76.36</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="9">
         <v>104.19</v>
       </c>
       <c r="N51">
@@ -4201,16 +3692,16 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>34</v>
@@ -4260,16 +3751,16 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>34</v>
@@ -4286,16 +3777,16 @@
       <c r="I53" s="5">
         <v>35</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="9">
         <v>135.80000000000001</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="9">
         <v>148.11000000000001</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="9">
         <v>56.34</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="9">
         <v>78.81</v>
       </c>
       <c r="N53">
@@ -4319,16 +3810,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>34</v>
@@ -4345,16 +3836,16 @@
       <c r="I54" s="5">
         <v>36</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="9">
         <v>135.58000000000001</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="9">
         <v>147.37</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="9">
         <v>49.43</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="9">
         <v>68.39</v>
       </c>
       <c r="N54">
@@ -4378,16 +3869,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>34</v>
@@ -4404,16 +3895,16 @@
       <c r="I55" s="5">
         <v>37</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="9">
         <v>137.16</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="9">
         <v>150.91999999999999</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="9">
         <v>42.93</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="9">
         <v>59.31</v>
       </c>
       <c r="N55">
@@ -4437,16 +3928,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>34</v>
@@ -4463,16 +3954,16 @@
       <c r="I56" s="5">
         <v>38</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="9">
         <v>138.15</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="9">
         <v>150.35</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="9">
         <v>37.19</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="9">
         <v>50.54</v>
       </c>
       <c r="N56">
@@ -4496,16 +3987,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E57">
         <v>36</v>
@@ -4522,25 +4013,31 @@
       <c r="I57" s="5">
         <v>28</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="9">
         <v>106.03</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="9">
         <v>113.32</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="9">
         <v>145.36000000000001</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="9">
         <v>202</v>
       </c>
       <c r="N57">
         <f t="shared" si="3"/>
         <v>0.63147742975587284</v>
       </c>
+      <c r="O57">
+        <v>36.542520000000003</v>
+      </c>
+      <c r="P57">
+        <v>36.010280000000002</v>
+      </c>
       <c r="Q57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.276400000000002</v>
       </c>
       <c r="R57">
         <f t="shared" si="2"/>
@@ -4549,16 +4046,16 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>36</v>
@@ -4575,25 +4072,31 @@
       <c r="I58" s="5">
         <v>29</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="9">
         <v>106.82</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="9">
         <v>115.88</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="9">
         <v>126.11</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="9">
         <v>175.4</v>
       </c>
       <c r="N58">
         <f t="shared" si="3"/>
         <v>0.73861563463898372</v>
       </c>
+      <c r="O58">
+        <v>36.579349999999998</v>
+      </c>
+      <c r="P58">
+        <v>36.134869999999999</v>
+      </c>
       <c r="Q58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.357109999999999</v>
       </c>
       <c r="R58">
         <f t="shared" si="2"/>
@@ -4602,16 +4105,16 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>36</v>
@@ -4628,25 +4131,31 @@
       <c r="I59" s="5">
         <v>30</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="9">
         <v>107.67</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="9">
         <v>115.84</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="9">
         <v>110</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="9">
         <v>154.36000000000001</v>
       </c>
       <c r="N59">
         <f t="shared" si="3"/>
         <v>0.84547586624300186</v>
       </c>
+      <c r="O59">
+        <v>36.606319999999997</v>
+      </c>
+      <c r="P59">
+        <v>36.16366</v>
+      </c>
       <c r="Q59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.384990000000002</v>
       </c>
       <c r="R59">
         <f t="shared" si="2"/>
@@ -4655,16 +4164,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>36</v>
@@ -4681,25 +4190,31 @@
       <c r="I60" s="5">
         <v>31</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="9">
         <v>106.57</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="9">
         <v>114.31</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="9">
         <v>97.91</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="9">
         <v>137.76</v>
       </c>
       <c r="N60">
         <f t="shared" si="3"/>
         <v>0.9372427546993678</v>
       </c>
+      <c r="O60">
+        <v>36.550899999999999</v>
+      </c>
+      <c r="P60">
+        <v>36.053890000000003</v>
+      </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.302395000000004</v>
       </c>
       <c r="R60">
         <f t="shared" si="2"/>
@@ -4708,16 +4223,16 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E61">
         <v>36</v>
@@ -4734,25 +4249,31 @@
       <c r="I61" s="5">
         <v>32</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="9">
         <v>108.29</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="9">
         <v>115.45</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="9">
         <v>85.25</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="9">
         <v>117.68</v>
       </c>
       <c r="N61">
         <f t="shared" si="3"/>
         <v>1.1025476765387079</v>
       </c>
+      <c r="O61">
+        <v>36.563960000000002</v>
+      </c>
+      <c r="P61">
+        <v>36.19032</v>
+      </c>
       <c r="Q61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.377139999999997</v>
       </c>
       <c r="R61">
         <f t="shared" si="2"/>
@@ -4761,16 +4282,16 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E62">
         <v>36</v>
@@ -4787,25 +4308,31 @@
       <c r="I62" s="5">
         <v>33</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="9">
         <v>109.12</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="9">
         <v>115.57</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="9">
         <v>76.400000000000006</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="9">
         <v>103.97</v>
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
         <v>1.2457171369961746</v>
       </c>
+      <c r="O62">
+        <v>36.6081</v>
+      </c>
+      <c r="P62">
+        <v>36.181989999999999</v>
+      </c>
       <c r="Q62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.395044999999996</v>
       </c>
       <c r="R62">
         <f t="shared" si="2"/>
@@ -4814,16 +4341,16 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E63">
         <v>36</v>
@@ -4840,25 +4367,31 @@
       <c r="I63" s="5">
         <v>34</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="9">
         <v>106</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="9">
         <v>114.92</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="9">
         <v>64.28</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="9">
         <v>91.73</v>
       </c>
       <c r="N63">
         <f t="shared" si="3"/>
         <v>1.4160630728799437</v>
       </c>
+      <c r="O63">
+        <v>36.528460000000003</v>
+      </c>
+      <c r="P63">
+        <v>36.090530000000001</v>
+      </c>
       <c r="Q63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.309494999999998</v>
       </c>
       <c r="R63">
         <f t="shared" si="2"/>
@@ -4867,16 +4400,16 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>36</v>
@@ -4893,25 +4426,31 @@
       <c r="I64" s="5">
         <v>35</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="9">
         <v>108.32</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="9">
         <v>116.24</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="9">
         <v>56.43</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="9">
         <v>79.22</v>
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
         <v>1.6554367858459269</v>
       </c>
+      <c r="O64">
+        <v>36.624200000000002</v>
+      </c>
+      <c r="P64">
+        <v>36.163080000000001</v>
+      </c>
       <c r="Q64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.393640000000005</v>
       </c>
       <c r="R64">
         <f t="shared" si="2"/>
@@ -4920,16 +4459,16 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>36</v>
@@ -4962,9 +4501,15 @@
         <f t="shared" si="3"/>
         <v>1.8935027742974759</v>
       </c>
+      <c r="O65">
+        <v>36.601990000000001</v>
+      </c>
+      <c r="P65">
+        <v>36.035640000000001</v>
+      </c>
       <c r="Q65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.318815000000001</v>
       </c>
       <c r="R65">
         <f t="shared" si="2"/>
@@ -4973,16 +4518,16 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E66">
         <v>36</v>
@@ -4999,25 +4544,31 @@
       <c r="I66" s="5">
         <v>37</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="9">
         <v>109</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="9">
         <v>118.88</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="9">
         <v>43</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="9">
         <v>60.36</v>
       </c>
       <c r="N66">
         <f t="shared" ref="N66:N89" si="4">(J66+K66)/(L66+M66)</f>
         <v>2.204721362229102</v>
       </c>
+      <c r="O66">
+        <v>36.603340000000003</v>
+      </c>
+      <c r="P66">
+        <v>36.211089999999999</v>
+      </c>
       <c r="Q66">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.407215000000001</v>
       </c>
       <c r="R66">
         <f t="shared" si="2"/>
@@ -5026,16 +4577,16 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>36</v>
@@ -5052,43 +4603,49 @@
       <c r="I67" s="5">
         <v>38</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="9">
         <v>107.13</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="9">
         <v>113.98</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="9">
         <v>37.58</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="9">
         <v>50.58</v>
       </c>
       <c r="N67">
         <f t="shared" si="4"/>
         <v>2.5080535390199641</v>
       </c>
+      <c r="O67">
+        <v>36.537619999999997</v>
+      </c>
+      <c r="P67">
+        <v>36.057200000000002</v>
+      </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q89" si="5">(O67+P67)/2</f>
-        <v>0</v>
+        <f t="shared" ref="Q67:Q115" si="5">(O67+P67)/2</f>
+        <v>36.297409999999999</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R89" si="6">SUM(J67:M67)</f>
+        <f t="shared" ref="R67:R115" si="6">SUM(J67:M67)</f>
         <v>309.27</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E68">
         <v>38</v>
@@ -5105,25 +4662,31 @@
       <c r="I68" s="5">
         <v>28</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="9">
         <v>85.99</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="9">
         <v>91.35</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="9">
         <v>144.03</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="9">
         <v>200.31</v>
       </c>
       <c r="N68">
         <f t="shared" si="4"/>
         <v>0.51501423012139158</v>
       </c>
+      <c r="O68">
+        <v>35.404879999999999</v>
+      </c>
+      <c r="P68">
+        <v>35.073540000000001</v>
+      </c>
       <c r="Q68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.23921</v>
       </c>
       <c r="R68">
         <f t="shared" si="6"/>
@@ -5132,16 +4695,16 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E69">
         <v>38</v>
@@ -5158,25 +4721,31 @@
       <c r="I69" s="5">
         <v>29</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="9">
         <v>87.18</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="9">
         <v>92.26</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="9">
         <v>127.96</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="9">
         <v>176.2</v>
       </c>
       <c r="N69">
         <f t="shared" si="4"/>
         <v>0.5899526564965808</v>
       </c>
+      <c r="O69">
+        <v>35.399659999999997</v>
+      </c>
+      <c r="P69">
+        <v>35.082880000000003</v>
+      </c>
       <c r="Q69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.24127</v>
       </c>
       <c r="R69">
         <f t="shared" si="6"/>
@@ -5185,16 +4754,16 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E70">
         <v>38</v>
@@ -5211,25 +4780,31 @@
       <c r="I70" s="5">
         <v>30</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="9">
         <v>84.19</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="9">
         <v>88.97</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="9">
         <v>110.41</v>
       </c>
-      <c r="M70" s="11">
+      <c r="M70" s="9">
         <v>154.94</v>
       </c>
       <c r="N70">
         <f t="shared" si="4"/>
         <v>0.65257207461842848</v>
       </c>
+      <c r="O70">
+        <v>35.316490000000002</v>
+      </c>
+      <c r="P70">
+        <v>34.991120000000002</v>
+      </c>
       <c r="Q70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.153805000000006</v>
       </c>
       <c r="R70">
         <f t="shared" si="6"/>
@@ -5238,16 +4813,16 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>38</v>
@@ -5264,25 +4839,31 @@
       <c r="I71" s="5">
         <v>31</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="9">
         <v>86.28</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="9">
         <v>91.59</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="9">
         <v>97.75</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M71" s="9">
         <v>136.54</v>
       </c>
       <c r="N71">
         <f t="shared" si="4"/>
         <v>0.75918733193904997</v>
       </c>
+      <c r="O71">
+        <v>35.420610000000003</v>
+      </c>
+      <c r="P71">
+        <v>35.099299999999999</v>
+      </c>
       <c r="Q71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.259955000000005</v>
       </c>
       <c r="R71">
         <f t="shared" si="6"/>
@@ -5291,16 +4872,16 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>38</v>
@@ -5317,25 +4898,31 @@
       <c r="I72" s="5">
         <v>32</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="9">
         <v>86.64</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="9">
         <v>92.16</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="9">
         <v>84.84</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="9">
         <v>116.79</v>
       </c>
       <c r="N72">
         <f t="shared" si="4"/>
         <v>0.88677280166641881</v>
       </c>
+      <c r="O72">
+        <v>35.375900000000001</v>
+      </c>
+      <c r="P72">
+        <v>35.049990000000001</v>
+      </c>
       <c r="Q72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.212945000000005</v>
       </c>
       <c r="R72">
         <f t="shared" si="6"/>
@@ -5344,16 +4931,16 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>38</v>
@@ -5370,25 +4957,31 @@
       <c r="I73" s="5">
         <v>33</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="9">
         <v>85.8</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="9">
         <v>90.38</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="9">
         <v>77.09</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M73" s="9">
         <v>104.98</v>
       </c>
       <c r="N73">
         <f t="shared" si="4"/>
         <v>0.96764980502004727</v>
       </c>
+      <c r="O73">
+        <v>35.292009999999998</v>
+      </c>
+      <c r="P73">
+        <v>34.997520000000002</v>
+      </c>
       <c r="Q73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.144765</v>
       </c>
       <c r="R73">
         <f t="shared" si="6"/>
@@ -5397,16 +4990,16 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>38</v>
@@ -5423,25 +5016,31 @@
       <c r="I74" s="5">
         <v>34</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="9">
         <v>86.71</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="9">
         <v>92.18</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="9">
         <v>64.680000000000007</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="9">
         <v>90.77</v>
       </c>
       <c r="N74">
         <f>(J74+K74)/(L74+M74)</f>
         <v>1.1507880347378578</v>
       </c>
+      <c r="O74">
+        <v>35.369579999999999</v>
+      </c>
+      <c r="P74">
+        <v>35.083550000000002</v>
+      </c>
       <c r="Q74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.226565000000001</v>
       </c>
       <c r="R74">
         <f t="shared" si="6"/>
@@ -5450,16 +5049,16 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E75">
         <v>38</v>
@@ -5476,25 +5075,31 @@
       <c r="I75" s="5">
         <v>35</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="9">
         <v>87.76</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="9">
         <v>92.49</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="9">
         <v>56.01</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="9">
         <v>78.489999999999995</v>
       </c>
       <c r="N75">
         <f t="shared" si="4"/>
         <v>1.3401486988847584</v>
       </c>
+      <c r="O75">
+        <v>35.415390000000002</v>
+      </c>
+      <c r="P75">
+        <v>35.088560000000001</v>
+      </c>
       <c r="Q75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.251975000000002</v>
       </c>
       <c r="R75">
         <f t="shared" si="6"/>
@@ -5503,16 +5108,16 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E76">
         <v>38</v>
@@ -5529,25 +5134,31 @@
       <c r="I76" s="5">
         <v>36</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="9">
         <v>85.39</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="9">
         <v>92.12</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76" s="9">
         <v>48.87</v>
       </c>
-      <c r="M76" s="11">
+      <c r="M76" s="9">
         <v>68.06</v>
       </c>
       <c r="N76">
         <f t="shared" si="4"/>
         <v>1.5180877448045837</v>
       </c>
+      <c r="O76">
+        <v>35.32573</v>
+      </c>
+      <c r="P76">
+        <v>34.95964</v>
+      </c>
       <c r="Q76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.142685</v>
       </c>
       <c r="R76">
         <f t="shared" si="6"/>
@@ -5556,16 +5167,16 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>38</v>
@@ -5582,25 +5193,31 @@
       <c r="I77" s="5">
         <v>37</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="9">
         <v>86.86</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="9">
         <v>92.86</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="9">
         <v>43.63</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="9">
         <v>60.02</v>
       </c>
       <c r="N77">
         <f t="shared" si="4"/>
         <v>1.733912204534491</v>
       </c>
+      <c r="O77">
+        <v>35.437480000000001</v>
+      </c>
+      <c r="P77">
+        <v>35.06915</v>
+      </c>
       <c r="Q77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.253315000000001</v>
       </c>
       <c r="R77">
         <f t="shared" si="6"/>
@@ -5609,16 +5226,16 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E78">
         <v>38</v>
@@ -5651,9 +5268,15 @@
         <f t="shared" si="4"/>
         <v>1.9973429951690818</v>
       </c>
+      <c r="O78">
+        <v>35.434660000000001</v>
+      </c>
+      <c r="P78">
+        <v>35.06915</v>
+      </c>
       <c r="Q78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.251905000000001</v>
       </c>
       <c r="R78">
         <f t="shared" si="6"/>
@@ -5662,16 +5285,16 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E79">
         <v>40</v>
@@ -5688,25 +5311,31 @@
       <c r="I79" s="5">
         <v>28</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J79" s="9">
         <v>70.03</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="9">
         <v>71.760000000000005</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="9">
         <v>144.15</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M79" s="9">
         <v>200.46</v>
       </c>
       <c r="N79">
         <f t="shared" si="4"/>
         <v>0.41145062534459248</v>
       </c>
+      <c r="O79">
+        <v>34.267969999999998</v>
+      </c>
+      <c r="P79">
+        <v>33.990459999999999</v>
+      </c>
       <c r="Q79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.129215000000002</v>
       </c>
       <c r="R79">
         <f t="shared" si="6"/>
@@ -5715,16 +5344,16 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E80">
         <v>40</v>
@@ -5741,25 +5370,31 @@
       <c r="I80" s="5">
         <v>29</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J80" s="9">
         <v>68.56</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="9">
         <v>70.94</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="9">
         <v>125.5</v>
       </c>
-      <c r="M80" s="11">
+      <c r="M80" s="9">
         <v>175.03</v>
       </c>
       <c r="N80">
         <f t="shared" si="4"/>
         <v>0.46417994875719565</v>
       </c>
+      <c r="O80">
+        <v>34.157080000000001</v>
+      </c>
+      <c r="P80">
+        <v>33.795029999999997</v>
+      </c>
       <c r="Q80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33.976055000000002</v>
       </c>
       <c r="R80">
         <f t="shared" si="6"/>
@@ -5768,16 +5403,16 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -5794,25 +5429,31 @@
       <c r="I81" s="5">
         <v>30</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="9">
         <v>69.61</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="9">
         <v>72.489999999999995</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="9">
         <v>109.63</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M81" s="9">
         <v>154.76</v>
       </c>
       <c r="N81">
         <f t="shared" si="4"/>
         <v>0.53746359544612121</v>
       </c>
+      <c r="O81">
+        <v>34.248109999999997</v>
+      </c>
+      <c r="P81">
+        <v>33.95476</v>
+      </c>
       <c r="Q81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.101434999999995</v>
       </c>
       <c r="R81">
         <f t="shared" si="6"/>
@@ -5821,16 +5462,16 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E82">
         <v>40</v>
@@ -5847,25 +5488,31 @@
       <c r="I82" s="5">
         <v>31</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="9">
         <v>70.34</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="9">
         <v>72.59</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="9">
         <v>97.39</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="9">
         <v>136.32</v>
       </c>
       <c r="N82">
         <f t="shared" si="4"/>
         <v>0.61156989431346553</v>
       </c>
+      <c r="O82">
+        <v>34.258479999999999</v>
+      </c>
+      <c r="P82">
+        <v>33.992139999999999</v>
+      </c>
       <c r="Q82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.125309999999999</v>
       </c>
       <c r="R82">
         <f t="shared" si="6"/>
@@ -5874,16 +5521,16 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E83">
         <v>40</v>
@@ -5900,25 +5547,31 @@
       <c r="I83" s="5">
         <v>32</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="9">
         <v>68.28</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="9">
         <v>71.510000000000005</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="9">
         <v>85.13</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M83" s="9">
         <v>116.21</v>
       </c>
       <c r="N83">
         <f t="shared" si="4"/>
         <v>0.69429820204629</v>
       </c>
+      <c r="O83">
+        <v>34.12462</v>
+      </c>
+      <c r="P83">
+        <v>33.845419999999997</v>
+      </c>
       <c r="Q83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33.985019999999999</v>
       </c>
       <c r="R83">
         <f t="shared" si="6"/>
@@ -5927,16 +5580,16 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E84">
         <v>40</v>
@@ -5953,25 +5606,31 @@
       <c r="I84" s="5">
         <v>33</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J84" s="9">
         <v>70.11</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="9">
         <v>73.52</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="9">
         <v>76.37</v>
       </c>
-      <c r="M84" s="11">
+      <c r="M84" s="9">
         <v>105.17</v>
       </c>
       <c r="N84">
         <f t="shared" si="4"/>
         <v>0.7911754985127244</v>
       </c>
+      <c r="O84">
+        <v>34.259860000000003</v>
+      </c>
+      <c r="P84">
+        <v>33.9574</v>
+      </c>
       <c r="Q84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.108630000000005</v>
       </c>
       <c r="R84">
         <f t="shared" si="6"/>
@@ -5980,16 +5639,16 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -6006,25 +5665,31 @@
       <c r="I85" s="5">
         <v>34</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J85" s="9">
         <v>70.45</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="9">
         <v>72.36</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85" s="9">
         <v>64.69</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M85" s="9">
         <v>89.47</v>
       </c>
       <c r="N85">
         <f t="shared" si="4"/>
         <v>0.92637519460300988</v>
       </c>
+      <c r="O85">
+        <v>34.256610000000002</v>
+      </c>
+      <c r="P85">
+        <v>33.963979999999999</v>
+      </c>
       <c r="Q85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.110295000000001</v>
       </c>
       <c r="R85">
         <f t="shared" si="6"/>
@@ -6033,16 +5698,16 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E86">
         <v>40</v>
@@ -6059,25 +5724,31 @@
       <c r="I86" s="5">
         <v>35</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J86" s="9">
         <v>69.680000000000007</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="9">
         <v>72.22</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="9">
         <v>56.62</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86" s="9">
         <v>78.37</v>
       </c>
       <c r="N86">
         <f t="shared" si="4"/>
         <v>1.0511889769612563</v>
       </c>
+      <c r="O86">
+        <v>34.123869999999997</v>
+      </c>
+      <c r="P86">
+        <v>33.825319999999998</v>
+      </c>
       <c r="Q86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33.974594999999994</v>
       </c>
       <c r="R86">
         <f t="shared" si="6"/>
@@ -6086,16 +5757,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E87">
         <v>40</v>
@@ -6112,25 +5783,31 @@
       <c r="I87" s="5">
         <v>36</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J87" s="9">
         <v>71.3</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="9">
         <v>73.25</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87" s="9">
         <v>49.01</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87" s="9">
         <v>68.86</v>
       </c>
       <c r="N87">
         <f t="shared" si="4"/>
         <v>1.2263510647323324</v>
       </c>
+      <c r="O87">
+        <v>34.257399999999997</v>
+      </c>
+      <c r="P87">
+        <v>33.956789999999998</v>
+      </c>
       <c r="Q87">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.107095000000001</v>
       </c>
       <c r="R87">
         <f t="shared" si="6"/>
@@ -6139,16 +5816,16 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E88">
         <v>40</v>
@@ -6165,25 +5842,31 @@
       <c r="I88" s="5">
         <v>37</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J88" s="9">
         <v>71.58</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="9">
         <v>74.03</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L88" s="9">
         <v>43.75</v>
       </c>
-      <c r="M88" s="11">
+      <c r="M88" s="9">
         <v>60.72</v>
       </c>
       <c r="N88">
         <f t="shared" si="4"/>
         <v>1.393797262371973</v>
       </c>
+      <c r="O88">
+        <v>34.280819999999999</v>
+      </c>
+      <c r="P88">
+        <v>33.990389999999998</v>
+      </c>
       <c r="Q88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34.135604999999998</v>
       </c>
       <c r="R88">
         <f t="shared" si="6"/>
@@ -6192,16 +5875,16 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>40</v>
@@ -6218,25 +5901,31 @@
       <c r="I89" s="5">
         <v>38</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J89" s="9">
         <v>70</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="9">
         <v>73.31</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L89" s="9">
         <v>36.61</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M89" s="9">
         <v>51.24</v>
       </c>
       <c r="N89">
         <f t="shared" si="4"/>
         <v>1.6313033579965852</v>
       </c>
+      <c r="O89">
+        <v>34.143000000000001</v>
+      </c>
+      <c r="P89">
+        <v>33.767220000000002</v>
+      </c>
       <c r="Q89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33.955110000000005</v>
       </c>
       <c r="R89">
         <f t="shared" si="6"/>
@@ -6245,16 +5934,16 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <v>26</v>
@@ -6283,36 +5972,33 @@
       <c r="M90">
         <v>252.4</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>41.686579999999999</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>41.200069999999997</v>
       </c>
-      <c r="P90">
-        <f t="shared" ref="P90:P114" si="7">(N90+O90)/2</f>
+      <c r="Q90">
+        <f t="shared" si="5"/>
         <v>41.443325000000002</v>
       </c>
-      <c r="Q90">
-        <f t="shared" ref="Q90:Q114" si="8">SUM(J90:K90)</f>
-        <v>1065.28</v>
-      </c>
-      <c r="R90" t="s">
-        <v>16</v>
+      <c r="R90">
+        <f t="shared" si="6"/>
+        <v>1492.6200000000001</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>28</v>
@@ -6341,36 +6027,33 @@
       <c r="M91">
         <v>197.74</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>40.802439999999997</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>40.24156</v>
       </c>
-      <c r="P91">
-        <f t="shared" si="7"/>
+      <c r="Q91">
+        <f t="shared" si="5"/>
         <v>40.521999999999998</v>
       </c>
-      <c r="Q91">
-        <f t="shared" si="8"/>
-        <v>825.06</v>
-      </c>
-      <c r="R91" s="10" t="s">
-        <v>18</v>
+      <c r="R91">
+        <f t="shared" si="6"/>
+        <v>1160.06</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E92">
         <v>30</v>
@@ -6399,36 +6082,33 @@
       <c r="M92">
         <v>174.4</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>39.753210000000003</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>39.182980000000001</v>
       </c>
-      <c r="P92">
-        <f t="shared" si="7"/>
+      <c r="Q92">
+        <f t="shared" si="5"/>
         <v>39.468095000000005</v>
       </c>
-      <c r="Q92">
-        <f t="shared" si="8"/>
-        <v>647.46</v>
-      </c>
-      <c r="R92" t="s">
-        <v>19</v>
+      <c r="R92">
+        <f t="shared" si="6"/>
+        <v>941.76</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -6445,48 +6125,45 @@
       <c r="I93">
         <v>32</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="14">
         <v>246.8</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="14">
         <v>279.76</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L93" s="14">
         <v>80.900000000000006</v>
       </c>
-      <c r="M93" s="16">
+      <c r="M93" s="14">
         <v>115.06</v>
       </c>
-      <c r="N93" s="16">
+      <c r="O93" s="14">
         <v>38.805030000000002</v>
       </c>
-      <c r="O93" s="16">
+      <c r="P93" s="14">
         <v>38.227710000000002</v>
       </c>
-      <c r="P93">
-        <f t="shared" si="7"/>
+      <c r="Q93">
+        <f t="shared" si="5"/>
         <v>38.516370000000002</v>
       </c>
-      <c r="Q93">
-        <f t="shared" si="8"/>
-        <v>526.55999999999995</v>
-      </c>
-      <c r="R93" s="10" t="s">
-        <v>20</v>
+      <c r="R93">
+        <f t="shared" si="6"/>
+        <v>722.52</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E94">
         <v>34</v>
@@ -6503,48 +6180,45 @@
       <c r="I94">
         <v>34</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="14">
         <v>202.1</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="14">
         <v>229.1</v>
       </c>
-      <c r="L94" s="16">
+      <c r="L94" s="14">
         <v>60.28</v>
       </c>
-      <c r="M94" s="16">
+      <c r="M94" s="14">
         <v>90.28</v>
       </c>
-      <c r="N94" s="16">
+      <c r="O94" s="14">
         <v>37.771970000000003</v>
       </c>
-      <c r="O94" s="16">
+      <c r="P94" s="14">
         <v>37.033679999999997</v>
       </c>
-      <c r="P94">
-        <f t="shared" si="7"/>
+      <c r="Q94">
+        <f t="shared" si="5"/>
         <v>37.402825</v>
       </c>
-      <c r="Q94">
-        <f t="shared" si="8"/>
-        <v>431.2</v>
-      </c>
-      <c r="R94" t="s">
-        <v>21</v>
+      <c r="R94">
+        <f t="shared" si="6"/>
+        <v>581.76</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E95">
         <v>36</v>
@@ -6561,48 +6235,45 @@
       <c r="I95">
         <v>36</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J95" s="14">
         <v>164.74</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="14">
         <v>189.04</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L95" s="14">
         <v>70.86</v>
       </c>
-      <c r="M95" s="16">
+      <c r="M95" s="14">
         <v>103.54</v>
       </c>
-      <c r="N95" s="16">
+      <c r="O95" s="14">
         <v>36.539470000000001</v>
       </c>
-      <c r="O95" s="16">
+      <c r="P95" s="14">
         <v>35.791229999999999</v>
       </c>
-      <c r="P95">
-        <f t="shared" si="7"/>
+      <c r="Q95">
+        <f t="shared" si="5"/>
         <v>36.165350000000004</v>
       </c>
-      <c r="Q95">
-        <f t="shared" si="8"/>
-        <v>353.78</v>
-      </c>
-      <c r="R95" s="10" t="s">
-        <v>22</v>
+      <c r="R95">
+        <f t="shared" si="6"/>
+        <v>528.17999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>38</v>
@@ -6619,48 +6290,45 @@
       <c r="I96">
         <v>38</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J96" s="14">
         <v>143.66</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="14">
         <v>158.56</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L96" s="14">
         <v>33.340000000000003</v>
       </c>
-      <c r="M96" s="16">
+      <c r="M96" s="14">
         <v>48.44</v>
       </c>
-      <c r="N96" s="16">
+      <c r="O96" s="14">
         <v>35.476900000000001</v>
       </c>
-      <c r="O96" s="16">
+      <c r="P96" s="14">
         <v>34.754890000000003</v>
       </c>
-      <c r="P96">
-        <f t="shared" si="7"/>
+      <c r="Q96">
+        <f t="shared" si="5"/>
         <v>35.115895000000002</v>
       </c>
-      <c r="Q96">
-        <f t="shared" si="8"/>
-        <v>302.22000000000003</v>
-      </c>
-      <c r="R96" t="s">
-        <v>23</v>
+      <c r="R96">
+        <f t="shared" si="6"/>
+        <v>384.00000000000006</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>40</v>
@@ -6677,48 +6345,45 @@
       <c r="I97">
         <v>40</v>
       </c>
-      <c r="J97" s="16">
+      <c r="J97" s="14">
         <v>120.7</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="14">
         <v>140.69999999999999</v>
       </c>
-      <c r="L97" s="16">
+      <c r="L97" s="14">
         <v>25.26</v>
       </c>
-      <c r="M97" s="16">
+      <c r="M97" s="14">
         <v>36.56</v>
       </c>
-      <c r="N97" s="16">
+      <c r="O97" s="14">
         <v>34.28295</v>
       </c>
-      <c r="O97" s="16">
+      <c r="P97" s="14">
         <v>33.383690000000001</v>
       </c>
-      <c r="P97">
-        <f t="shared" si="7"/>
+      <c r="Q97">
+        <f t="shared" si="5"/>
         <v>33.833320000000001</v>
       </c>
-      <c r="Q97">
-        <f t="shared" si="8"/>
-        <v>261.39999999999998</v>
-      </c>
-      <c r="R97" s="10" t="s">
-        <v>24</v>
+      <c r="R97">
+        <f t="shared" si="6"/>
+        <v>323.21999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>26</v>
@@ -6735,48 +6400,45 @@
       <c r="I98">
         <v>26</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="14">
         <v>387.96</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="14">
         <v>458.04</v>
       </c>
-      <c r="L98" s="16">
+      <c r="L98" s="14">
         <v>180.96</v>
       </c>
-      <c r="M98" s="16">
+      <c r="M98" s="14">
         <v>259.08</v>
       </c>
-      <c r="N98" s="16">
+      <c r="O98" s="14">
         <v>41.797629999999998</v>
       </c>
-      <c r="O98" s="16">
+      <c r="P98" s="14">
         <v>41.295610000000003</v>
       </c>
-      <c r="P98">
-        <f t="shared" si="7"/>
+      <c r="Q98">
+        <f t="shared" si="5"/>
         <v>41.546620000000004</v>
       </c>
-      <c r="Q98">
-        <f t="shared" si="8"/>
-        <v>846</v>
-      </c>
-      <c r="R98" t="s">
-        <v>25</v>
+      <c r="R98">
+        <f t="shared" si="6"/>
+        <v>1286.04</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <v>28</v>
@@ -6793,48 +6455,45 @@
       <c r="I99">
         <v>28</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="14">
         <v>292.22000000000003</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="14">
         <v>339.76</v>
       </c>
-      <c r="L99" s="16">
+      <c r="L99" s="14">
         <v>137.26</v>
       </c>
-      <c r="M99" s="16">
+      <c r="M99" s="14">
         <v>197.74</v>
       </c>
-      <c r="N99" s="16">
+      <c r="O99" s="14">
         <v>40.894370000000002</v>
       </c>
-      <c r="O99" s="16">
+      <c r="P99" s="14">
         <v>40.38373</v>
       </c>
-      <c r="P99">
-        <f t="shared" si="7"/>
+      <c r="Q99">
+        <f t="shared" si="5"/>
         <v>40.639049999999997</v>
       </c>
-      <c r="Q99">
-        <f t="shared" si="8"/>
-        <v>631.98</v>
-      </c>
-      <c r="R99" s="10" t="s">
-        <v>26</v>
+      <c r="R99">
+        <f t="shared" si="6"/>
+        <v>966.98</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>30</v>
@@ -6851,48 +6510,45 @@
       <c r="I100">
         <v>30</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100" s="14">
         <v>218.12</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="14">
         <v>254.22</v>
       </c>
-      <c r="L100" s="16">
+      <c r="L100" s="14">
         <v>104.22</v>
       </c>
-      <c r="M100" s="16">
+      <c r="M100" s="14">
         <v>150.96</v>
       </c>
-      <c r="N100" s="16">
+      <c r="O100" s="14">
         <v>39.926299999999998</v>
       </c>
-      <c r="O100" s="16">
+      <c r="P100" s="14">
         <v>39.389580000000002</v>
       </c>
-      <c r="P100">
-        <f t="shared" si="7"/>
+      <c r="Q100">
+        <f t="shared" si="5"/>
         <v>39.657939999999996</v>
       </c>
-      <c r="Q100">
-        <f t="shared" si="8"/>
-        <v>472.34000000000003</v>
-      </c>
-      <c r="R100" t="s">
-        <v>27</v>
+      <c r="R100">
+        <f t="shared" si="6"/>
+        <v>727.5200000000001</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>32</v>
@@ -6909,48 +6565,45 @@
       <c r="I101">
         <v>32</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101" s="14">
         <v>166.26</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="14">
         <v>189.22</v>
       </c>
-      <c r="L101" s="16">
+      <c r="L101" s="14">
         <v>100.9</v>
       </c>
-      <c r="M101" s="16">
+      <c r="M101" s="14">
         <v>145.4</v>
       </c>
-      <c r="N101" s="16">
+      <c r="O101" s="14">
         <v>38.835970000000003</v>
       </c>
-      <c r="O101" s="16">
+      <c r="P101" s="14">
         <v>38.274979999999999</v>
       </c>
-      <c r="P101">
-        <f t="shared" si="7"/>
+      <c r="Q101">
+        <f t="shared" si="5"/>
         <v>38.555475000000001</v>
       </c>
-      <c r="Q101">
-        <f t="shared" si="8"/>
-        <v>355.48</v>
-      </c>
-      <c r="R101" s="10" t="s">
-        <v>28</v>
+      <c r="R101">
+        <f t="shared" si="6"/>
+        <v>601.78</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>34</v>
@@ -6967,48 +6620,45 @@
       <c r="I102">
         <v>34</v>
       </c>
-      <c r="J102" s="16">
+      <c r="J102" s="14">
         <v>131.36000000000001</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="14">
         <v>146.04</v>
       </c>
-      <c r="L102" s="16">
+      <c r="L102" s="14">
         <v>60.28</v>
       </c>
-      <c r="M102" s="16">
+      <c r="M102" s="14">
         <v>90.28</v>
       </c>
-      <c r="N102" s="16">
+      <c r="O102" s="14">
         <v>37.76182</v>
       </c>
-      <c r="O102" s="16">
+      <c r="P102" s="14">
         <v>37.242100000000001</v>
       </c>
-      <c r="P102">
-        <f t="shared" si="7"/>
+      <c r="Q102">
+        <f t="shared" si="5"/>
         <v>37.501959999999997</v>
       </c>
-      <c r="Q102">
-        <f t="shared" si="8"/>
-        <v>277.39999999999998</v>
-      </c>
-      <c r="R102" t="s">
-        <v>29</v>
+      <c r="R102">
+        <f t="shared" si="6"/>
+        <v>427.95999999999992</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>36</v>
@@ -7025,48 +6675,45 @@
       <c r="I103">
         <v>36</v>
       </c>
-      <c r="J103" s="16">
+      <c r="J103" s="14">
         <v>102.46</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="14">
         <v>115.22</v>
       </c>
-      <c r="L103" s="16">
+      <c r="L103" s="14">
         <v>44.74</v>
       </c>
-      <c r="M103" s="16">
+      <c r="M103" s="14">
         <v>68.58</v>
       </c>
-      <c r="N103" s="16">
+      <c r="O103" s="14">
         <v>36.698799999999999</v>
       </c>
-      <c r="O103" s="16">
+      <c r="P103" s="14">
         <v>36.15607</v>
       </c>
-      <c r="P103">
-        <f t="shared" si="7"/>
+      <c r="Q103">
+        <f t="shared" si="5"/>
         <v>36.427435000000003</v>
       </c>
-      <c r="Q103">
-        <f t="shared" si="8"/>
-        <v>217.68</v>
-      </c>
-      <c r="R103" s="10" t="s">
-        <v>30</v>
+      <c r="R103">
+        <f t="shared" si="6"/>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E104">
         <v>38</v>
@@ -7083,48 +6730,45 @@
       <c r="I104">
         <v>38</v>
       </c>
-      <c r="J104" s="16">
+      <c r="J104" s="14">
         <v>80.239999999999995</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="14">
         <v>90.28</v>
       </c>
-      <c r="L104" s="16">
+      <c r="L104" s="14">
         <v>61.42</v>
       </c>
-      <c r="M104" s="16">
+      <c r="M104" s="14">
         <v>87.88</v>
       </c>
-      <c r="N104" s="16">
+      <c r="O104" s="14">
         <v>35.453919999999997</v>
       </c>
-      <c r="O104" s="16">
+      <c r="P104" s="14">
         <v>36.15607</v>
       </c>
-      <c r="P104">
-        <f t="shared" si="7"/>
+      <c r="Q104">
+        <f t="shared" si="5"/>
         <v>35.804994999999998</v>
       </c>
-      <c r="Q104">
-        <f t="shared" si="8"/>
-        <v>170.51999999999998</v>
-      </c>
-      <c r="R104" t="s">
-        <v>31</v>
+      <c r="R104">
+        <f t="shared" si="6"/>
+        <v>319.82</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -7141,562 +6785,587 @@
       <c r="I105">
         <v>40</v>
       </c>
-      <c r="J105" s="16">
+      <c r="J105" s="14">
         <v>67.88</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="14">
         <v>74.44</v>
       </c>
-      <c r="L105" s="16">
+      <c r="L105" s="14">
         <v>25.26</v>
       </c>
-      <c r="M105" s="16">
+      <c r="M105" s="14">
         <v>36.56</v>
       </c>
-      <c r="N105" s="16">
+      <c r="O105" s="14">
         <v>34.433</v>
       </c>
-      <c r="O105" s="16">
+      <c r="P105" s="14">
         <v>34.03416</v>
       </c>
-      <c r="P105">
-        <f t="shared" si="7"/>
+      <c r="Q105">
+        <f t="shared" si="5"/>
         <v>34.233580000000003</v>
       </c>
-      <c r="Q105">
-        <f t="shared" si="8"/>
-        <v>142.32</v>
-      </c>
-      <c r="R105" s="10" t="s">
-        <v>32</v>
+      <c r="R105">
+        <f t="shared" si="6"/>
+        <v>204.14</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F106">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G106">
         <v>10</v>
       </c>
       <c r="H106">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I106">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J106">
-        <v>65.8</v>
+        <v>389.52</v>
       </c>
       <c r="K106">
-        <v>72.040000000000006</v>
+        <v>456.84</v>
       </c>
       <c r="L106">
-        <v>25.56</v>
+        <v>176.4</v>
       </c>
       <c r="M106">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="N106">
-        <v>34.210769999999997</v>
+        <v>251.94</v>
       </c>
       <c r="O106">
-        <v>33.843409999999999</v>
+        <v>41.800730000000001</v>
       </c>
       <c r="P106">
-        <f t="shared" si="7"/>
-        <v>34.027090000000001</v>
+        <v>41.306370000000001</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="8"/>
-        <v>137.84</v>
-      </c>
-      <c r="R106" s="10" t="s">
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>41.553550000000001</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="6"/>
+        <v>1274.6999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C107" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F107">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I107">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J107">
-        <v>426.64</v>
+        <v>65.8</v>
       </c>
       <c r="K107">
-        <v>507.2</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L107">
-        <v>174.94</v>
+        <v>25.56</v>
       </c>
       <c r="M107">
-        <v>252.4</v>
-      </c>
-      <c r="N107">
-        <v>41.613950000000003</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="O107">
-        <v>41.045999999999999</v>
+        <v>34.210769999999997</v>
       </c>
       <c r="P107">
-        <f t="shared" si="7"/>
-        <v>41.329975000000005</v>
+        <v>33.843409999999999</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="8"/>
-        <v>933.83999999999992</v>
-      </c>
-      <c r="R107" t="s">
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>34.027090000000001</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="6"/>
+        <v>198.78</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F108">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I108">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J108">
-        <v>303.5</v>
+        <v>389.52</v>
       </c>
       <c r="K108">
-        <v>370.34</v>
+        <v>456.84</v>
       </c>
       <c r="L108">
-        <v>147.72</v>
+        <v>176.4</v>
       </c>
       <c r="M108">
-        <v>213.76</v>
-      </c>
-      <c r="N108">
-        <v>40.617829999999998</v>
+        <v>251.94</v>
       </c>
       <c r="O108">
-        <v>40.068260000000002</v>
+        <v>41.800730000000001</v>
       </c>
       <c r="P108">
-        <f t="shared" si="7"/>
-        <v>40.343045000000004</v>
+        <v>41.306370000000001</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="8"/>
-        <v>673.83999999999992</v>
-      </c>
-      <c r="R108" s="10" t="s">
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>41.553550000000001</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="6"/>
+        <v>1274.6999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F109">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G109">
         <v>10</v>
       </c>
       <c r="H109">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I109">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J109">
-        <v>235.74</v>
+        <v>303.5</v>
       </c>
       <c r="K109">
-        <v>283.54000000000002</v>
+        <v>370.34</v>
       </c>
       <c r="L109">
-        <v>104.22</v>
+        <v>147.72</v>
       </c>
       <c r="M109">
-        <v>150.96</v>
-      </c>
-      <c r="N109">
-        <v>39.721609999999998</v>
+        <v>213.76</v>
       </c>
       <c r="O109">
-        <v>39.093089999999997</v>
+        <v>40.617829999999998</v>
       </c>
       <c r="P109">
-        <f t="shared" si="7"/>
-        <v>39.407349999999994</v>
+        <v>40.068260000000002</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="8"/>
-        <v>519.28</v>
-      </c>
-      <c r="R109" t="s">
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>40.343045000000004</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="6"/>
+        <v>1035.32</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F110">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I110">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J110">
-        <v>175.62</v>
+        <v>235.74</v>
       </c>
       <c r="K110">
-        <v>204.96</v>
+        <v>283.54000000000002</v>
       </c>
       <c r="L110">
-        <v>80.900000000000006</v>
+        <v>104.22</v>
       </c>
       <c r="M110">
-        <v>115.06</v>
-      </c>
-      <c r="N110">
-        <v>38.73565</v>
+        <v>150.96</v>
       </c>
       <c r="O110">
-        <v>37.966290000000001</v>
+        <v>39.721609999999998</v>
       </c>
       <c r="P110">
-        <f t="shared" si="7"/>
-        <v>38.350970000000004</v>
+        <v>39.093089999999997</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="8"/>
-        <v>380.58000000000004</v>
-      </c>
-      <c r="R110" s="10" t="s">
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>39.407349999999994</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="6"/>
+        <v>774.46</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E111">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F111">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>10</v>
       </c>
       <c r="H111">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I111">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J111">
-        <v>135.22</v>
+        <v>175.62</v>
       </c>
       <c r="K111">
-        <v>158.76</v>
+        <v>204.96</v>
       </c>
       <c r="L111">
-        <v>82.68</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="M111">
-        <v>122.86</v>
-      </c>
-      <c r="N111">
-        <v>37.556069999999998</v>
+        <v>115.06</v>
       </c>
       <c r="O111">
-        <v>36.88494</v>
+        <v>38.73565</v>
       </c>
       <c r="P111">
-        <f t="shared" si="7"/>
-        <v>37.220505000000003</v>
+        <v>37.966290000000001</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="8"/>
-        <v>293.98</v>
-      </c>
-      <c r="R111" t="s">
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>38.350970000000004</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="6"/>
+        <v>576.54</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E112">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F112">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
       <c r="H112">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I112">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J112">
-        <v>108.68</v>
+        <v>135.22</v>
       </c>
       <c r="K112">
-        <v>124.92</v>
+        <v>158.76</v>
       </c>
       <c r="L112">
-        <v>44.74</v>
+        <v>82.68</v>
       </c>
       <c r="M112">
-        <v>68.58</v>
-      </c>
-      <c r="N112">
-        <v>36.566719999999997</v>
+        <v>122.86</v>
       </c>
       <c r="O112">
-        <v>35.921880000000002</v>
+        <v>37.556069999999998</v>
       </c>
       <c r="P112">
-        <f t="shared" si="7"/>
-        <v>36.244299999999996</v>
+        <v>36.88494</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="8"/>
-        <v>233.60000000000002</v>
-      </c>
-      <c r="R112" s="10" t="s">
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>37.220505000000003</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="6"/>
+        <v>499.52000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E113">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F113">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>10</v>
       </c>
       <c r="H113">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I113">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J113">
-        <v>80.78</v>
+        <v>108.68</v>
       </c>
       <c r="K113">
-        <v>90.2</v>
+        <v>124.92</v>
       </c>
       <c r="L113">
-        <v>33.340000000000003</v>
+        <v>44.74</v>
       </c>
       <c r="M113">
-        <v>48.44</v>
-      </c>
-      <c r="N113">
-        <v>35.396470000000001</v>
+        <v>68.58</v>
       </c>
       <c r="O113">
-        <v>34.860639999999997</v>
+        <v>36.566719999999997</v>
       </c>
       <c r="P113">
-        <f t="shared" si="7"/>
-        <v>35.128554999999999</v>
+        <v>35.921880000000002</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="8"/>
-        <v>170.98000000000002</v>
-      </c>
-      <c r="R113" t="s">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>36.244299999999996</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="6"/>
+        <v>346.92</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F114">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>10</v>
       </c>
       <c r="H114">
+        <v>38</v>
+      </c>
+      <c r="I114">
+        <v>38</v>
+      </c>
+      <c r="J114">
+        <v>80.78</v>
+      </c>
+      <c r="K114">
+        <v>90.2</v>
+      </c>
+      <c r="L114">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="M114">
+        <v>48.44</v>
+      </c>
+      <c r="O114">
+        <v>35.396470000000001</v>
+      </c>
+      <c r="P114">
+        <v>34.860639999999997</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="5"/>
+        <v>35.128554999999999</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="6"/>
+        <v>252.76000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115">
         <v>40</v>
       </c>
-      <c r="I114">
+      <c r="F115">
         <v>40</v>
       </c>
-      <c r="J114">
+      <c r="G115">
+        <v>10</v>
+      </c>
+      <c r="H115">
+        <v>40</v>
+      </c>
+      <c r="I115">
+        <v>40</v>
+      </c>
+      <c r="J115">
         <v>69.84</v>
       </c>
-      <c r="K114">
+      <c r="K115">
         <v>77.58</v>
       </c>
-      <c r="L114">
+      <c r="L115">
         <v>54.72</v>
       </c>
-      <c r="M114">
+      <c r="M115">
         <v>76.94</v>
       </c>
-      <c r="N114">
+      <c r="O115">
         <v>34.171129999999998</v>
       </c>
-      <c r="O114">
+      <c r="P115">
         <v>33.61795</v>
       </c>
-      <c r="P114">
-        <f t="shared" si="7"/>
+      <c r="Q115">
+        <f t="shared" si="5"/>
         <v>33.894539999999999</v>
       </c>
-      <c r="Q114">
-        <f t="shared" si="8"/>
-        <v>147.42000000000002</v>
-      </c>
-      <c r="R114" s="10" t="s">
-        <v>41</v>
+      <c r="R115">
+        <f t="shared" si="6"/>
+        <v>279.08000000000004</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="colorScale" priority="228">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7708,7 +7377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="colorScale" priority="227">
+    <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7719,48 +7388,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S22">
-    <cfRule type="containsText" dxfId="35" priority="225" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S22">
-    <cfRule type="containsText" dxfId="34" priority="212" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23:S29">
-    <cfRule type="containsText" dxfId="33" priority="201" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23:S29">
-    <cfRule type="containsText" dxfId="32" priority="195" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S36">
-    <cfRule type="containsText" dxfId="31" priority="173" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:S36">
-    <cfRule type="containsText" dxfId="30" priority="167" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S37:S43">
-    <cfRule type="containsText" dxfId="29" priority="154" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S37:S43">
-    <cfRule type="containsText" dxfId="28" priority="148" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",S37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2:F12">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7772,7 +7401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I34">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7784,7 +7413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I45">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7796,7 +7425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:I56">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7808,7 +7437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:I67">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7820,7 +7449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:I78">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7832,7 +7461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:I89">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7844,7 +7473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F89">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7855,13 +7484,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R90:R97">
-    <cfRule type="containsText" dxfId="27" priority="91" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7873,6 +7497,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F91">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:I91">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E93">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F93">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92:I93">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94:E95">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -7884,13 +7568,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R90:R91">
-    <cfRule type="containsText" dxfId="26" priority="88" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90:I91">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="F94:F95">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7901,13 +7580,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R92:R93">
-    <cfRule type="containsText" dxfId="25" priority="86" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E93">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="H94:I95">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7918,7 +7592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F93">
+  <conditionalFormatting sqref="E96:E97">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -7930,13 +7604,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R92:R93">
-    <cfRule type="containsText" dxfId="24" priority="83" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92:I93">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="F96:F97">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7947,13 +7616,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R94:R95">
-    <cfRule type="containsText" dxfId="23" priority="81" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="H96:I97">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7964,8 +7628,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
+  <conditionalFormatting sqref="H90:I97">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:F97">
     <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7976,29 +7664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R94:R95">
-    <cfRule type="containsText" dxfId="22" priority="78" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94:I95">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R96:R97">
-    <cfRule type="containsText" dxfId="21" priority="76" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
+  <conditionalFormatting sqref="F98:F99">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -8010,8 +7676,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F97">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="H98:I99">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8022,13 +7688,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R96:R97">
-    <cfRule type="containsText" dxfId="20" priority="73" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:I97">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="E100:E101">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8039,42 +7700,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:I97">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:F97">
+  <conditionalFormatting sqref="F100:F101">
     <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R98:R105">
-    <cfRule type="containsText" dxfId="19" priority="69" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R98:R99">
-    <cfRule type="containsText" dxfId="18" priority="68" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8085,7 +7712,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
+  <conditionalFormatting sqref="H100:I101">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102:E103">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -8097,13 +7736,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R98:R99">
-    <cfRule type="containsText" dxfId="17" priority="65" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I99">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="F102:F103">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8114,13 +7748,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R100:R101">
-    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E101">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="H102:I103">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8131,7 +7760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F101">
+  <conditionalFormatting sqref="E104:E105">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -8143,13 +7772,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R100:R101">
-    <cfRule type="containsText" dxfId="15" priority="60" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R100)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100:I101">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="F104:F105">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8160,13 +7784,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R102:R103">
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E103">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="H104:I105">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8177,24 +7796,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F103">
+  <conditionalFormatting sqref="H98:I105">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:F105">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R102:R103">
-    <cfRule type="containsText" dxfId="13" priority="55" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102:I103">
+  <conditionalFormatting sqref="E108:E109">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -8206,13 +7832,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R104:R105">
-    <cfRule type="containsText" dxfId="12" priority="53" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E105">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="F108:F109">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8223,7 +7844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104:F105">
+  <conditionalFormatting sqref="H108:I109">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -8235,12 +7856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R104:R105">
-    <cfRule type="containsText" dxfId="11" priority="50" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104:I105">
+  <conditionalFormatting sqref="E110:E111">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -8252,37 +7868,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I105">
+  <conditionalFormatting sqref="F110:F111">
     <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:F105">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R107:R114">
-    <cfRule type="containsText" dxfId="10" priority="46" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:E108">
-    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8293,7 +7880,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:F108">
+  <conditionalFormatting sqref="H110:I111">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112:E113">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -8305,13 +7904,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R107:R108">
-    <cfRule type="containsText" dxfId="9" priority="43" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I108">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="F112:F113">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8322,13 +7916,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R109:R110">
-    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109:E110">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="H112:I113">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8339,7 +7928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F110">
+  <conditionalFormatting sqref="E114:E115">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -8351,13 +7940,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R109:R110">
-    <cfRule type="containsText" dxfId="7" priority="38" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109:I110">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="F114:F115">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8368,13 +7952,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R111:R112">
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E112">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="H114:I115">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8385,8 +7964,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:F112">
+  <conditionalFormatting sqref="H108:I115">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108:F115">
     <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8397,13 +8000,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R111:R112">
-    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111:I112">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="F107">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8414,13 +8012,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R113:R114">
-    <cfRule type="containsText" dxfId="4" priority="31" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E114">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="H107:I107">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8431,37 +8024,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F114">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R113:R114">
-    <cfRule type="containsText" dxfId="3" priority="28" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H113:I114">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I114">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="H107:I107">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8472,8 +8036,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107:F114">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="E107:F107">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8484,14 +8048,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R106">
-    <cfRule type="containsText" dxfId="2" priority="24" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R106">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R106)))</formula>
+  <conditionalFormatting sqref="H107:I107">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
@@ -8516,11 +8082,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R106">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Description">
-      <formula>NOT(ISERROR(SEARCH("Description",R106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:I106">

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106:P106"/>
+    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="R107" sqref="B107:R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,50 +753,46 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>26</v>
       </c>
-      <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5">
-        <v>28</v>
-      </c>
-      <c r="J2" s="11">
-        <v>405.58</v>
-      </c>
-      <c r="K2" s="12">
-        <v>467.09</v>
-      </c>
-      <c r="L2" s="9">
-        <v>143.99</v>
-      </c>
-      <c r="M2" s="9">
-        <v>199.48</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">(J2+K2)/(L2+M2)</f>
-        <v>2.540745916673945</v>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>389.52</v>
+      </c>
+      <c r="K2">
+        <v>456.84</v>
+      </c>
+      <c r="L2">
+        <v>176.4</v>
+      </c>
+      <c r="M2">
+        <v>251.94</v>
       </c>
       <c r="O2">
-        <v>41.789020000000001</v>
+        <v>41.800730000000001</v>
       </c>
       <c r="P2">
-        <v>41.309959999999997</v>
+        <v>41.306370000000001</v>
       </c>
       <c r="Q2">
         <f>(O2+P2)/2</f>
-        <v>41.549489999999999</v>
+        <v>41.553550000000001</v>
       </c>
       <c r="R2">
         <f>SUM(J2:M2)</f>
-        <v>1216.1399999999999</v>
+        <v>1274.6999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -822,40 +818,40 @@
         <v>20</v>
       </c>
       <c r="H3" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5">
-        <v>413.72</v>
-      </c>
-      <c r="K3" s="6">
-        <v>476.52</v>
+        <v>28</v>
+      </c>
+      <c r="J3" s="11">
+        <v>405.58</v>
+      </c>
+      <c r="K3" s="12">
+        <v>467.09</v>
       </c>
       <c r="L3" s="9">
-        <v>126.29</v>
+        <v>143.99</v>
       </c>
       <c r="M3" s="9">
-        <v>176.86</v>
+        <v>199.48</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>2.9366320303480125</v>
+        <f t="shared" ref="N3:N34" si="0">(J3+K3)/(L3+M3)</f>
+        <v>2.540745916673945</v>
       </c>
       <c r="O3">
-        <v>41.802610000000001</v>
+        <v>41.789020000000001</v>
       </c>
       <c r="P3">
-        <v>41.325890000000001</v>
+        <v>41.309959999999997</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="1">(O3+P3)/2</f>
-        <v>41.564250000000001</v>
+        <f>(O3+P3)/2</f>
+        <v>41.549489999999999</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="2">SUM(J3:M3)</f>
-        <v>1193.3899999999999</v>
+        <f>SUM(J3:M3)</f>
+        <v>1216.1399999999999</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -881,40 +877,40 @@
         <v>20</v>
       </c>
       <c r="H4" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="5">
-        <v>412.95</v>
+        <v>413.72</v>
       </c>
       <c r="K4" s="6">
-        <v>474.13</v>
+        <v>476.52</v>
       </c>
       <c r="L4" s="9">
-        <v>110.48</v>
+        <v>126.29</v>
       </c>
       <c r="M4" s="9">
-        <v>154.22</v>
+        <v>176.86</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>3.3512655836796372</v>
+        <v>2.9366320303480125</v>
       </c>
       <c r="O4">
-        <v>41.812660000000001</v>
+        <v>41.802610000000001</v>
       </c>
       <c r="P4">
-        <v>41.334949999999999</v>
+        <v>41.325890000000001</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>41.573805</v>
+        <f t="shared" ref="Q4:Q67" si="1">(O4+P4)/2</f>
+        <v>41.564250000000001</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
-        <v>1151.78</v>
+        <f t="shared" ref="R4:R67" si="2">SUM(J4:M4)</f>
+        <v>1193.3899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -940,40 +936,40 @@
         <v>20</v>
       </c>
       <c r="H5" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5">
-        <v>404.3</v>
+        <v>412.95</v>
       </c>
       <c r="K5" s="6">
-        <v>466.15</v>
+        <v>474.13</v>
       </c>
       <c r="L5" s="9">
-        <v>98.31</v>
+        <v>110.48</v>
       </c>
       <c r="M5" s="9">
-        <v>136.96</v>
+        <v>154.22</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>3.6997917286521869</v>
+        <v>3.3512655836796372</v>
       </c>
       <c r="O5">
-        <v>41.781440000000003</v>
+        <v>41.812660000000001</v>
       </c>
       <c r="P5">
-        <v>41.294449999999998</v>
+        <v>41.334949999999999</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>41.537945000000001</v>
+        <v>41.573805</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>1105.72</v>
+        <v>1151.78</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -999,40 +995,40 @@
         <v>20</v>
       </c>
       <c r="H6" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5">
-        <v>414.02</v>
+        <v>404.3</v>
       </c>
       <c r="K6" s="6">
-        <v>475.9</v>
+        <v>466.15</v>
       </c>
       <c r="L6" s="9">
-        <v>85.47</v>
+        <v>98.31</v>
       </c>
       <c r="M6" s="9">
-        <v>115.77</v>
+        <v>136.96</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>4.4221824686940963</v>
+        <v>3.6997917286521869</v>
       </c>
       <c r="O6">
-        <v>41.807450000000003</v>
+        <v>41.781440000000003</v>
       </c>
       <c r="P6">
-        <v>41.334139999999998</v>
+        <v>41.294449999999998</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>41.570795000000004</v>
+        <v>41.537945000000001</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>1091.1600000000001</v>
+        <v>1105.72</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1058,40 +1054,40 @@
         <v>20</v>
       </c>
       <c r="H7" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5">
-        <v>413.42</v>
+        <v>414.02</v>
       </c>
       <c r="K7" s="6">
-        <v>474.7</v>
+        <v>475.9</v>
       </c>
       <c r="L7" s="9">
-        <v>76.48</v>
+        <v>85.47</v>
       </c>
       <c r="M7" s="9">
-        <v>104.95</v>
+        <v>115.77</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>4.8951110621176213</v>
+        <v>4.4221824686940963</v>
       </c>
       <c r="O7">
-        <v>41.789450000000002</v>
+        <v>41.807450000000003</v>
       </c>
       <c r="P7">
-        <v>41.323599999999999</v>
+        <v>41.334139999999998</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>41.556525000000001</v>
+        <v>41.570795000000004</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>1069.55</v>
+        <v>1091.1600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1117,40 +1113,40 @@
         <v>20</v>
       </c>
       <c r="H8" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="5">
-        <v>403.71</v>
+        <v>413.42</v>
       </c>
       <c r="K8" s="6">
-        <v>467.64</v>
+        <v>474.7</v>
       </c>
       <c r="L8" s="9">
-        <v>65.150000000000006</v>
+        <v>76.48</v>
       </c>
       <c r="M8" s="9">
-        <v>91.96</v>
+        <v>104.95</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>5.5461141875119333</v>
+        <v>4.8951110621176213</v>
       </c>
       <c r="O8">
-        <v>41.780250000000002</v>
+        <v>41.789450000000002</v>
       </c>
       <c r="P8">
-        <v>41.301969999999997</v>
+        <v>41.323599999999999</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>41.541110000000003</v>
+        <v>41.556525000000001</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>1028.4599999999998</v>
+        <v>1069.55</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -1176,40 +1172,40 @@
         <v>20</v>
       </c>
       <c r="H9" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="5">
-        <v>411.87</v>
+        <v>403.71</v>
       </c>
       <c r="K9" s="6">
-        <v>475.98</v>
+        <v>467.64</v>
       </c>
       <c r="L9" s="9">
-        <v>57.28</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="M9" s="9">
-        <v>78.680000000000007</v>
+        <v>91.96</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>6.5302294792586055</v>
+        <v>5.5461141875119333</v>
       </c>
       <c r="O9">
-        <v>41.80789</v>
+        <v>41.780250000000002</v>
       </c>
       <c r="P9">
-        <v>41.336170000000003</v>
+        <v>41.301969999999997</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>41.572029999999998</v>
+        <v>41.541110000000003</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>1023.81</v>
+        <v>1028.4599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1235,40 +1231,40 @@
         <v>20</v>
       </c>
       <c r="H10" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="5">
-        <v>412.31</v>
+        <v>411.87</v>
       </c>
       <c r="K10" s="6">
-        <v>474.97</v>
+        <v>475.98</v>
       </c>
       <c r="L10" s="9">
-        <v>48.99</v>
+        <v>57.28</v>
       </c>
       <c r="M10" s="9">
-        <v>68.819999999999993</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>7.5314489432136487</v>
+        <v>6.5302294792586055</v>
       </c>
       <c r="O10">
-        <v>41.797539999999998</v>
+        <v>41.80789</v>
       </c>
       <c r="P10">
-        <v>41.331049999999998</v>
+        <v>41.336170000000003</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>41.564295000000001</v>
+        <v>41.572029999999998</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>1005.0899999999999</v>
+        <v>1023.81</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1294,40 +1290,40 @@
         <v>20</v>
       </c>
       <c r="H11" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="5">
-        <v>405.54</v>
+        <v>412.31</v>
       </c>
       <c r="K11" s="6">
-        <v>468.98</v>
+        <v>474.97</v>
       </c>
       <c r="L11" s="9">
-        <v>43.27</v>
+        <v>48.99</v>
       </c>
       <c r="M11" s="9">
-        <v>60.13</v>
+        <v>68.819999999999993</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>8.4576402321083162</v>
+        <v>7.5314489432136487</v>
       </c>
       <c r="O11">
-        <v>41.755333</v>
+        <v>41.797539999999998</v>
       </c>
       <c r="P11">
-        <v>41.293109999999999</v>
+        <v>41.331049999999998</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>41.524221499999996</v>
+        <v>41.564295000000001</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>977.92</v>
+        <v>1005.0899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -1353,40 +1349,40 @@
         <v>20</v>
       </c>
       <c r="H12" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="5">
-        <v>414.96</v>
+        <v>405.54</v>
       </c>
       <c r="K12" s="6">
-        <v>475.41</v>
+        <v>468.98</v>
       </c>
       <c r="L12" s="9">
-        <v>36.950000000000003</v>
+        <v>43.27</v>
       </c>
       <c r="M12" s="9">
-        <v>50.99</v>
+        <v>60.13</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>10.124744143734365</v>
+        <v>8.4576402321083162</v>
       </c>
       <c r="O12">
-        <v>41.792990000000003</v>
+        <v>41.755333</v>
       </c>
       <c r="P12">
-        <v>41.335189999999997</v>
+        <v>41.293109999999999</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>41.56409</v>
+        <v>41.524221499999996</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>978.31000000000006</v>
+        <v>977.92</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -1402,50 +1398,50 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9">
-        <v>28</v>
+      <c r="E13" s="6">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6">
+        <v>26</v>
       </c>
       <c r="G13" s="5">
         <v>20</v>
       </c>
       <c r="H13" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="5">
-        <v>28</v>
-      </c>
-      <c r="J13">
-        <v>281.94</v>
-      </c>
-      <c r="K13">
-        <v>326.3</v>
-      </c>
-      <c r="L13">
-        <v>136.26</v>
-      </c>
-      <c r="M13">
-        <v>197.94</v>
+        <v>38</v>
+      </c>
+      <c r="J13" s="5">
+        <v>414.96</v>
+      </c>
+      <c r="K13" s="6">
+        <v>475.41</v>
+      </c>
+      <c r="L13" s="9">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="M13" s="9">
+        <v>50.99</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>1.8199880311190904</v>
+        <v>10.124744143734365</v>
       </c>
       <c r="O13">
-        <v>40.850490000000001</v>
+        <v>41.792990000000003</v>
       </c>
       <c r="P13">
-        <v>40.322890000000001</v>
+        <v>41.335189999999997</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>40.586690000000004</v>
+        <v>41.56409</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>942.44</v>
+        <v>978.31000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -1471,40 +1467,40 @@
         <v>20</v>
       </c>
       <c r="H14" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5">
-        <v>29</v>
-      </c>
-      <c r="J14" s="5">
-        <v>304.20999999999998</v>
-      </c>
-      <c r="K14" s="6">
-        <v>344.59</v>
-      </c>
-      <c r="L14" s="9">
-        <v>126.89</v>
-      </c>
-      <c r="M14" s="9">
-        <v>176.21</v>
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>281.94</v>
+      </c>
+      <c r="K14">
+        <v>326.3</v>
+      </c>
+      <c r="L14">
+        <v>136.26</v>
+      </c>
+      <c r="M14">
+        <v>197.94</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>2.1405476740349716</v>
+        <v>1.8199880311190904</v>
       </c>
       <c r="O14">
-        <v>40.885309999999997</v>
+        <v>40.850490000000001</v>
       </c>
       <c r="P14">
         <v>40.322890000000001</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>40.604100000000003</v>
+        <v>40.586690000000004</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>951.9</v>
+        <v>942.44</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -1530,40 +1526,40 @@
         <v>20</v>
       </c>
       <c r="H15" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="5">
-        <v>294.67</v>
+        <v>304.20999999999998</v>
       </c>
       <c r="K15" s="6">
-        <v>337.07</v>
+        <v>344.59</v>
       </c>
       <c r="L15" s="9">
-        <v>110.01</v>
+        <v>126.89</v>
       </c>
       <c r="M15" s="9">
-        <v>153.77000000000001</v>
+        <v>176.21</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>2.3949503374023804</v>
+        <v>2.1405476740349716</v>
       </c>
       <c r="O15">
-        <v>40.837290000000003</v>
+        <v>40.885309999999997</v>
       </c>
       <c r="P15">
-        <v>40.328009999999999</v>
+        <v>40.322890000000001</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>40.582650000000001</v>
+        <v>40.604100000000003</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>895.52</v>
+        <v>951.9</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -1589,40 +1585,40 @@
         <v>20</v>
       </c>
       <c r="H16" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5">
-        <v>301.43</v>
+        <v>294.67</v>
       </c>
       <c r="K16" s="6">
-        <v>342.56</v>
+        <v>337.07</v>
       </c>
       <c r="L16" s="9">
-        <v>97.24</v>
+        <v>110.01</v>
       </c>
       <c r="M16" s="9">
-        <v>137.83000000000001</v>
+        <v>153.77000000000001</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>2.7395669375079765</v>
+        <v>2.3949503374023804</v>
       </c>
       <c r="O16">
-        <v>40.886800000000001</v>
+        <v>40.837290000000003</v>
       </c>
       <c r="P16">
-        <v>40.378070000000001</v>
+        <v>40.328009999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>40.632435000000001</v>
+        <v>40.582650000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>879.06000000000006</v>
+        <v>895.52</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -1648,40 +1644,40 @@
         <v>20</v>
       </c>
       <c r="H17" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="5">
-        <v>301.93</v>
+        <v>301.43</v>
       </c>
       <c r="K17" s="6">
-        <v>343.08</v>
+        <v>342.56</v>
       </c>
       <c r="L17" s="9">
-        <v>85.43</v>
+        <v>97.24</v>
       </c>
       <c r="M17" s="9">
-        <v>116.42</v>
+        <v>137.83000000000001</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>3.1954917017587312</v>
+        <v>2.7395669375079765</v>
       </c>
       <c r="O17">
-        <v>40.882689999999997</v>
+        <v>40.886800000000001</v>
       </c>
       <c r="P17">
-        <v>40.3812</v>
+        <v>40.378070000000001</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>40.631945000000002</v>
+        <v>40.632435000000001</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>846.86</v>
+        <v>879.06000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
@@ -1707,40 +1703,40 @@
         <v>20</v>
       </c>
       <c r="H18" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="5">
-        <v>294.25</v>
+        <v>301.93</v>
       </c>
       <c r="K18" s="6">
-        <v>335.86</v>
+        <v>343.08</v>
       </c>
       <c r="L18" s="9">
-        <v>76.849999999999994</v>
+        <v>85.43</v>
       </c>
       <c r="M18" s="9">
-        <v>104.31</v>
+        <v>116.42</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>3.4781960697725767</v>
+        <v>3.1954917017587312</v>
       </c>
       <c r="O18">
-        <v>40.825189999999999</v>
+        <v>40.882689999999997</v>
       </c>
       <c r="P18">
-        <v>40.333959999999998</v>
+        <v>40.3812</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>40.579574999999998</v>
+        <v>40.631945000000002</v>
       </c>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>811.27</v>
+        <v>846.86</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -1766,40 +1762,40 @@
         <v>20</v>
       </c>
       <c r="H19" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="5">
-        <v>302.64999999999998</v>
+        <v>294.25</v>
       </c>
       <c r="K19" s="6">
-        <v>345.23</v>
+        <v>335.86</v>
       </c>
       <c r="L19" s="9">
-        <v>65.06</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="M19" s="9">
-        <v>92.42</v>
+        <v>104.31</v>
       </c>
       <c r="N19">
-        <f>(J19+K19)/(L19+M19)</f>
-        <v>4.1140462280924552</v>
+        <f t="shared" si="0"/>
+        <v>3.4781960697725767</v>
       </c>
       <c r="O19">
-        <v>40.868980000000001</v>
+        <v>40.825189999999999</v>
       </c>
       <c r="P19">
-        <v>40.39199</v>
+        <v>40.333959999999998</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>40.630485</v>
+        <v>40.579574999999998</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>805.36</v>
+        <v>811.27</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
@@ -1825,40 +1821,40 @@
         <v>20</v>
       </c>
       <c r="H20" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="5">
-        <v>301.2</v>
+        <v>302.64999999999998</v>
       </c>
       <c r="K20" s="6">
-        <v>344.16</v>
+        <v>345.23</v>
       </c>
       <c r="L20" s="9">
-        <v>56.94</v>
+        <v>65.06</v>
       </c>
       <c r="M20" s="9">
-        <v>78.89</v>
+        <v>92.42</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>4.7512331590959294</v>
+        <f>(J20+K20)/(L20+M20)</f>
+        <v>4.1140462280924552</v>
       </c>
       <c r="O20">
-        <v>40.88353</v>
+        <v>40.868980000000001</v>
       </c>
       <c r="P20">
-        <v>40.394010000000002</v>
+        <v>40.39199</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>40.638770000000001</v>
+        <v>40.630485</v>
       </c>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>781.18999999999994</v>
+        <v>805.36</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
@@ -1884,40 +1880,40 @@
         <v>20</v>
       </c>
       <c r="H21" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="5">
-        <v>295.20999999999998</v>
+        <v>301.2</v>
       </c>
       <c r="K21" s="6">
-        <v>338.12</v>
+        <v>344.16</v>
       </c>
       <c r="L21" s="9">
-        <v>49.3</v>
+        <v>56.94</v>
       </c>
       <c r="M21" s="9">
-        <v>68.81</v>
+        <v>78.89</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>5.3622047244094482</v>
+        <v>4.7512331590959294</v>
       </c>
       <c r="O21">
-        <v>40.81521</v>
+        <v>40.88353</v>
       </c>
       <c r="P21">
-        <v>40.34704</v>
+        <v>40.394010000000002</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>40.581125</v>
+        <v>40.638770000000001</v>
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>751.43999999999983</v>
+        <v>781.18999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
@@ -1943,40 +1939,40 @@
         <v>20</v>
       </c>
       <c r="H22" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="5">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2">
-        <v>303.11</v>
-      </c>
-      <c r="K22" s="3">
-        <v>345.27</v>
+        <v>36</v>
+      </c>
+      <c r="J22" s="5">
+        <v>295.20999999999998</v>
+      </c>
+      <c r="K22" s="6">
+        <v>338.12</v>
       </c>
       <c r="L22" s="9">
-        <v>43.39</v>
+        <v>49.3</v>
       </c>
       <c r="M22" s="9">
-        <v>59.75</v>
+        <v>68.81</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>6.2864068256738417</v>
+        <v>5.3622047244094482</v>
       </c>
       <c r="O22">
-        <v>40.883769999999998</v>
+        <v>40.81521</v>
       </c>
       <c r="P22">
-        <v>40.405299999999997</v>
+        <v>40.34704</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>40.644534999999998</v>
+        <v>40.581125</v>
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>751.52</v>
+        <v>751.43999999999983</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
@@ -2002,40 +1998,40 @@
         <v>20</v>
       </c>
       <c r="H23" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="5">
-        <v>38</v>
-      </c>
-      <c r="J23" s="9">
-        <v>304.38</v>
-      </c>
-      <c r="K23" s="13">
-        <v>345.74</v>
+        <v>37</v>
+      </c>
+      <c r="J23" s="2">
+        <v>303.11</v>
+      </c>
+      <c r="K23" s="3">
+        <v>345.27</v>
       </c>
       <c r="L23" s="9">
-        <v>37.4</v>
+        <v>43.39</v>
       </c>
       <c r="M23" s="9">
-        <v>50.97</v>
+        <v>59.75</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>7.3567952925200855</v>
+        <v>6.2864068256738417</v>
       </c>
       <c r="O23">
-        <v>40.865630000000003</v>
+        <v>40.883769999999998</v>
       </c>
       <c r="P23">
-        <v>40.399279999999997</v>
+        <v>40.405299999999997</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>40.632455</v>
+        <v>40.644534999999998</v>
       </c>
       <c r="R23">
         <f t="shared" si="2"/>
-        <v>738.49</v>
+        <v>751.52</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -2052,49 +2048,49 @@
         <v>24</v>
       </c>
       <c r="E24" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="5">
         <v>20</v>
       </c>
       <c r="H24" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I24" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J24" s="9">
-        <v>223.98</v>
+        <v>304.38</v>
       </c>
       <c r="K24" s="13">
-        <v>253.11</v>
+        <v>345.74</v>
       </c>
       <c r="L24" s="9">
-        <v>145</v>
+        <v>37.4</v>
       </c>
       <c r="M24" s="9">
-        <v>201.63</v>
+        <v>50.97</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>1.3763667310965584</v>
+        <v>7.3567952925200855</v>
       </c>
       <c r="O24">
-        <v>39.802500000000002</v>
+        <v>40.865630000000003</v>
       </c>
       <c r="P24">
-        <v>39.350459999999998</v>
+        <v>40.399279999999997</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>39.576480000000004</v>
+        <v>40.632455</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>823.72</v>
+        <v>738.49</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -2120,40 +2116,40 @@
         <v>20</v>
       </c>
       <c r="H25" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="9">
-        <v>228.87</v>
+        <v>223.98</v>
       </c>
       <c r="K25" s="13">
-        <v>259.38</v>
+        <v>253.11</v>
       </c>
       <c r="L25" s="9">
-        <v>126.21</v>
+        <v>145</v>
       </c>
       <c r="M25" s="9">
-        <v>175.82</v>
+        <v>201.63</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>1.6165612687481377</v>
+        <v>1.3763667310965584</v>
       </c>
       <c r="O25">
-        <v>39.885469999999998</v>
+        <v>39.802500000000002</v>
       </c>
       <c r="P25">
-        <v>39.198999999999998</v>
+        <v>39.350459999999998</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>39.542234999999998</v>
+        <v>39.576480000000004</v>
       </c>
       <c r="R25">
         <f t="shared" si="2"/>
-        <v>790.28</v>
+        <v>823.72</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
@@ -2179,40 +2175,40 @@
         <v>20</v>
       </c>
       <c r="H26" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="5">
-        <v>30</v>
-      </c>
-      <c r="J26">
-        <v>212.68</v>
-      </c>
-      <c r="K26">
-        <v>245.44</v>
-      </c>
-      <c r="L26">
-        <v>103.56</v>
-      </c>
-      <c r="M26">
-        <v>150.9</v>
+        <v>29</v>
+      </c>
+      <c r="J26" s="9">
+        <v>228.87</v>
+      </c>
+      <c r="K26" s="13">
+        <v>259.38</v>
+      </c>
+      <c r="L26" s="9">
+        <v>126.21</v>
+      </c>
+      <c r="M26" s="9">
+        <v>175.82</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>1.8003615499489114</v>
+        <v>1.6165612687481377</v>
       </c>
       <c r="O26">
-        <v>39.809130000000003</v>
+        <v>39.885469999999998</v>
       </c>
       <c r="P26">
-        <v>39.308149999999998</v>
+        <v>39.198999999999998</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>39.558639999999997</v>
+        <v>39.542234999999998</v>
       </c>
       <c r="R26">
         <f t="shared" si="2"/>
-        <v>712.58</v>
+        <v>790.28</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -2238,40 +2234,40 @@
         <v>20</v>
       </c>
       <c r="H27" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27" s="5">
-        <v>31</v>
-      </c>
-      <c r="J27" s="9">
-        <v>230.3</v>
-      </c>
-      <c r="K27" s="9">
-        <v>258.70999999999998</v>
-      </c>
-      <c r="L27" s="9">
-        <v>98.89</v>
-      </c>
-      <c r="M27" s="9">
-        <v>136.41999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>212.68</v>
+      </c>
+      <c r="K27">
+        <v>245.44</v>
+      </c>
+      <c r="L27">
+        <v>103.56</v>
+      </c>
+      <c r="M27">
+        <v>150.9</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>2.078152224724831</v>
+        <v>1.8003615499489114</v>
       </c>
       <c r="O27">
-        <v>39.884819999999998</v>
+        <v>39.809130000000003</v>
       </c>
       <c r="P27">
-        <v>39.371360000000003</v>
+        <v>39.308149999999998</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>39.62809</v>
+        <v>39.558639999999997</v>
       </c>
       <c r="R27">
         <f t="shared" si="2"/>
-        <v>724.31999999999994</v>
+        <v>712.58</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
@@ -2297,40 +2293,40 @@
         <v>20</v>
       </c>
       <c r="H28" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" s="9">
-        <v>223.06</v>
+        <v>230.3</v>
       </c>
       <c r="K28" s="9">
-        <v>252.39</v>
+        <v>258.70999999999998</v>
       </c>
       <c r="L28" s="9">
-        <v>84.34</v>
+        <v>98.89</v>
       </c>
       <c r="M28" s="9">
-        <v>116.76</v>
+        <v>136.41999999999999</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>2.3642466434609646</v>
+        <v>2.078152224724831</v>
       </c>
       <c r="O28">
-        <v>39.813319999999997</v>
+        <v>39.884819999999998</v>
       </c>
       <c r="P28">
         <v>39.371360000000003</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>39.59234</v>
+        <v>39.62809</v>
       </c>
       <c r="R28">
         <f t="shared" si="2"/>
-        <v>676.55</v>
+        <v>724.31999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
@@ -2356,40 +2352,40 @@
         <v>20</v>
       </c>
       <c r="H29" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="9">
-        <v>230.41</v>
+        <v>223.06</v>
       </c>
       <c r="K29" s="9">
-        <v>256.64999999999998</v>
+        <v>252.39</v>
       </c>
       <c r="L29" s="9">
-        <v>76.41</v>
+        <v>84.34</v>
       </c>
       <c r="M29" s="9">
-        <v>104.66</v>
+        <v>116.76</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>2.6898989341138786</v>
+        <v>2.3642466434609646</v>
       </c>
       <c r="O29">
-        <v>39.892670000000003</v>
+        <v>39.813319999999997</v>
       </c>
       <c r="P29">
-        <v>39.369500000000002</v>
+        <v>39.371360000000003</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>39.631084999999999</v>
+        <v>39.59234</v>
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>668.12999999999988</v>
+        <v>676.55</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -2415,40 +2411,40 @@
         <v>20</v>
       </c>
       <c r="H30" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J30" s="9">
-        <v>230.48</v>
+        <v>230.41</v>
       </c>
       <c r="K30" s="9">
-        <v>256.62</v>
+        <v>256.64999999999998</v>
       </c>
       <c r="L30" s="9">
-        <v>64.8</v>
+        <v>76.41</v>
       </c>
       <c r="M30" s="9">
-        <v>91.17</v>
+        <v>104.66</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>3.1230364813746236</v>
+        <v>2.6898989341138786</v>
       </c>
       <c r="O30">
-        <v>39.892139999999998</v>
+        <v>39.892670000000003</v>
       </c>
       <c r="P30">
-        <v>39.379429999999999</v>
+        <v>39.369500000000002</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>39.635784999999998</v>
+        <v>39.631084999999999</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>643.06999999999994</v>
+        <v>668.12999999999988</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -2474,40 +2470,40 @@
         <v>20</v>
       </c>
       <c r="H31" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" s="9">
-        <v>223.27</v>
+        <v>230.48</v>
       </c>
       <c r="K31" s="9">
-        <v>254.52</v>
+        <v>256.62</v>
       </c>
       <c r="L31" s="9">
-        <v>56.88</v>
+        <v>64.8</v>
       </c>
       <c r="M31" s="9">
-        <v>78.42</v>
+        <v>91.17</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>3.5313377679231337</v>
+        <v>3.1230364813746236</v>
       </c>
       <c r="O31">
-        <v>39.806719999999999</v>
+        <v>39.892139999999998</v>
       </c>
       <c r="P31">
-        <v>39.323369999999997</v>
+        <v>39.379429999999999</v>
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>39.565044999999998</v>
+        <v>39.635784999999998</v>
       </c>
       <c r="R31">
         <f t="shared" si="2"/>
-        <v>613.09</v>
+        <v>643.06999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
@@ -2533,40 +2529,40 @@
         <v>20</v>
       </c>
       <c r="H32" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="9">
-        <v>229.36</v>
+        <v>223.27</v>
       </c>
       <c r="K32" s="9">
-        <v>257.76</v>
+        <v>254.52</v>
       </c>
       <c r="L32" s="9">
-        <v>49.11</v>
+        <v>56.88</v>
       </c>
       <c r="M32" s="9">
-        <v>68.14</v>
+        <v>78.42</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>4.1545415778251602</v>
+        <v>3.5313377679231337</v>
       </c>
       <c r="O32">
-        <v>39.885289999999998</v>
+        <v>39.806719999999999</v>
       </c>
       <c r="P32">
-        <v>39.392580000000002</v>
+        <v>39.323369999999997</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>39.638935000000004</v>
+        <v>39.565044999999998</v>
       </c>
       <c r="R32">
         <f t="shared" si="2"/>
-        <v>604.37</v>
+        <v>613.09</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
@@ -2592,40 +2588,40 @@
         <v>20</v>
       </c>
       <c r="H33" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" s="9">
-        <v>229.93</v>
+        <v>229.36</v>
       </c>
       <c r="K33" s="9">
-        <v>258.58999999999997</v>
+        <v>257.76</v>
       </c>
       <c r="L33" s="9">
-        <v>43.28</v>
+        <v>49.11</v>
       </c>
       <c r="M33" s="9">
-        <v>59.83</v>
+        <v>68.14</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>4.7378527785859763</v>
+        <v>4.1545415778251602</v>
       </c>
       <c r="O33">
         <v>39.885289999999998</v>
       </c>
       <c r="P33">
-        <v>39.368020000000001</v>
+        <v>39.392580000000002</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>39.626655</v>
+        <v>39.638935000000004</v>
       </c>
       <c r="R33">
         <f t="shared" si="2"/>
-        <v>591.63</v>
+        <v>604.37</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
@@ -2651,40 +2647,40 @@
         <v>20</v>
       </c>
       <c r="H34" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="9">
-        <v>222.9</v>
+        <v>229.93</v>
       </c>
       <c r="K34" s="9">
-        <v>254.19</v>
+        <v>258.58999999999997</v>
       </c>
       <c r="L34" s="9">
-        <v>37.25</v>
+        <v>43.28</v>
       </c>
       <c r="M34" s="9">
-        <v>50.81</v>
+        <v>59.83</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="3">(J34+K34)/(L34+M34)</f>
-        <v>5.417783329548036</v>
+        <f t="shared" si="0"/>
+        <v>4.7378527785859763</v>
       </c>
       <c r="O34">
-        <v>39.809379999999997</v>
+        <v>39.885289999999998</v>
       </c>
       <c r="P34">
-        <v>39.306800000000003</v>
+        <v>39.368020000000001</v>
       </c>
       <c r="Q34">
         <f t="shared" si="1"/>
-        <v>39.55809</v>
+        <v>39.626655</v>
       </c>
       <c r="R34">
         <f t="shared" si="2"/>
-        <v>565.15000000000009</v>
+        <v>591.63</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
@@ -2700,50 +2696,50 @@
       <c r="D35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>32</v>
+      <c r="E35" s="9">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9">
+        <v>30</v>
       </c>
       <c r="G35" s="5">
         <v>20</v>
       </c>
       <c r="H35" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I35" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J35" s="9">
-        <v>176.43</v>
+        <v>222.9</v>
       </c>
       <c r="K35" s="9">
-        <v>194.64</v>
+        <v>254.19</v>
       </c>
       <c r="L35" s="9">
-        <v>144.22999999999999</v>
+        <v>37.25</v>
       </c>
       <c r="M35" s="9">
-        <v>200.88</v>
+        <v>50.81</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
-        <v>1.0752223928602473</v>
+        <f t="shared" ref="N35:N66" si="3">(J35+K35)/(L35+M35)</f>
+        <v>5.417783329548036</v>
       </c>
       <c r="O35">
-        <v>38.845779999999998</v>
+        <v>39.809379999999997</v>
       </c>
       <c r="P35">
-        <v>38.315399999999997</v>
+        <v>39.306800000000003</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>38.580590000000001</v>
+        <v>39.55809</v>
       </c>
       <c r="R35">
         <f t="shared" si="2"/>
-        <v>716.18</v>
+        <v>565.15000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
@@ -2769,40 +2765,40 @@
         <v>20</v>
       </c>
       <c r="H36" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" s="9">
-        <v>177.76</v>
+        <v>176.43</v>
       </c>
       <c r="K36" s="9">
-        <v>195.66</v>
+        <v>194.64</v>
       </c>
       <c r="L36" s="9">
-        <v>110</v>
+        <v>144.22999999999999</v>
       </c>
       <c r="M36" s="9">
-        <v>152.69999999999999</v>
+        <v>200.88</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>1.4214693566806242</v>
+        <v>1.0752223928602473</v>
       </c>
       <c r="O36">
-        <v>38.856209999999997</v>
+        <v>38.845779999999998</v>
       </c>
       <c r="P36">
-        <v>38.29045</v>
+        <v>38.315399999999997</v>
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
-        <v>38.573329999999999</v>
+        <v>38.580590000000001</v>
       </c>
       <c r="R36">
         <f t="shared" si="2"/>
-        <v>636.11999999999989</v>
+        <v>716.18</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
@@ -2828,40 +2824,40 @@
         <v>20</v>
       </c>
       <c r="H37" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" s="9">
-        <v>173.52</v>
+        <v>177.76</v>
       </c>
       <c r="K37" s="9">
-        <v>193.65</v>
+        <v>195.66</v>
       </c>
       <c r="L37" s="9">
-        <v>110.93</v>
+        <v>110</v>
       </c>
       <c r="M37" s="9">
-        <v>154.19</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>1.3849200362100182</v>
+        <v>1.4214693566806242</v>
       </c>
       <c r="O37">
-        <v>39.809130000000003</v>
+        <v>38.856209999999997</v>
       </c>
       <c r="P37">
-        <v>39.308149999999998</v>
+        <v>38.29045</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
-        <v>39.558639999999997</v>
+        <v>38.573329999999999</v>
       </c>
       <c r="R37">
         <f t="shared" si="2"/>
-        <v>632.29</v>
+        <v>636.11999999999989</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
@@ -2887,40 +2883,40 @@
         <v>20</v>
       </c>
       <c r="H38" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" s="9">
-        <v>176.3</v>
+        <v>173.52</v>
       </c>
       <c r="K38" s="9">
-        <v>194.25</v>
+        <v>193.65</v>
       </c>
       <c r="L38" s="9">
-        <v>98.21</v>
+        <v>110.93</v>
       </c>
       <c r="M38" s="9">
-        <v>137.09</v>
+        <v>154.19</v>
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>1.5747981300467488</v>
+        <v>1.3849200362100182</v>
       </c>
       <c r="O38">
-        <v>38.763930000000002</v>
+        <v>39.809130000000003</v>
       </c>
       <c r="P38">
-        <v>38.229950000000002</v>
+        <v>39.308149999999998</v>
       </c>
       <c r="Q38">
         <f t="shared" si="1"/>
-        <v>38.496940000000002</v>
+        <v>39.558639999999997</v>
       </c>
       <c r="R38">
         <f t="shared" si="2"/>
-        <v>605.85</v>
+        <v>632.29</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
@@ -2946,40 +2942,40 @@
         <v>20</v>
       </c>
       <c r="H39" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5">
-        <v>32</v>
-      </c>
-      <c r="J39">
-        <v>163.58000000000001</v>
-      </c>
-      <c r="K39">
-        <v>185.38</v>
-      </c>
-      <c r="L39">
-        <v>81.42</v>
-      </c>
-      <c r="M39">
-        <v>114.18</v>
+        <v>31</v>
+      </c>
+      <c r="J39" s="9">
+        <v>176.3</v>
+      </c>
+      <c r="K39" s="9">
+        <v>194.25</v>
+      </c>
+      <c r="L39" s="9">
+        <v>98.21</v>
+      </c>
+      <c r="M39" s="9">
+        <v>137.09</v>
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>1.7840490797546011</v>
+        <v>1.5747981300467488</v>
       </c>
       <c r="O39">
-        <v>38.880040000000001</v>
+        <v>38.763930000000002</v>
       </c>
       <c r="P39">
-        <v>38.329740000000001</v>
+        <v>38.229950000000002</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
-        <v>38.604889999999997</v>
+        <v>38.496940000000002</v>
       </c>
       <c r="R39">
         <f t="shared" si="2"/>
-        <v>544.56000000000006</v>
+        <v>605.85</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
@@ -3005,40 +3001,40 @@
         <v>20</v>
       </c>
       <c r="H40" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="5">
-        <v>33</v>
-      </c>
-      <c r="J40" s="9">
-        <v>176.38</v>
-      </c>
-      <c r="K40" s="9">
-        <v>193.5</v>
-      </c>
-      <c r="L40" s="9">
-        <v>76.66</v>
-      </c>
-      <c r="M40" s="9">
-        <v>105.14</v>
+        <v>32</v>
+      </c>
+      <c r="J40">
+        <v>163.58000000000001</v>
+      </c>
+      <c r="K40">
+        <v>185.38</v>
+      </c>
+      <c r="L40">
+        <v>81.42</v>
+      </c>
+      <c r="M40">
+        <v>114.18</v>
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>2.0345434543454344</v>
+        <v>1.7840490797546011</v>
       </c>
       <c r="O40">
-        <v>38.871670000000002</v>
+        <v>38.880040000000001</v>
       </c>
       <c r="P40">
-        <v>38.291840000000001</v>
+        <v>38.329740000000001</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>38.581755000000001</v>
+        <v>38.604889999999997</v>
       </c>
       <c r="R40">
         <f t="shared" si="2"/>
-        <v>551.67999999999995</v>
+        <v>544.56000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
@@ -3064,40 +3060,40 @@
         <v>20</v>
       </c>
       <c r="H41" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="9">
-        <v>172.08</v>
+        <v>176.38</v>
       </c>
       <c r="K41" s="9">
-        <v>191.61</v>
+        <v>193.5</v>
       </c>
       <c r="L41" s="9">
-        <v>65.28</v>
+        <v>76.66</v>
       </c>
       <c r="M41" s="9">
-        <v>91.87</v>
+        <v>105.14</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>2.3142857142857145</v>
+        <v>2.0345434543454344</v>
       </c>
       <c r="O41">
-        <v>38.768250000000002</v>
+        <v>38.871670000000002</v>
       </c>
       <c r="P41">
-        <v>38.266190000000002</v>
+        <v>38.291840000000001</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
-        <v>38.517220000000002</v>
+        <v>38.581755000000001</v>
       </c>
       <c r="R41">
         <f t="shared" si="2"/>
-        <v>520.84</v>
+        <v>551.67999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
@@ -3123,40 +3119,40 @@
         <v>20</v>
       </c>
       <c r="H42" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="9">
-        <v>176.53</v>
+        <v>172.08</v>
       </c>
       <c r="K42" s="9">
-        <v>194.13</v>
+        <v>191.61</v>
       </c>
       <c r="L42" s="9">
-        <v>56.69</v>
+        <v>65.28</v>
       </c>
       <c r="M42" s="9">
-        <v>78.55</v>
+        <v>91.87</v>
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>2.7407571724341908</v>
+        <v>2.3142857142857145</v>
       </c>
       <c r="O42">
-        <v>38.887830000000001</v>
+        <v>38.768250000000002</v>
       </c>
       <c r="P42">
-        <v>38.33</v>
+        <v>38.266190000000002</v>
       </c>
       <c r="Q42">
         <f t="shared" si="1"/>
-        <v>38.608914999999996</v>
+        <v>38.517220000000002</v>
       </c>
       <c r="R42">
         <f t="shared" si="2"/>
-        <v>505.9</v>
+        <v>520.84</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
@@ -3182,40 +3178,40 @@
         <v>20</v>
       </c>
       <c r="H43" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="9">
-        <v>176.02</v>
+        <v>176.53</v>
       </c>
       <c r="K43" s="9">
-        <v>194.6</v>
+        <v>194.13</v>
       </c>
       <c r="L43" s="9">
-        <v>49.06</v>
+        <v>56.69</v>
       </c>
       <c r="M43" s="9">
-        <v>69.010000000000005</v>
+        <v>78.55</v>
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>3.1389853476751077</v>
+        <v>2.7407571724341908</v>
       </c>
       <c r="O43">
-        <v>38.856079999999999</v>
+        <v>38.887830000000001</v>
       </c>
       <c r="P43">
-        <v>38.275669999999998</v>
+        <v>38.33</v>
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>38.565874999999998</v>
+        <v>38.608914999999996</v>
       </c>
       <c r="R43">
         <f t="shared" si="2"/>
-        <v>488.69</v>
+        <v>505.9</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
@@ -3241,40 +3237,40 @@
         <v>20</v>
       </c>
       <c r="H44" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J44" s="9">
-        <v>171.89</v>
+        <v>176.02</v>
       </c>
       <c r="K44" s="9">
-        <v>193.69</v>
+        <v>194.6</v>
       </c>
       <c r="L44" s="9">
-        <v>42.63</v>
+        <v>49.06</v>
       </c>
       <c r="M44" s="9">
-        <v>60.21</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>3.5548424737456239</v>
+        <v>3.1389853476751077</v>
       </c>
       <c r="O44">
-        <v>38.748370000000001</v>
+        <v>38.856079999999999</v>
       </c>
       <c r="P44">
-        <v>38.247570000000003</v>
+        <v>38.275669999999998</v>
       </c>
       <c r="Q44">
         <f t="shared" si="1"/>
-        <v>38.497970000000002</v>
+        <v>38.565874999999998</v>
       </c>
       <c r="R44">
         <f t="shared" si="2"/>
-        <v>468.41999999999996</v>
+        <v>488.69</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
@@ -3300,40 +3296,40 @@
         <v>20</v>
       </c>
       <c r="H45" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" s="9">
-        <v>177.09</v>
+        <v>171.89</v>
       </c>
       <c r="K45" s="9">
-        <v>197.17</v>
+        <v>193.69</v>
       </c>
       <c r="L45" s="9">
-        <v>37.14</v>
+        <v>42.63</v>
       </c>
       <c r="M45" s="9">
-        <v>50.26</v>
+        <v>60.21</v>
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
-        <v>4.2821510297482837</v>
+        <v>3.5548424737456239</v>
       </c>
       <c r="O45">
-        <v>38.868209999999998</v>
+        <v>38.748370000000001</v>
       </c>
       <c r="P45">
-        <v>38.295479999999998</v>
+        <v>38.247570000000003</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
-        <v>38.581845000000001</v>
+        <v>38.497970000000002</v>
       </c>
       <c r="R45">
         <f t="shared" si="2"/>
-        <v>461.65999999999997</v>
+        <v>468.41999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
@@ -3350,49 +3346,49 @@
         <v>24</v>
       </c>
       <c r="E46">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
       </c>
       <c r="H46" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I46" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J46" s="9">
-        <v>138.55000000000001</v>
+        <v>177.09</v>
       </c>
       <c r="K46" s="9">
-        <v>147.91</v>
+        <v>197.17</v>
       </c>
       <c r="L46" s="9">
-        <v>144.47</v>
+        <v>37.14</v>
       </c>
       <c r="M46" s="9">
-        <v>200.07</v>
+        <v>50.26</v>
       </c>
       <c r="N46">
         <f t="shared" si="3"/>
-        <v>0.83142741046032409</v>
+        <v>4.2821510297482837</v>
       </c>
       <c r="O46">
-        <v>37.744770000000003</v>
+        <v>38.868209999999998</v>
       </c>
       <c r="P46">
-        <v>37.238979999999998</v>
+        <v>38.295479999999998</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>37.491875</v>
+        <v>38.581845000000001</v>
       </c>
       <c r="R46">
         <f t="shared" si="2"/>
-        <v>631</v>
+        <v>461.65999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -3418,40 +3414,40 @@
         <v>20</v>
       </c>
       <c r="H47" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J47" s="9">
-        <v>134.41</v>
+        <v>138.55000000000001</v>
       </c>
       <c r="K47" s="9">
-        <v>145.51</v>
+        <v>147.91</v>
       </c>
       <c r="L47" s="9">
-        <v>126.19</v>
+        <v>144.47</v>
       </c>
       <c r="M47" s="9">
-        <v>176.82</v>
+        <v>200.07</v>
       </c>
       <c r="N47">
         <f t="shared" si="3"/>
-        <v>0.92379789445892868</v>
+        <v>0.83142741046032409</v>
       </c>
       <c r="O47">
-        <v>37.666890000000002</v>
+        <v>37.744770000000003</v>
       </c>
       <c r="P47">
-        <v>37.17313</v>
+        <v>37.238979999999998</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
-        <v>37.420010000000005</v>
+        <v>37.491875</v>
       </c>
       <c r="R47">
         <f t="shared" si="2"/>
-        <v>582.92999999999995</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -3477,40 +3473,40 @@
         <v>20</v>
       </c>
       <c r="H48" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I48" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J48" s="9">
-        <v>136.61000000000001</v>
+        <v>134.41</v>
       </c>
       <c r="K48" s="9">
-        <v>148.78</v>
+        <v>145.51</v>
       </c>
       <c r="L48" s="9">
-        <v>110.22</v>
+        <v>126.19</v>
       </c>
       <c r="M48" s="9">
-        <v>153.85</v>
+        <v>176.82</v>
       </c>
       <c r="N48">
         <f t="shared" si="3"/>
-        <v>1.0807361684401864</v>
+        <v>0.92379789445892868</v>
       </c>
       <c r="O48">
-        <v>37.70391</v>
+        <v>37.666890000000002</v>
       </c>
       <c r="P48">
-        <v>37.23892</v>
+        <v>37.17313</v>
       </c>
       <c r="Q48">
         <f t="shared" si="1"/>
-        <v>37.471415</v>
+        <v>37.420010000000005</v>
       </c>
       <c r="R48">
         <f t="shared" si="2"/>
-        <v>549.46</v>
+        <v>582.92999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
@@ -3536,40 +3532,40 @@
         <v>20</v>
       </c>
       <c r="H49" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I49" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J49" s="9">
-        <v>135.88999999999999</v>
+        <v>136.61000000000001</v>
       </c>
       <c r="K49" s="9">
-        <v>149.71</v>
+        <v>148.78</v>
       </c>
       <c r="L49" s="9">
-        <v>98.06</v>
+        <v>110.22</v>
       </c>
       <c r="M49" s="9">
-        <v>137.96</v>
+        <v>153.85</v>
       </c>
       <c r="N49">
         <f t="shared" si="3"/>
-        <v>1.2100669434793663</v>
+        <v>1.0807361684401864</v>
       </c>
       <c r="O49">
-        <v>37.722819999999999</v>
+        <v>37.70391</v>
       </c>
       <c r="P49">
-        <v>37.242899999999999</v>
+        <v>37.23892</v>
       </c>
       <c r="Q49">
         <f t="shared" si="1"/>
-        <v>37.482860000000002</v>
+        <v>37.471415</v>
       </c>
       <c r="R49">
         <f t="shared" si="2"/>
-        <v>521.62</v>
+        <v>549.46</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
@@ -3595,40 +3591,40 @@
         <v>20</v>
       </c>
       <c r="H50" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J50" s="9">
-        <v>133.46</v>
+        <v>135.88999999999999</v>
       </c>
       <c r="K50" s="9">
-        <v>146.06</v>
+        <v>149.71</v>
       </c>
       <c r="L50" s="9">
-        <v>85.57</v>
+        <v>98.06</v>
       </c>
       <c r="M50" s="9">
-        <v>116.22</v>
+        <v>137.96</v>
       </c>
       <c r="N50">
         <f t="shared" si="3"/>
-        <v>1.3852024381783041</v>
+        <v>1.2100669434793663</v>
       </c>
       <c r="O50">
-        <v>37.68336</v>
+        <v>37.722819999999999</v>
       </c>
       <c r="P50">
-        <v>37.163089999999997</v>
+        <v>37.242899999999999</v>
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>37.423225000000002</v>
+        <v>37.482860000000002</v>
       </c>
       <c r="R50">
         <f t="shared" si="2"/>
-        <v>481.30999999999995</v>
+        <v>521.62</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
@@ -3654,40 +3650,40 @@
         <v>20</v>
       </c>
       <c r="H51" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I51" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J51" s="9">
-        <v>135.80000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="K51" s="9">
-        <v>149.80000000000001</v>
+        <v>146.06</v>
       </c>
       <c r="L51" s="9">
-        <v>76.36</v>
+        <v>85.57</v>
       </c>
       <c r="M51" s="9">
-        <v>104.19</v>
+        <v>116.22</v>
       </c>
       <c r="N51">
         <f t="shared" si="3"/>
-        <v>1.5818332871780671</v>
+        <v>1.3852024381783041</v>
       </c>
       <c r="O51">
-        <v>37.735109999999999</v>
+        <v>37.68336</v>
       </c>
       <c r="P51">
-        <v>37.253970000000002</v>
+        <v>37.163089999999997</v>
       </c>
       <c r="Q51">
         <f t="shared" si="1"/>
-        <v>37.494540000000001</v>
+        <v>37.423225000000002</v>
       </c>
       <c r="R51">
         <f t="shared" si="2"/>
-        <v>466.15000000000003</v>
+        <v>481.30999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -3713,40 +3709,40 @@
         <v>20</v>
       </c>
       <c r="H52" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="5">
-        <v>34</v>
-      </c>
-      <c r="J52">
-        <v>127.98</v>
-      </c>
-      <c r="K52">
-        <v>139.82</v>
-      </c>
-      <c r="L52">
-        <v>60.26</v>
-      </c>
-      <c r="M52">
-        <v>92</v>
+        <v>33</v>
+      </c>
+      <c r="J52" s="9">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="K52" s="9">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="L52" s="9">
+        <v>76.36</v>
+      </c>
+      <c r="M52" s="9">
+        <v>104.19</v>
       </c>
       <c r="N52">
         <f t="shared" si="3"/>
-        <v>1.7588335741494814</v>
+        <v>1.5818332871780671</v>
       </c>
       <c r="O52">
-        <v>37.677439999999997</v>
+        <v>37.735109999999999</v>
       </c>
       <c r="P52">
-        <v>37.199779999999997</v>
+        <v>37.253970000000002</v>
       </c>
       <c r="Q52">
         <f t="shared" si="1"/>
-        <v>37.438609999999997</v>
+        <v>37.494540000000001</v>
       </c>
       <c r="R52">
         <f t="shared" si="2"/>
-        <v>420.06</v>
+        <v>466.15000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -3772,40 +3768,40 @@
         <v>20</v>
       </c>
       <c r="H53" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="5">
-        <v>35</v>
-      </c>
-      <c r="J53" s="9">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="K53" s="9">
-        <v>148.11000000000001</v>
-      </c>
-      <c r="L53" s="9">
-        <v>56.34</v>
-      </c>
-      <c r="M53" s="9">
-        <v>78.81</v>
+        <v>34</v>
+      </c>
+      <c r="J53">
+        <v>127.98</v>
+      </c>
+      <c r="K53">
+        <v>139.82</v>
+      </c>
+      <c r="L53">
+        <v>60.26</v>
+      </c>
+      <c r="M53">
+        <v>92</v>
       </c>
       <c r="N53">
         <f t="shared" si="3"/>
-        <v>2.1007029226785057</v>
+        <v>1.7588335741494814</v>
       </c>
       <c r="O53">
-        <v>37.68479</v>
+        <v>37.677439999999997</v>
       </c>
       <c r="P53">
-        <v>37.254379999999998</v>
+        <v>37.199779999999997</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
-        <v>37.469584999999995</v>
+        <v>37.438609999999997</v>
       </c>
       <c r="R53">
         <f t="shared" si="2"/>
-        <v>419.06</v>
+        <v>420.06</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -3831,40 +3827,40 @@
         <v>20</v>
       </c>
       <c r="H54" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I54" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J54" s="9">
-        <v>135.58000000000001</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="K54" s="9">
-        <v>147.37</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="L54" s="9">
-        <v>49.43</v>
+        <v>56.34</v>
       </c>
       <c r="M54" s="9">
-        <v>68.39</v>
+        <v>78.81</v>
       </c>
       <c r="N54">
         <f t="shared" si="3"/>
-        <v>2.4015447292480059</v>
+        <v>2.1007029226785057</v>
       </c>
       <c r="O54">
-        <v>37.65014</v>
+        <v>37.68479</v>
       </c>
       <c r="P54">
-        <v>37.162610000000001</v>
+        <v>37.254379999999998</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>37.406374999999997</v>
+        <v>37.469584999999995</v>
       </c>
       <c r="R54">
         <f t="shared" si="2"/>
-        <v>400.77000000000004</v>
+        <v>419.06</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
@@ -3890,40 +3886,40 @@
         <v>20</v>
       </c>
       <c r="H55" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J55" s="9">
-        <v>137.16</v>
+        <v>135.58000000000001</v>
       </c>
       <c r="K55" s="9">
-        <v>150.91999999999999</v>
+        <v>147.37</v>
       </c>
       <c r="L55" s="9">
-        <v>42.93</v>
+        <v>49.43</v>
       </c>
       <c r="M55" s="9">
-        <v>59.31</v>
+        <v>68.39</v>
       </c>
       <c r="N55">
         <f t="shared" si="3"/>
-        <v>2.8176838810641622</v>
+        <v>2.4015447292480059</v>
       </c>
       <c r="O55">
-        <v>37.730710000000002</v>
+        <v>37.65014</v>
       </c>
       <c r="P55">
-        <v>37.254519999999999</v>
+        <v>37.162610000000001</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
-        <v>37.492615000000001</v>
+        <v>37.406374999999997</v>
       </c>
       <c r="R55">
         <f t="shared" si="2"/>
-        <v>390.32</v>
+        <v>400.77000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
@@ -3949,40 +3945,40 @@
         <v>20</v>
       </c>
       <c r="H56" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56" s="9">
-        <v>138.15</v>
+        <v>137.16</v>
       </c>
       <c r="K56" s="9">
-        <v>150.35</v>
+        <v>150.91999999999999</v>
       </c>
       <c r="L56" s="9">
-        <v>37.19</v>
+        <v>42.93</v>
       </c>
       <c r="M56" s="9">
-        <v>50.54</v>
+        <v>59.31</v>
       </c>
       <c r="N56">
         <f t="shared" si="3"/>
-        <v>3.2884988031460165</v>
+        <v>2.8176838810641622</v>
       </c>
       <c r="O56">
-        <v>37.696680000000001</v>
+        <v>37.730710000000002</v>
       </c>
       <c r="P56">
-        <v>37.233840000000001</v>
+        <v>37.254519999999999</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>37.465260000000001</v>
+        <v>37.492615000000001</v>
       </c>
       <c r="R56">
         <f t="shared" si="2"/>
-        <v>376.23</v>
+        <v>390.32</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
@@ -3999,49 +3995,49 @@
         <v>24</v>
       </c>
       <c r="E57">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F57">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" s="5">
         <v>20</v>
       </c>
       <c r="H57" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I57" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J57" s="9">
-        <v>106.03</v>
+        <v>138.15</v>
       </c>
       <c r="K57" s="9">
-        <v>113.32</v>
+        <v>150.35</v>
       </c>
       <c r="L57" s="9">
-        <v>145.36000000000001</v>
+        <v>37.19</v>
       </c>
       <c r="M57" s="9">
-        <v>202</v>
+        <v>50.54</v>
       </c>
       <c r="N57">
         <f t="shared" si="3"/>
-        <v>0.63147742975587284</v>
+        <v>3.2884988031460165</v>
       </c>
       <c r="O57">
-        <v>36.542520000000003</v>
+        <v>37.696680000000001</v>
       </c>
       <c r="P57">
-        <v>36.010280000000002</v>
+        <v>37.233840000000001</v>
       </c>
       <c r="Q57">
         <f t="shared" si="1"/>
-        <v>36.276400000000002</v>
+        <v>37.465260000000001</v>
       </c>
       <c r="R57">
         <f t="shared" si="2"/>
-        <v>566.71</v>
+        <v>376.23</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -4067,40 +4063,40 @@
         <v>20</v>
       </c>
       <c r="H58" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J58" s="9">
-        <v>106.82</v>
+        <v>106.03</v>
       </c>
       <c r="K58" s="9">
-        <v>115.88</v>
+        <v>113.32</v>
       </c>
       <c r="L58" s="9">
-        <v>126.11</v>
+        <v>145.36000000000001</v>
       </c>
       <c r="M58" s="9">
-        <v>175.4</v>
+        <v>202</v>
       </c>
       <c r="N58">
         <f t="shared" si="3"/>
-        <v>0.73861563463898372</v>
+        <v>0.63147742975587284</v>
       </c>
       <c r="O58">
-        <v>36.579349999999998</v>
+        <v>36.542520000000003</v>
       </c>
       <c r="P58">
-        <v>36.134869999999999</v>
+        <v>36.010280000000002</v>
       </c>
       <c r="Q58">
         <f t="shared" si="1"/>
-        <v>36.357109999999999</v>
+        <v>36.276400000000002</v>
       </c>
       <c r="R58">
         <f t="shared" si="2"/>
-        <v>524.21</v>
+        <v>566.71</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
@@ -4126,40 +4122,40 @@
         <v>20</v>
       </c>
       <c r="H59" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J59" s="9">
-        <v>107.67</v>
+        <v>106.82</v>
       </c>
       <c r="K59" s="9">
-        <v>115.84</v>
+        <v>115.88</v>
       </c>
       <c r="L59" s="9">
-        <v>110</v>
+        <v>126.11</v>
       </c>
       <c r="M59" s="9">
-        <v>154.36000000000001</v>
+        <v>175.4</v>
       </c>
       <c r="N59">
         <f t="shared" si="3"/>
-        <v>0.84547586624300186</v>
+        <v>0.73861563463898372</v>
       </c>
       <c r="O59">
-        <v>36.606319999999997</v>
+        <v>36.579349999999998</v>
       </c>
       <c r="P59">
-        <v>36.16366</v>
+        <v>36.134869999999999</v>
       </c>
       <c r="Q59">
         <f t="shared" si="1"/>
-        <v>36.384990000000002</v>
+        <v>36.357109999999999</v>
       </c>
       <c r="R59">
         <f t="shared" si="2"/>
-        <v>487.87</v>
+        <v>524.21</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
@@ -4185,40 +4181,40 @@
         <v>20</v>
       </c>
       <c r="H60" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I60" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J60" s="9">
-        <v>106.57</v>
+        <v>107.67</v>
       </c>
       <c r="K60" s="9">
-        <v>114.31</v>
+        <v>115.84</v>
       </c>
       <c r="L60" s="9">
-        <v>97.91</v>
+        <v>110</v>
       </c>
       <c r="M60" s="9">
-        <v>137.76</v>
+        <v>154.36000000000001</v>
       </c>
       <c r="N60">
         <f t="shared" si="3"/>
-        <v>0.9372427546993678</v>
+        <v>0.84547586624300186</v>
       </c>
       <c r="O60">
-        <v>36.550899999999999</v>
+        <v>36.606319999999997</v>
       </c>
       <c r="P60">
-        <v>36.053890000000003</v>
+        <v>36.16366</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>36.302395000000004</v>
+        <v>36.384990000000002</v>
       </c>
       <c r="R60">
         <f t="shared" si="2"/>
-        <v>456.54999999999995</v>
+        <v>487.87</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
@@ -4244,40 +4240,40 @@
         <v>20</v>
       </c>
       <c r="H61" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J61" s="9">
-        <v>108.29</v>
+        <v>106.57</v>
       </c>
       <c r="K61" s="9">
-        <v>115.45</v>
+        <v>114.31</v>
       </c>
       <c r="L61" s="9">
-        <v>85.25</v>
+        <v>97.91</v>
       </c>
       <c r="M61" s="9">
-        <v>117.68</v>
+        <v>137.76</v>
       </c>
       <c r="N61">
         <f t="shared" si="3"/>
-        <v>1.1025476765387079</v>
+        <v>0.9372427546993678</v>
       </c>
       <c r="O61">
-        <v>36.563960000000002</v>
+        <v>36.550899999999999</v>
       </c>
       <c r="P61">
-        <v>36.19032</v>
+        <v>36.053890000000003</v>
       </c>
       <c r="Q61">
         <f t="shared" si="1"/>
-        <v>36.377139999999997</v>
+        <v>36.302395000000004</v>
       </c>
       <c r="R61">
         <f t="shared" si="2"/>
-        <v>426.67</v>
+        <v>456.54999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -4303,40 +4299,40 @@
         <v>20</v>
       </c>
       <c r="H62" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I62" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J62" s="9">
-        <v>109.12</v>
+        <v>108.29</v>
       </c>
       <c r="K62" s="9">
-        <v>115.57</v>
+        <v>115.45</v>
       </c>
       <c r="L62" s="9">
-        <v>76.400000000000006</v>
+        <v>85.25</v>
       </c>
       <c r="M62" s="9">
-        <v>103.97</v>
+        <v>117.68</v>
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
-        <v>1.2457171369961746</v>
+        <v>1.1025476765387079</v>
       </c>
       <c r="O62">
-        <v>36.6081</v>
+        <v>36.563960000000002</v>
       </c>
       <c r="P62">
-        <v>36.181989999999999</v>
+        <v>36.19032</v>
       </c>
       <c r="Q62">
         <f t="shared" si="1"/>
-        <v>36.395044999999996</v>
+        <v>36.377139999999997</v>
       </c>
       <c r="R62">
         <f t="shared" si="2"/>
-        <v>405.06000000000006</v>
+        <v>426.67</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
@@ -4362,40 +4358,40 @@
         <v>20</v>
       </c>
       <c r="H63" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J63" s="9">
-        <v>106</v>
+        <v>109.12</v>
       </c>
       <c r="K63" s="9">
-        <v>114.92</v>
+        <v>115.57</v>
       </c>
       <c r="L63" s="9">
-        <v>64.28</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="M63" s="9">
-        <v>91.73</v>
+        <v>103.97</v>
       </c>
       <c r="N63">
         <f t="shared" si="3"/>
-        <v>1.4160630728799437</v>
+        <v>1.2457171369961746</v>
       </c>
       <c r="O63">
-        <v>36.528460000000003</v>
+        <v>36.6081</v>
       </c>
       <c r="P63">
-        <v>36.090530000000001</v>
+        <v>36.181989999999999</v>
       </c>
       <c r="Q63">
         <f t="shared" si="1"/>
-        <v>36.309494999999998</v>
+        <v>36.395044999999996</v>
       </c>
       <c r="R63">
         <f t="shared" si="2"/>
-        <v>376.93000000000006</v>
+        <v>405.06000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
@@ -4421,40 +4417,40 @@
         <v>20</v>
       </c>
       <c r="H64" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J64" s="9">
-        <v>108.32</v>
+        <v>106</v>
       </c>
       <c r="K64" s="9">
-        <v>116.24</v>
+        <v>114.92</v>
       </c>
       <c r="L64" s="9">
-        <v>56.43</v>
+        <v>64.28</v>
       </c>
       <c r="M64" s="9">
-        <v>79.22</v>
+        <v>91.73</v>
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>1.6554367858459269</v>
+        <v>1.4160630728799437</v>
       </c>
       <c r="O64">
-        <v>36.624200000000002</v>
+        <v>36.528460000000003</v>
       </c>
       <c r="P64">
-        <v>36.163080000000001</v>
+        <v>36.090530000000001</v>
       </c>
       <c r="Q64">
         <f t="shared" si="1"/>
-        <v>36.393640000000005</v>
+        <v>36.309494999999998</v>
       </c>
       <c r="R64">
         <f t="shared" si="2"/>
-        <v>360.21000000000004</v>
+        <v>376.93000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
@@ -4480,40 +4476,40 @@
         <v>20</v>
       </c>
       <c r="H65" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I65" s="5">
-        <v>36</v>
-      </c>
-      <c r="J65">
-        <v>99.62</v>
-      </c>
-      <c r="K65">
-        <v>111.96</v>
-      </c>
-      <c r="L65">
-        <v>44.74</v>
-      </c>
-      <c r="M65">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="J65" s="9">
+        <v>108.32</v>
+      </c>
+      <c r="K65" s="9">
+        <v>116.24</v>
+      </c>
+      <c r="L65" s="9">
+        <v>56.43</v>
+      </c>
+      <c r="M65" s="9">
+        <v>79.22</v>
       </c>
       <c r="N65">
         <f t="shared" si="3"/>
-        <v>1.8935027742974759</v>
+        <v>1.6554367858459269</v>
       </c>
       <c r="O65">
-        <v>36.601990000000001</v>
+        <v>36.624200000000002</v>
       </c>
       <c r="P65">
-        <v>36.035640000000001</v>
+        <v>36.163080000000001</v>
       </c>
       <c r="Q65">
         <f t="shared" si="1"/>
-        <v>36.318815000000001</v>
+        <v>36.393640000000005</v>
       </c>
       <c r="R65">
         <f t="shared" si="2"/>
-        <v>323.32</v>
+        <v>360.21000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
@@ -4539,40 +4535,40 @@
         <v>20</v>
       </c>
       <c r="H66" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I66" s="5">
-        <v>37</v>
-      </c>
-      <c r="J66" s="9">
-        <v>109</v>
-      </c>
-      <c r="K66" s="9">
-        <v>118.88</v>
-      </c>
-      <c r="L66" s="9">
-        <v>43</v>
-      </c>
-      <c r="M66" s="9">
-        <v>60.36</v>
+        <v>36</v>
+      </c>
+      <c r="J66">
+        <v>99.62</v>
+      </c>
+      <c r="K66">
+        <v>111.96</v>
+      </c>
+      <c r="L66">
+        <v>44.74</v>
+      </c>
+      <c r="M66">
+        <v>67</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N89" si="4">(J66+K66)/(L66+M66)</f>
-        <v>2.204721362229102</v>
+        <f t="shared" si="3"/>
+        <v>1.8935027742974759</v>
       </c>
       <c r="O66">
-        <v>36.603340000000003</v>
+        <v>36.601990000000001</v>
       </c>
       <c r="P66">
-        <v>36.211089999999999</v>
+        <v>36.035640000000001</v>
       </c>
       <c r="Q66">
         <f t="shared" si="1"/>
-        <v>36.407215000000001</v>
+        <v>36.318815000000001</v>
       </c>
       <c r="R66">
         <f t="shared" si="2"/>
-        <v>331.24</v>
+        <v>323.32</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
@@ -4598,40 +4594,40 @@
         <v>20</v>
       </c>
       <c r="H67" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I67" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67" s="9">
-        <v>107.13</v>
+        <v>109</v>
       </c>
       <c r="K67" s="9">
-        <v>113.98</v>
+        <v>118.88</v>
       </c>
       <c r="L67" s="9">
-        <v>37.58</v>
+        <v>43</v>
       </c>
       <c r="M67" s="9">
-        <v>50.58</v>
+        <v>60.36</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
-        <v>2.5080535390199641</v>
+        <f t="shared" ref="N67:N90" si="4">(J67+K67)/(L67+M67)</f>
+        <v>2.204721362229102</v>
       </c>
       <c r="O67">
-        <v>36.537619999999997</v>
+        <v>36.603340000000003</v>
       </c>
       <c r="P67">
-        <v>36.057200000000002</v>
+        <v>36.211089999999999</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q115" si="5">(O67+P67)/2</f>
-        <v>36.297409999999999</v>
+        <f t="shared" si="1"/>
+        <v>36.407215000000001</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R115" si="6">SUM(J67:M67)</f>
-        <v>309.27</v>
+        <f t="shared" si="2"/>
+        <v>331.24</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.15">
@@ -4648,49 +4644,49 @@
         <v>24</v>
       </c>
       <c r="E68">
+        <v>36</v>
+      </c>
+      <c r="F68">
+        <v>36</v>
+      </c>
+      <c r="G68" s="5">
+        <v>20</v>
+      </c>
+      <c r="H68" s="5">
         <v>38</v>
       </c>
-      <c r="F68">
+      <c r="I68" s="5">
         <v>38</v>
       </c>
-      <c r="G68" s="5">
-        <v>20</v>
-      </c>
-      <c r="H68" s="5">
-        <v>28</v>
-      </c>
-      <c r="I68" s="5">
-        <v>28</v>
-      </c>
       <c r="J68" s="9">
-        <v>85.99</v>
+        <v>107.13</v>
       </c>
       <c r="K68" s="9">
-        <v>91.35</v>
+        <v>113.98</v>
       </c>
       <c r="L68" s="9">
-        <v>144.03</v>
+        <v>37.58</v>
       </c>
       <c r="M68" s="9">
-        <v>200.31</v>
+        <v>50.58</v>
       </c>
       <c r="N68">
         <f t="shared" si="4"/>
-        <v>0.51501423012139158</v>
+        <v>2.5080535390199641</v>
       </c>
       <c r="O68">
-        <v>35.404879999999999</v>
+        <v>36.537619999999997</v>
       </c>
       <c r="P68">
-        <v>35.073540000000001</v>
+        <v>36.057200000000002</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
-        <v>35.23921</v>
+        <f t="shared" ref="Q68:Q114" si="5">(O68+P68)/2</f>
+        <v>36.297409999999999</v>
       </c>
       <c r="R68">
-        <f t="shared" si="6"/>
-        <v>521.68000000000006</v>
+        <f t="shared" ref="R68:R114" si="6">SUM(J68:M68)</f>
+        <v>309.27</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.15">
@@ -4716,40 +4712,40 @@
         <v>20</v>
       </c>
       <c r="H69" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J69" s="9">
-        <v>87.18</v>
+        <v>85.99</v>
       </c>
       <c r="K69" s="9">
-        <v>92.26</v>
+        <v>91.35</v>
       </c>
       <c r="L69" s="9">
-        <v>127.96</v>
+        <v>144.03</v>
       </c>
       <c r="M69" s="9">
-        <v>176.2</v>
+        <v>200.31</v>
       </c>
       <c r="N69">
         <f t="shared" si="4"/>
-        <v>0.5899526564965808</v>
+        <v>0.51501423012139158</v>
       </c>
       <c r="O69">
-        <v>35.399659999999997</v>
+        <v>35.404879999999999</v>
       </c>
       <c r="P69">
-        <v>35.082880000000003</v>
+        <v>35.073540000000001</v>
       </c>
       <c r="Q69">
         <f t="shared" si="5"/>
-        <v>35.24127</v>
+        <v>35.23921</v>
       </c>
       <c r="R69">
         <f t="shared" si="6"/>
-        <v>483.59999999999997</v>
+        <v>521.68000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
@@ -4775,40 +4771,40 @@
         <v>20</v>
       </c>
       <c r="H70" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J70" s="9">
-        <v>84.19</v>
+        <v>87.18</v>
       </c>
       <c r="K70" s="9">
-        <v>88.97</v>
+        <v>92.26</v>
       </c>
       <c r="L70" s="9">
-        <v>110.41</v>
+        <v>127.96</v>
       </c>
       <c r="M70" s="9">
-        <v>154.94</v>
+        <v>176.2</v>
       </c>
       <c r="N70">
         <f t="shared" si="4"/>
-        <v>0.65257207461842848</v>
+        <v>0.5899526564965808</v>
       </c>
       <c r="O70">
-        <v>35.316490000000002</v>
+        <v>35.399659999999997</v>
       </c>
       <c r="P70">
-        <v>34.991120000000002</v>
+        <v>35.082880000000003</v>
       </c>
       <c r="Q70">
         <f t="shared" si="5"/>
-        <v>35.153805000000006</v>
+        <v>35.24127</v>
       </c>
       <c r="R70">
         <f t="shared" si="6"/>
-        <v>438.51</v>
+        <v>483.59999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
@@ -4834,40 +4830,40 @@
         <v>20</v>
       </c>
       <c r="H71" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I71" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71" s="9">
-        <v>86.28</v>
+        <v>84.19</v>
       </c>
       <c r="K71" s="9">
-        <v>91.59</v>
+        <v>88.97</v>
       </c>
       <c r="L71" s="9">
-        <v>97.75</v>
+        <v>110.41</v>
       </c>
       <c r="M71" s="9">
-        <v>136.54</v>
+        <v>154.94</v>
       </c>
       <c r="N71">
         <f t="shared" si="4"/>
-        <v>0.75918733193904997</v>
+        <v>0.65257207461842848</v>
       </c>
       <c r="O71">
-        <v>35.420610000000003</v>
+        <v>35.316490000000002</v>
       </c>
       <c r="P71">
-        <v>35.099299999999999</v>
+        <v>34.991120000000002</v>
       </c>
       <c r="Q71">
         <f t="shared" si="5"/>
-        <v>35.259955000000005</v>
+        <v>35.153805000000006</v>
       </c>
       <c r="R71">
         <f t="shared" si="6"/>
-        <v>412.15999999999997</v>
+        <v>438.51</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
@@ -4893,40 +4889,40 @@
         <v>20</v>
       </c>
       <c r="H72" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J72" s="9">
-        <v>86.64</v>
+        <v>86.28</v>
       </c>
       <c r="K72" s="9">
-        <v>92.16</v>
+        <v>91.59</v>
       </c>
       <c r="L72" s="9">
-        <v>84.84</v>
+        <v>97.75</v>
       </c>
       <c r="M72" s="9">
-        <v>116.79</v>
+        <v>136.54</v>
       </c>
       <c r="N72">
         <f t="shared" si="4"/>
-        <v>0.88677280166641881</v>
+        <v>0.75918733193904997</v>
       </c>
       <c r="O72">
-        <v>35.375900000000001</v>
+        <v>35.420610000000003</v>
       </c>
       <c r="P72">
-        <v>35.049990000000001</v>
+        <v>35.099299999999999</v>
       </c>
       <c r="Q72">
         <f t="shared" si="5"/>
-        <v>35.212945000000005</v>
+        <v>35.259955000000005</v>
       </c>
       <c r="R72">
         <f t="shared" si="6"/>
-        <v>380.43</v>
+        <v>412.15999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
@@ -4952,40 +4948,40 @@
         <v>20</v>
       </c>
       <c r="H73" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I73" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J73" s="9">
-        <v>85.8</v>
+        <v>86.64</v>
       </c>
       <c r="K73" s="9">
-        <v>90.38</v>
+        <v>92.16</v>
       </c>
       <c r="L73" s="9">
-        <v>77.09</v>
+        <v>84.84</v>
       </c>
       <c r="M73" s="9">
-        <v>104.98</v>
+        <v>116.79</v>
       </c>
       <c r="N73">
         <f t="shared" si="4"/>
-        <v>0.96764980502004727</v>
+        <v>0.88677280166641881</v>
       </c>
       <c r="O73">
-        <v>35.292009999999998</v>
+        <v>35.375900000000001</v>
       </c>
       <c r="P73">
-        <v>34.997520000000002</v>
+        <v>35.049990000000001</v>
       </c>
       <c r="Q73">
         <f t="shared" si="5"/>
-        <v>35.144765</v>
+        <v>35.212945000000005</v>
       </c>
       <c r="R73">
         <f t="shared" si="6"/>
-        <v>358.25</v>
+        <v>380.43</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
@@ -5011,40 +5007,40 @@
         <v>20</v>
       </c>
       <c r="H74" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" s="9">
-        <v>86.71</v>
+        <v>85.8</v>
       </c>
       <c r="K74" s="9">
-        <v>92.18</v>
+        <v>90.38</v>
       </c>
       <c r="L74" s="9">
-        <v>64.680000000000007</v>
+        <v>77.09</v>
       </c>
       <c r="M74" s="9">
-        <v>90.77</v>
+        <v>104.98</v>
       </c>
       <c r="N74">
-        <f>(J74+K74)/(L74+M74)</f>
-        <v>1.1507880347378578</v>
+        <f t="shared" si="4"/>
+        <v>0.96764980502004727</v>
       </c>
       <c r="O74">
-        <v>35.369579999999999</v>
+        <v>35.292009999999998</v>
       </c>
       <c r="P74">
-        <v>35.083550000000002</v>
+        <v>34.997520000000002</v>
       </c>
       <c r="Q74">
         <f t="shared" si="5"/>
-        <v>35.226565000000001</v>
+        <v>35.144765</v>
       </c>
       <c r="R74">
         <f t="shared" si="6"/>
-        <v>334.34</v>
+        <v>358.25</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
@@ -5070,40 +5066,40 @@
         <v>20</v>
       </c>
       <c r="H75" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J75" s="9">
-        <v>87.76</v>
+        <v>86.71</v>
       </c>
       <c r="K75" s="9">
-        <v>92.49</v>
+        <v>92.18</v>
       </c>
       <c r="L75" s="9">
-        <v>56.01</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="M75" s="9">
-        <v>78.489999999999995</v>
+        <v>90.77</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
-        <v>1.3401486988847584</v>
+        <f>(J75+K75)/(L75+M75)</f>
+        <v>1.1507880347378578</v>
       </c>
       <c r="O75">
-        <v>35.415390000000002</v>
+        <v>35.369579999999999</v>
       </c>
       <c r="P75">
-        <v>35.088560000000001</v>
+        <v>35.083550000000002</v>
       </c>
       <c r="Q75">
         <f t="shared" si="5"/>
-        <v>35.251975000000002</v>
+        <v>35.226565000000001</v>
       </c>
       <c r="R75">
         <f t="shared" si="6"/>
-        <v>314.75</v>
+        <v>334.34</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.15">
@@ -5129,40 +5125,40 @@
         <v>20</v>
       </c>
       <c r="H76" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I76" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J76" s="9">
-        <v>85.39</v>
+        <v>87.76</v>
       </c>
       <c r="K76" s="9">
-        <v>92.12</v>
+        <v>92.49</v>
       </c>
       <c r="L76" s="9">
-        <v>48.87</v>
+        <v>56.01</v>
       </c>
       <c r="M76" s="9">
-        <v>68.06</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="N76">
         <f t="shared" si="4"/>
-        <v>1.5180877448045837</v>
+        <v>1.3401486988847584</v>
       </c>
       <c r="O76">
-        <v>35.32573</v>
+        <v>35.415390000000002</v>
       </c>
       <c r="P76">
-        <v>34.95964</v>
+        <v>35.088560000000001</v>
       </c>
       <c r="Q76">
         <f t="shared" si="5"/>
-        <v>35.142685</v>
+        <v>35.251975000000002</v>
       </c>
       <c r="R76">
         <f t="shared" si="6"/>
-        <v>294.44</v>
+        <v>314.75</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
@@ -5188,40 +5184,40 @@
         <v>20</v>
       </c>
       <c r="H77" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I77" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J77" s="9">
-        <v>86.86</v>
+        <v>85.39</v>
       </c>
       <c r="K77" s="9">
-        <v>92.86</v>
+        <v>92.12</v>
       </c>
       <c r="L77" s="9">
-        <v>43.63</v>
+        <v>48.87</v>
       </c>
       <c r="M77" s="9">
-        <v>60.02</v>
+        <v>68.06</v>
       </c>
       <c r="N77">
         <f t="shared" si="4"/>
-        <v>1.733912204534491</v>
+        <v>1.5180877448045837</v>
       </c>
       <c r="O77">
-        <v>35.437480000000001</v>
+        <v>35.32573</v>
       </c>
       <c r="P77">
-        <v>35.06915</v>
+        <v>34.95964</v>
       </c>
       <c r="Q77">
         <f t="shared" si="5"/>
-        <v>35.253315000000001</v>
+        <v>35.142685</v>
       </c>
       <c r="R77">
         <f t="shared" si="6"/>
-        <v>283.37</v>
+        <v>294.44</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
@@ -5247,40 +5243,40 @@
         <v>20</v>
       </c>
       <c r="H78" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I78" s="5">
-        <v>38</v>
-      </c>
-      <c r="J78">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="K78">
-        <v>85.92</v>
-      </c>
-      <c r="L78">
-        <v>33.46</v>
-      </c>
-      <c r="M78">
-        <v>49.34</v>
+        <v>37</v>
+      </c>
+      <c r="J78" s="9">
+        <v>86.86</v>
+      </c>
+      <c r="K78" s="9">
+        <v>92.86</v>
+      </c>
+      <c r="L78" s="9">
+        <v>43.63</v>
+      </c>
+      <c r="M78" s="9">
+        <v>60.02</v>
       </c>
       <c r="N78">
         <f t="shared" si="4"/>
-        <v>1.9973429951690818</v>
+        <v>1.733912204534491</v>
       </c>
       <c r="O78">
-        <v>35.434660000000001</v>
+        <v>35.437480000000001</v>
       </c>
       <c r="P78">
         <v>35.06915</v>
       </c>
       <c r="Q78">
         <f t="shared" si="5"/>
-        <v>35.251905000000001</v>
+        <v>35.253315000000001</v>
       </c>
       <c r="R78">
         <f t="shared" si="6"/>
-        <v>248.18</v>
+        <v>283.37</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
@@ -5297,49 +5293,49 @@
         <v>24</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F79">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G79" s="5">
         <v>20</v>
       </c>
       <c r="H79" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I79" s="5">
-        <v>28</v>
-      </c>
-      <c r="J79" s="9">
-        <v>70.03</v>
-      </c>
-      <c r="K79" s="9">
-        <v>71.760000000000005</v>
-      </c>
-      <c r="L79" s="9">
-        <v>144.15</v>
-      </c>
-      <c r="M79" s="9">
-        <v>200.46</v>
+        <v>38</v>
+      </c>
+      <c r="J79">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="K79">
+        <v>85.92</v>
+      </c>
+      <c r="L79">
+        <v>33.46</v>
+      </c>
+      <c r="M79">
+        <v>49.34</v>
       </c>
       <c r="N79">
         <f t="shared" si="4"/>
-        <v>0.41145062534459248</v>
+        <v>1.9973429951690818</v>
       </c>
       <c r="O79">
-        <v>34.267969999999998</v>
+        <v>35.434660000000001</v>
       </c>
       <c r="P79">
-        <v>33.990459999999999</v>
+        <v>35.06915</v>
       </c>
       <c r="Q79">
         <f t="shared" si="5"/>
-        <v>34.129215000000002</v>
+        <v>35.251905000000001</v>
       </c>
       <c r="R79">
         <f t="shared" si="6"/>
-        <v>486.40000000000009</v>
+        <v>248.18</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.15">
@@ -5365,40 +5361,40 @@
         <v>20</v>
       </c>
       <c r="H80" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I80" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J80" s="9">
-        <v>68.56</v>
+        <v>70.03</v>
       </c>
       <c r="K80" s="9">
-        <v>70.94</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="L80" s="9">
-        <v>125.5</v>
+        <v>144.15</v>
       </c>
       <c r="M80" s="9">
-        <v>175.03</v>
+        <v>200.46</v>
       </c>
       <c r="N80">
         <f t="shared" si="4"/>
-        <v>0.46417994875719565</v>
+        <v>0.41145062534459248</v>
       </c>
       <c r="O80">
-        <v>34.157080000000001</v>
+        <v>34.267969999999998</v>
       </c>
       <c r="P80">
-        <v>33.795029999999997</v>
+        <v>33.990459999999999</v>
       </c>
       <c r="Q80">
         <f t="shared" si="5"/>
-        <v>33.976055000000002</v>
+        <v>34.129215000000002</v>
       </c>
       <c r="R80">
         <f t="shared" si="6"/>
-        <v>440.03</v>
+        <v>486.40000000000009</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.15">
@@ -5424,40 +5420,40 @@
         <v>20</v>
       </c>
       <c r="H81" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I81" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J81" s="9">
-        <v>69.61</v>
+        <v>68.56</v>
       </c>
       <c r="K81" s="9">
-        <v>72.489999999999995</v>
+        <v>70.94</v>
       </c>
       <c r="L81" s="9">
-        <v>109.63</v>
+        <v>125.5</v>
       </c>
       <c r="M81" s="9">
-        <v>154.76</v>
+        <v>175.03</v>
       </c>
       <c r="N81">
         <f t="shared" si="4"/>
-        <v>0.53746359544612121</v>
+        <v>0.46417994875719565</v>
       </c>
       <c r="O81">
-        <v>34.248109999999997</v>
+        <v>34.157080000000001</v>
       </c>
       <c r="P81">
-        <v>33.95476</v>
+        <v>33.795029999999997</v>
       </c>
       <c r="Q81">
         <f t="shared" si="5"/>
-        <v>34.101434999999995</v>
+        <v>33.976055000000002</v>
       </c>
       <c r="R81">
         <f t="shared" si="6"/>
-        <v>406.49</v>
+        <v>440.03</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
@@ -5483,40 +5479,40 @@
         <v>20</v>
       </c>
       <c r="H82" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I82" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J82" s="9">
-        <v>70.34</v>
+        <v>69.61</v>
       </c>
       <c r="K82" s="9">
-        <v>72.59</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="L82" s="9">
-        <v>97.39</v>
+        <v>109.63</v>
       </c>
       <c r="M82" s="9">
-        <v>136.32</v>
+        <v>154.76</v>
       </c>
       <c r="N82">
         <f t="shared" si="4"/>
-        <v>0.61156989431346553</v>
+        <v>0.53746359544612121</v>
       </c>
       <c r="O82">
-        <v>34.258479999999999</v>
+        <v>34.248109999999997</v>
       </c>
       <c r="P82">
-        <v>33.992139999999999</v>
+        <v>33.95476</v>
       </c>
       <c r="Q82">
         <f t="shared" si="5"/>
-        <v>34.125309999999999</v>
+        <v>34.101434999999995</v>
       </c>
       <c r="R82">
         <f t="shared" si="6"/>
-        <v>376.64</v>
+        <v>406.49</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
@@ -5542,40 +5538,40 @@
         <v>20</v>
       </c>
       <c r="H83" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I83" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J83" s="9">
-        <v>68.28</v>
+        <v>70.34</v>
       </c>
       <c r="K83" s="9">
-        <v>71.510000000000005</v>
+        <v>72.59</v>
       </c>
       <c r="L83" s="9">
-        <v>85.13</v>
+        <v>97.39</v>
       </c>
       <c r="M83" s="9">
-        <v>116.21</v>
+        <v>136.32</v>
       </c>
       <c r="N83">
         <f t="shared" si="4"/>
-        <v>0.69429820204629</v>
+        <v>0.61156989431346553</v>
       </c>
       <c r="O83">
-        <v>34.12462</v>
+        <v>34.258479999999999</v>
       </c>
       <c r="P83">
-        <v>33.845419999999997</v>
+        <v>33.992139999999999</v>
       </c>
       <c r="Q83">
         <f t="shared" si="5"/>
-        <v>33.985019999999999</v>
+        <v>34.125309999999999</v>
       </c>
       <c r="R83">
         <f t="shared" si="6"/>
-        <v>341.13</v>
+        <v>376.64</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
@@ -5601,40 +5597,40 @@
         <v>20</v>
       </c>
       <c r="H84" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I84" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J84" s="9">
-        <v>70.11</v>
+        <v>68.28</v>
       </c>
       <c r="K84" s="9">
-        <v>73.52</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="L84" s="9">
-        <v>76.37</v>
+        <v>85.13</v>
       </c>
       <c r="M84" s="9">
-        <v>105.17</v>
+        <v>116.21</v>
       </c>
       <c r="N84">
         <f t="shared" si="4"/>
-        <v>0.7911754985127244</v>
+        <v>0.69429820204629</v>
       </c>
       <c r="O84">
-        <v>34.259860000000003</v>
+        <v>34.12462</v>
       </c>
       <c r="P84">
-        <v>33.9574</v>
+        <v>33.845419999999997</v>
       </c>
       <c r="Q84">
         <f t="shared" si="5"/>
-        <v>34.108630000000005</v>
+        <v>33.985019999999999</v>
       </c>
       <c r="R84">
         <f t="shared" si="6"/>
-        <v>325.17</v>
+        <v>341.13</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.15">
@@ -5660,40 +5656,40 @@
         <v>20</v>
       </c>
       <c r="H85" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I85" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J85" s="9">
-        <v>70.45</v>
+        <v>70.11</v>
       </c>
       <c r="K85" s="9">
-        <v>72.36</v>
+        <v>73.52</v>
       </c>
       <c r="L85" s="9">
-        <v>64.69</v>
+        <v>76.37</v>
       </c>
       <c r="M85" s="9">
-        <v>89.47</v>
+        <v>105.17</v>
       </c>
       <c r="N85">
         <f t="shared" si="4"/>
-        <v>0.92637519460300988</v>
+        <v>0.7911754985127244</v>
       </c>
       <c r="O85">
-        <v>34.256610000000002</v>
+        <v>34.259860000000003</v>
       </c>
       <c r="P85">
-        <v>33.963979999999999</v>
+        <v>33.9574</v>
       </c>
       <c r="Q85">
         <f t="shared" si="5"/>
-        <v>34.110295000000001</v>
+        <v>34.108630000000005</v>
       </c>
       <c r="R85">
         <f t="shared" si="6"/>
-        <v>296.97000000000003</v>
+        <v>325.17</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.15">
@@ -5719,40 +5715,40 @@
         <v>20</v>
       </c>
       <c r="H86" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I86" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J86" s="9">
-        <v>69.680000000000007</v>
+        <v>70.45</v>
       </c>
       <c r="K86" s="9">
-        <v>72.22</v>
+        <v>72.36</v>
       </c>
       <c r="L86" s="9">
-        <v>56.62</v>
+        <v>64.69</v>
       </c>
       <c r="M86" s="9">
-        <v>78.37</v>
+        <v>89.47</v>
       </c>
       <c r="N86">
         <f t="shared" si="4"/>
-        <v>1.0511889769612563</v>
+        <v>0.92637519460300988</v>
       </c>
       <c r="O86">
-        <v>34.123869999999997</v>
+        <v>34.256610000000002</v>
       </c>
       <c r="P86">
-        <v>33.825319999999998</v>
+        <v>33.963979999999999</v>
       </c>
       <c r="Q86">
         <f t="shared" si="5"/>
-        <v>33.974594999999994</v>
+        <v>34.110295000000001</v>
       </c>
       <c r="R86">
         <f t="shared" si="6"/>
-        <v>276.89</v>
+        <v>296.97000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
@@ -5778,40 +5774,40 @@
         <v>20</v>
       </c>
       <c r="H87" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I87" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J87" s="9">
-        <v>71.3</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="K87" s="9">
-        <v>73.25</v>
+        <v>72.22</v>
       </c>
       <c r="L87" s="9">
-        <v>49.01</v>
+        <v>56.62</v>
       </c>
       <c r="M87" s="9">
-        <v>68.86</v>
+        <v>78.37</v>
       </c>
       <c r="N87">
         <f t="shared" si="4"/>
-        <v>1.2263510647323324</v>
+        <v>1.0511889769612563</v>
       </c>
       <c r="O87">
-        <v>34.257399999999997</v>
+        <v>34.123869999999997</v>
       </c>
       <c r="P87">
-        <v>33.956789999999998</v>
+        <v>33.825319999999998</v>
       </c>
       <c r="Q87">
         <f t="shared" si="5"/>
-        <v>34.107095000000001</v>
+        <v>33.974594999999994</v>
       </c>
       <c r="R87">
         <f t="shared" si="6"/>
-        <v>262.42</v>
+        <v>276.89</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
@@ -5837,40 +5833,40 @@
         <v>20</v>
       </c>
       <c r="H88" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I88" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J88" s="9">
-        <v>71.58</v>
+        <v>71.3</v>
       </c>
       <c r="K88" s="9">
-        <v>74.03</v>
+        <v>73.25</v>
       </c>
       <c r="L88" s="9">
-        <v>43.75</v>
+        <v>49.01</v>
       </c>
       <c r="M88" s="9">
-        <v>60.72</v>
+        <v>68.86</v>
       </c>
       <c r="N88">
         <f t="shared" si="4"/>
-        <v>1.393797262371973</v>
+        <v>1.2263510647323324</v>
       </c>
       <c r="O88">
-        <v>34.280819999999999</v>
+        <v>34.257399999999997</v>
       </c>
       <c r="P88">
-        <v>33.990389999999998</v>
+        <v>33.956789999999998</v>
       </c>
       <c r="Q88">
         <f t="shared" si="5"/>
-        <v>34.135604999999998</v>
+        <v>34.107095000000001</v>
       </c>
       <c r="R88">
         <f t="shared" si="6"/>
-        <v>250.08</v>
+        <v>262.42</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.15">
@@ -5896,95 +5892,99 @@
         <v>20</v>
       </c>
       <c r="H89" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I89" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J89" s="9">
-        <v>70</v>
+        <v>71.58</v>
       </c>
       <c r="K89" s="9">
-        <v>73.31</v>
+        <v>74.03</v>
       </c>
       <c r="L89" s="9">
-        <v>36.61</v>
+        <v>43.75</v>
       </c>
       <c r="M89" s="9">
-        <v>51.24</v>
+        <v>60.72</v>
       </c>
       <c r="N89">
         <f t="shared" si="4"/>
-        <v>1.6313033579965852</v>
+        <v>1.393797262371973</v>
       </c>
       <c r="O89">
-        <v>34.143000000000001</v>
+        <v>34.280819999999999</v>
       </c>
       <c r="P89">
-        <v>33.767220000000002</v>
+        <v>33.990389999999998</v>
       </c>
       <c r="Q89">
         <f t="shared" si="5"/>
-        <v>33.955110000000005</v>
+        <v>34.135604999999998</v>
       </c>
       <c r="R89">
         <f t="shared" si="6"/>
-        <v>231.16000000000003</v>
+        <v>250.08</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="B90" t="s">
-        <v>25</v>
+      <c r="B90" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D90" t="s">
-        <v>25</v>
+      <c r="D90" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E90">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F90">
-        <v>26</v>
-      </c>
-      <c r="G90">
-        <v>10</v>
-      </c>
-      <c r="H90">
-        <v>26</v>
-      </c>
-      <c r="I90">
-        <v>26</v>
-      </c>
-      <c r="J90">
-        <v>499.48</v>
-      </c>
-      <c r="K90">
-        <v>565.79999999999995</v>
-      </c>
-      <c r="L90">
-        <v>174.94</v>
-      </c>
-      <c r="M90">
-        <v>252.4</v>
+        <v>40</v>
+      </c>
+      <c r="G90" s="5">
+        <v>20</v>
+      </c>
+      <c r="H90" s="5">
+        <v>38</v>
+      </c>
+      <c r="I90" s="5">
+        <v>38</v>
+      </c>
+      <c r="J90" s="9">
+        <v>70</v>
+      </c>
+      <c r="K90" s="9">
+        <v>73.31</v>
+      </c>
+      <c r="L90" s="9">
+        <v>36.61</v>
+      </c>
+      <c r="M90" s="9">
+        <v>51.24</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="4"/>
+        <v>1.6313033579965852</v>
       </c>
       <c r="O90">
-        <v>41.686579999999999</v>
+        <v>34.143000000000001</v>
       </c>
       <c r="P90">
-        <v>41.200069999999997</v>
+        <v>33.767220000000002</v>
       </c>
       <c r="Q90">
         <f t="shared" si="5"/>
-        <v>41.443325000000002</v>
+        <v>33.955110000000005</v>
       </c>
       <c r="R90">
         <f t="shared" si="6"/>
-        <v>1492.6200000000001</v>
+        <v>231.16000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
@@ -6001,45 +6001,45 @@
         <v>25</v>
       </c>
       <c r="E91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G91">
         <v>10</v>
       </c>
       <c r="H91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J91">
-        <v>386.12</v>
+        <v>499.48</v>
       </c>
       <c r="K91">
-        <v>438.94</v>
+        <v>565.79999999999995</v>
       </c>
       <c r="L91">
-        <v>137.26</v>
+        <v>174.94</v>
       </c>
       <c r="M91">
-        <v>197.74</v>
+        <v>252.4</v>
       </c>
       <c r="O91">
-        <v>40.802439999999997</v>
+        <v>41.686579999999999</v>
       </c>
       <c r="P91">
-        <v>40.24156</v>
+        <v>41.200069999999997</v>
       </c>
       <c r="Q91">
         <f t="shared" si="5"/>
-        <v>40.521999999999998</v>
+        <v>41.443325000000002</v>
       </c>
       <c r="R91">
         <f t="shared" si="6"/>
-        <v>1160.06</v>
+        <v>1492.6200000000001</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
@@ -6056,45 +6056,45 @@
         <v>25</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F92">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I92">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J92">
-        <v>301.33999999999997</v>
+        <v>386.12</v>
       </c>
       <c r="K92">
-        <v>346.12</v>
+        <v>438.94</v>
       </c>
       <c r="L92">
-        <v>119.9</v>
+        <v>137.26</v>
       </c>
       <c r="M92">
-        <v>174.4</v>
+        <v>197.74</v>
       </c>
       <c r="O92">
-        <v>39.753210000000003</v>
+        <v>40.802439999999997</v>
       </c>
       <c r="P92">
-        <v>39.182980000000001</v>
+        <v>40.24156</v>
       </c>
       <c r="Q92">
         <f t="shared" si="5"/>
-        <v>39.468095000000005</v>
+        <v>40.521999999999998</v>
       </c>
       <c r="R92">
         <f t="shared" si="6"/>
-        <v>941.76</v>
+        <v>1160.06</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
@@ -6111,45 +6111,45 @@
         <v>25</v>
       </c>
       <c r="E93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I93">
-        <v>32</v>
-      </c>
-      <c r="J93" s="14">
-        <v>246.8</v>
-      </c>
-      <c r="K93" s="14">
-        <v>279.76</v>
-      </c>
-      <c r="L93" s="14">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="M93" s="14">
-        <v>115.06</v>
-      </c>
-      <c r="O93" s="14">
-        <v>38.805030000000002</v>
-      </c>
-      <c r="P93" s="14">
-        <v>38.227710000000002</v>
+        <v>30</v>
+      </c>
+      <c r="J93">
+        <v>301.33999999999997</v>
+      </c>
+      <c r="K93">
+        <v>346.12</v>
+      </c>
+      <c r="L93">
+        <v>119.9</v>
+      </c>
+      <c r="M93">
+        <v>174.4</v>
+      </c>
+      <c r="O93">
+        <v>39.753210000000003</v>
+      </c>
+      <c r="P93">
+        <v>39.182980000000001</v>
       </c>
       <c r="Q93">
         <f t="shared" si="5"/>
-        <v>38.516370000000002</v>
+        <v>39.468095000000005</v>
       </c>
       <c r="R93">
         <f t="shared" si="6"/>
-        <v>722.52</v>
+        <v>941.76</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.15">
@@ -6166,45 +6166,45 @@
         <v>25</v>
       </c>
       <c r="E94">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F94">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I94">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J94" s="14">
-        <v>202.1</v>
+        <v>246.8</v>
       </c>
       <c r="K94" s="14">
-        <v>229.1</v>
+        <v>279.76</v>
       </c>
       <c r="L94" s="14">
-        <v>60.28</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="M94" s="14">
-        <v>90.28</v>
+        <v>115.06</v>
       </c>
       <c r="O94" s="14">
-        <v>37.771970000000003</v>
+        <v>38.805030000000002</v>
       </c>
       <c r="P94" s="14">
-        <v>37.033679999999997</v>
+        <v>38.227710000000002</v>
       </c>
       <c r="Q94">
         <f t="shared" si="5"/>
-        <v>37.402825</v>
+        <v>38.516370000000002</v>
       </c>
       <c r="R94">
         <f t="shared" si="6"/>
-        <v>581.76</v>
+        <v>722.52</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
@@ -6221,45 +6221,45 @@
         <v>25</v>
       </c>
       <c r="E95">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I95">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J95" s="14">
-        <v>164.74</v>
+        <v>202.1</v>
       </c>
       <c r="K95" s="14">
-        <v>189.04</v>
+        <v>229.1</v>
       </c>
       <c r="L95" s="14">
-        <v>70.86</v>
+        <v>60.28</v>
       </c>
       <c r="M95" s="14">
-        <v>103.54</v>
+        <v>90.28</v>
       </c>
       <c r="O95" s="14">
-        <v>36.539470000000001</v>
+        <v>37.771970000000003</v>
       </c>
       <c r="P95" s="14">
-        <v>35.791229999999999</v>
+        <v>37.033679999999997</v>
       </c>
       <c r="Q95">
         <f t="shared" si="5"/>
-        <v>36.165350000000004</v>
+        <v>37.402825</v>
       </c>
       <c r="R95">
         <f t="shared" si="6"/>
-        <v>528.17999999999995</v>
+        <v>581.76</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.15">
@@ -6276,45 +6276,45 @@
         <v>25</v>
       </c>
       <c r="E96">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F96">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>10</v>
       </c>
       <c r="H96">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I96">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J96" s="14">
-        <v>143.66</v>
+        <v>164.74</v>
       </c>
       <c r="K96" s="14">
-        <v>158.56</v>
+        <v>189.04</v>
       </c>
       <c r="L96" s="14">
-        <v>33.340000000000003</v>
+        <v>70.86</v>
       </c>
       <c r="M96" s="14">
-        <v>48.44</v>
+        <v>103.54</v>
       </c>
       <c r="O96" s="14">
-        <v>35.476900000000001</v>
+        <v>36.539470000000001</v>
       </c>
       <c r="P96" s="14">
-        <v>34.754890000000003</v>
+        <v>35.791229999999999</v>
       </c>
       <c r="Q96">
         <f t="shared" si="5"/>
-        <v>35.115895000000002</v>
+        <v>36.165350000000004</v>
       </c>
       <c r="R96">
         <f t="shared" si="6"/>
-        <v>384.00000000000006</v>
+        <v>528.17999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.15">
@@ -6331,53 +6331,53 @@
         <v>25</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F97">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>10</v>
       </c>
       <c r="H97">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I97">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J97" s="14">
-        <v>120.7</v>
+        <v>143.66</v>
       </c>
       <c r="K97" s="14">
-        <v>140.69999999999999</v>
+        <v>158.56</v>
       </c>
       <c r="L97" s="14">
-        <v>25.26</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="M97" s="14">
-        <v>36.56</v>
+        <v>48.44</v>
       </c>
       <c r="O97" s="14">
-        <v>34.28295</v>
+        <v>35.476900000000001</v>
       </c>
       <c r="P97" s="14">
-        <v>33.383690000000001</v>
+        <v>34.754890000000003</v>
       </c>
       <c r="Q97">
         <f t="shared" si="5"/>
-        <v>33.833320000000001</v>
+        <v>35.115895000000002</v>
       </c>
       <c r="R97">
         <f t="shared" si="6"/>
-        <v>323.21999999999997</v>
+        <v>384.00000000000006</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>24</v>
+      <c r="B98" t="s">
+        <v>25</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>24</v>
@@ -6386,45 +6386,45 @@
         <v>25</v>
       </c>
       <c r="E98">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>10</v>
       </c>
       <c r="H98">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I98">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J98" s="14">
-        <v>387.96</v>
+        <v>120.7</v>
       </c>
       <c r="K98" s="14">
-        <v>458.04</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="L98" s="14">
-        <v>180.96</v>
+        <v>25.26</v>
       </c>
       <c r="M98" s="14">
-        <v>259.08</v>
+        <v>36.56</v>
       </c>
       <c r="O98" s="14">
-        <v>41.797629999999998</v>
+        <v>34.28295</v>
       </c>
       <c r="P98" s="14">
-        <v>41.295610000000003</v>
+        <v>33.383690000000001</v>
       </c>
       <c r="Q98">
         <f t="shared" si="5"/>
-        <v>41.546620000000004</v>
+        <v>33.833320000000001</v>
       </c>
       <c r="R98">
         <f t="shared" si="6"/>
-        <v>1286.04</v>
+        <v>323.21999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
@@ -6441,45 +6441,45 @@
         <v>25</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F99">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G99">
         <v>10</v>
       </c>
       <c r="H99">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I99">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J99" s="14">
-        <v>292.22000000000003</v>
+        <v>387.96</v>
       </c>
       <c r="K99" s="14">
-        <v>339.76</v>
+        <v>458.04</v>
       </c>
       <c r="L99" s="14">
-        <v>137.26</v>
+        <v>180.96</v>
       </c>
       <c r="M99" s="14">
-        <v>197.74</v>
+        <v>259.08</v>
       </c>
       <c r="O99" s="14">
-        <v>40.894370000000002</v>
+        <v>41.797629999999998</v>
       </c>
       <c r="P99" s="14">
-        <v>40.38373</v>
+        <v>41.295610000000003</v>
       </c>
       <c r="Q99">
         <f t="shared" si="5"/>
-        <v>40.639049999999997</v>
+        <v>41.546620000000004</v>
       </c>
       <c r="R99">
         <f t="shared" si="6"/>
-        <v>966.98</v>
+        <v>1286.04</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
@@ -6496,45 +6496,45 @@
         <v>25</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>10</v>
       </c>
       <c r="H100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J100" s="14">
-        <v>218.12</v>
+        <v>292.22000000000003</v>
       </c>
       <c r="K100" s="14">
-        <v>254.22</v>
+        <v>339.76</v>
       </c>
       <c r="L100" s="14">
-        <v>104.22</v>
+        <v>137.26</v>
       </c>
       <c r="M100" s="14">
-        <v>150.96</v>
+        <v>197.74</v>
       </c>
       <c r="O100" s="14">
-        <v>39.926299999999998</v>
+        <v>40.894370000000002</v>
       </c>
       <c r="P100" s="14">
-        <v>39.389580000000002</v>
+        <v>40.38373</v>
       </c>
       <c r="Q100">
         <f t="shared" si="5"/>
-        <v>39.657939999999996</v>
+        <v>40.639049999999997</v>
       </c>
       <c r="R100">
         <f t="shared" si="6"/>
-        <v>727.5200000000001</v>
+        <v>966.98</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.15">
@@ -6551,45 +6551,45 @@
         <v>25</v>
       </c>
       <c r="E101">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>10</v>
       </c>
       <c r="H101">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I101">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J101" s="14">
-        <v>166.26</v>
+        <v>218.12</v>
       </c>
       <c r="K101" s="14">
-        <v>189.22</v>
+        <v>254.22</v>
       </c>
       <c r="L101" s="14">
-        <v>100.9</v>
+        <v>104.22</v>
       </c>
       <c r="M101" s="14">
-        <v>145.4</v>
+        <v>150.96</v>
       </c>
       <c r="O101" s="14">
-        <v>38.835970000000003</v>
+        <v>39.926299999999998</v>
       </c>
       <c r="P101" s="14">
-        <v>38.274979999999999</v>
+        <v>39.389580000000002</v>
       </c>
       <c r="Q101">
         <f t="shared" si="5"/>
-        <v>38.555475000000001</v>
+        <v>39.657939999999996</v>
       </c>
       <c r="R101">
         <f t="shared" si="6"/>
-        <v>601.78</v>
+        <v>727.5200000000001</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
@@ -6606,45 +6606,45 @@
         <v>25</v>
       </c>
       <c r="E102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>10</v>
       </c>
       <c r="H102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J102" s="14">
-        <v>131.36000000000001</v>
+        <v>166.26</v>
       </c>
       <c r="K102" s="14">
-        <v>146.04</v>
+        <v>189.22</v>
       </c>
       <c r="L102" s="14">
-        <v>60.28</v>
+        <v>100.9</v>
       </c>
       <c r="M102" s="14">
-        <v>90.28</v>
+        <v>145.4</v>
       </c>
       <c r="O102" s="14">
-        <v>37.76182</v>
+        <v>38.835970000000003</v>
       </c>
       <c r="P102" s="14">
-        <v>37.242100000000001</v>
+        <v>38.274979999999999</v>
       </c>
       <c r="Q102">
         <f t="shared" si="5"/>
-        <v>37.501959999999997</v>
+        <v>38.555475000000001</v>
       </c>
       <c r="R102">
         <f t="shared" si="6"/>
-        <v>427.95999999999992</v>
+        <v>601.78</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.15">
@@ -6661,45 +6661,45 @@
         <v>25</v>
       </c>
       <c r="E103">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F103">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>10</v>
       </c>
       <c r="H103">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I103">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J103" s="14">
-        <v>102.46</v>
+        <v>131.36000000000001</v>
       </c>
       <c r="K103" s="14">
-        <v>115.22</v>
+        <v>146.04</v>
       </c>
       <c r="L103" s="14">
-        <v>44.74</v>
+        <v>60.28</v>
       </c>
       <c r="M103" s="14">
-        <v>68.58</v>
+        <v>90.28</v>
       </c>
       <c r="O103" s="14">
-        <v>36.698799999999999</v>
+        <v>37.76182</v>
       </c>
       <c r="P103" s="14">
-        <v>36.15607</v>
+        <v>37.242100000000001</v>
       </c>
       <c r="Q103">
         <f t="shared" si="5"/>
-        <v>36.427435000000003</v>
+        <v>37.501959999999997</v>
       </c>
       <c r="R103">
         <f t="shared" si="6"/>
-        <v>331</v>
+        <v>427.95999999999992</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
@@ -6716,45 +6716,45 @@
         <v>25</v>
       </c>
       <c r="E104">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>10</v>
       </c>
       <c r="H104">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I104">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J104" s="14">
-        <v>80.239999999999995</v>
+        <v>102.46</v>
       </c>
       <c r="K104" s="14">
-        <v>90.28</v>
+        <v>115.22</v>
       </c>
       <c r="L104" s="14">
-        <v>61.42</v>
+        <v>44.74</v>
       </c>
       <c r="M104" s="14">
-        <v>87.88</v>
+        <v>68.58</v>
       </c>
       <c r="O104" s="14">
-        <v>35.453919999999997</v>
+        <v>36.698799999999999</v>
       </c>
       <c r="P104" s="14">
         <v>36.15607</v>
       </c>
       <c r="Q104">
         <f t="shared" si="5"/>
-        <v>35.804994999999998</v>
+        <v>36.427435000000003</v>
       </c>
       <c r="R104">
         <f t="shared" si="6"/>
-        <v>319.82</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
@@ -6771,45 +6771,45 @@
         <v>25</v>
       </c>
       <c r="E105">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F105">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>10</v>
       </c>
       <c r="H105">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I105">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J105" s="14">
-        <v>67.88</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="K105" s="14">
-        <v>74.44</v>
+        <v>90.28</v>
       </c>
       <c r="L105" s="14">
-        <v>25.26</v>
+        <v>61.42</v>
       </c>
       <c r="M105" s="14">
-        <v>36.56</v>
+        <v>87.88</v>
       </c>
       <c r="O105" s="14">
-        <v>34.433</v>
+        <v>35.453919999999997</v>
       </c>
       <c r="P105" s="14">
-        <v>34.03416</v>
+        <v>36.15607</v>
       </c>
       <c r="Q105">
         <f t="shared" si="5"/>
-        <v>34.233580000000003</v>
+        <v>35.804994999999998</v>
       </c>
       <c r="R105">
         <f t="shared" si="6"/>
-        <v>204.14</v>
+        <v>319.82</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.15">
@@ -6822,49 +6822,49 @@
       <c r="C106" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>24</v>
+      <c r="D106" t="s">
+        <v>25</v>
       </c>
       <c r="E106">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F106">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>10</v>
       </c>
       <c r="H106">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I106">
-        <v>26</v>
-      </c>
-      <c r="J106">
-        <v>389.52</v>
-      </c>
-      <c r="K106">
-        <v>456.84</v>
-      </c>
-      <c r="L106">
-        <v>176.4</v>
-      </c>
-      <c r="M106">
-        <v>251.94</v>
-      </c>
-      <c r="O106">
-        <v>41.800730000000001</v>
-      </c>
-      <c r="P106">
-        <v>41.306370000000001</v>
+        <v>40</v>
+      </c>
+      <c r="J106" s="14">
+        <v>67.88</v>
+      </c>
+      <c r="K106" s="14">
+        <v>74.44</v>
+      </c>
+      <c r="L106" s="14">
+        <v>25.26</v>
+      </c>
+      <c r="M106" s="14">
+        <v>36.56</v>
+      </c>
+      <c r="O106" s="14">
+        <v>34.433</v>
+      </c>
+      <c r="P106" s="14">
+        <v>34.03416</v>
       </c>
       <c r="Q106">
         <f t="shared" si="5"/>
-        <v>41.553550000000001</v>
+        <v>34.233580000000003</v>
       </c>
       <c r="R106">
         <f t="shared" si="6"/>
-        <v>1274.6999999999998</v>
+        <v>204.14</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.15">
@@ -6874,52 +6874,52 @@
       <c r="B107" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>24</v>
+      <c r="C107" t="s">
+        <v>25</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F107">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I107">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J107">
-        <v>65.8</v>
+        <v>426.64</v>
       </c>
       <c r="K107">
-        <v>72.040000000000006</v>
+        <v>507.2</v>
       </c>
       <c r="L107">
-        <v>25.56</v>
+        <v>174.94</v>
       </c>
       <c r="M107">
-        <v>35.380000000000003</v>
+        <v>252.4</v>
       </c>
       <c r="O107">
-        <v>34.210769999999997</v>
+        <v>41.613950000000003</v>
       </c>
       <c r="P107">
-        <v>33.843409999999999</v>
+        <v>41.045999999999999</v>
       </c>
       <c r="Q107">
         <f t="shared" si="5"/>
-        <v>34.027090000000001</v>
+        <v>41.329975000000005</v>
       </c>
       <c r="R107">
         <f t="shared" si="6"/>
-        <v>198.78</v>
+        <v>1361.18</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.15">
@@ -6936,45 +6936,45 @@
         <v>24</v>
       </c>
       <c r="E108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J108">
-        <v>389.52</v>
+        <v>303.5</v>
       </c>
       <c r="K108">
-        <v>456.84</v>
+        <v>370.34</v>
       </c>
       <c r="L108">
-        <v>176.4</v>
+        <v>147.72</v>
       </c>
       <c r="M108">
-        <v>251.94</v>
+        <v>213.76</v>
       </c>
       <c r="O108">
-        <v>41.800730000000001</v>
+        <v>40.617829999999998</v>
       </c>
       <c r="P108">
-        <v>41.306370000000001</v>
+        <v>40.068260000000002</v>
       </c>
       <c r="Q108">
         <f t="shared" si="5"/>
-        <v>41.553550000000001</v>
+        <v>40.343045000000004</v>
       </c>
       <c r="R108">
         <f t="shared" si="6"/>
-        <v>1274.6999999999998</v>
+        <v>1035.32</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.15">
@@ -6991,45 +6991,45 @@
         <v>24</v>
       </c>
       <c r="E109">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F109">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>10</v>
       </c>
       <c r="H109">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I109">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J109">
-        <v>303.5</v>
+        <v>235.74</v>
       </c>
       <c r="K109">
-        <v>370.34</v>
+        <v>283.54000000000002</v>
       </c>
       <c r="L109">
-        <v>147.72</v>
+        <v>104.22</v>
       </c>
       <c r="M109">
-        <v>213.76</v>
+        <v>150.96</v>
       </c>
       <c r="O109">
-        <v>40.617829999999998</v>
+        <v>39.721609999999998</v>
       </c>
       <c r="P109">
-        <v>40.068260000000002</v>
+        <v>39.093089999999997</v>
       </c>
       <c r="Q109">
         <f t="shared" si="5"/>
-        <v>40.343045000000004</v>
+        <v>39.407349999999994</v>
       </c>
       <c r="R109">
         <f t="shared" si="6"/>
-        <v>1035.32</v>
+        <v>774.46</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
@@ -7046,45 +7046,45 @@
         <v>24</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F110">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I110">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J110">
-        <v>235.74</v>
+        <v>175.62</v>
       </c>
       <c r="K110">
-        <v>283.54000000000002</v>
+        <v>204.96</v>
       </c>
       <c r="L110">
-        <v>104.22</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="M110">
-        <v>150.96</v>
+        <v>115.06</v>
       </c>
       <c r="O110">
-        <v>39.721609999999998</v>
+        <v>38.73565</v>
       </c>
       <c r="P110">
-        <v>39.093089999999997</v>
+        <v>37.966290000000001</v>
       </c>
       <c r="Q110">
         <f t="shared" si="5"/>
-        <v>39.407349999999994</v>
+        <v>38.350970000000004</v>
       </c>
       <c r="R110">
         <f t="shared" si="6"/>
-        <v>774.46</v>
+        <v>576.54</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
@@ -7101,45 +7101,45 @@
         <v>24</v>
       </c>
       <c r="E111">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>10</v>
       </c>
       <c r="H111">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I111">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J111">
-        <v>175.62</v>
+        <v>135.22</v>
       </c>
       <c r="K111">
-        <v>204.96</v>
+        <v>158.76</v>
       </c>
       <c r="L111">
-        <v>80.900000000000006</v>
+        <v>82.68</v>
       </c>
       <c r="M111">
-        <v>115.06</v>
+        <v>122.86</v>
       </c>
       <c r="O111">
-        <v>38.73565</v>
+        <v>37.556069999999998</v>
       </c>
       <c r="P111">
-        <v>37.966290000000001</v>
+        <v>36.88494</v>
       </c>
       <c r="Q111">
         <f t="shared" si="5"/>
-        <v>38.350970000000004</v>
+        <v>37.220505000000003</v>
       </c>
       <c r="R111">
         <f t="shared" si="6"/>
-        <v>576.54</v>
+        <v>499.52000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
@@ -7156,45 +7156,45 @@
         <v>24</v>
       </c>
       <c r="E112">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F112">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
       <c r="H112">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I112">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J112">
-        <v>135.22</v>
+        <v>108.68</v>
       </c>
       <c r="K112">
-        <v>158.76</v>
+        <v>124.92</v>
       </c>
       <c r="L112">
-        <v>82.68</v>
+        <v>44.74</v>
       </c>
       <c r="M112">
-        <v>122.86</v>
+        <v>68.58</v>
       </c>
       <c r="O112">
-        <v>37.556069999999998</v>
+        <v>36.566719999999997</v>
       </c>
       <c r="P112">
-        <v>36.88494</v>
+        <v>35.921880000000002</v>
       </c>
       <c r="Q112">
         <f t="shared" si="5"/>
-        <v>37.220505000000003</v>
+        <v>36.244299999999996</v>
       </c>
       <c r="R112">
         <f t="shared" si="6"/>
-        <v>499.52000000000004</v>
+        <v>346.92</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.15">
@@ -7211,45 +7211,45 @@
         <v>24</v>
       </c>
       <c r="E113">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F113">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>10</v>
       </c>
       <c r="H113">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I113">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J113">
-        <v>108.68</v>
+        <v>80.78</v>
       </c>
       <c r="K113">
-        <v>124.92</v>
+        <v>90.2</v>
       </c>
       <c r="L113">
-        <v>44.74</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="M113">
-        <v>68.58</v>
+        <v>48.44</v>
       </c>
       <c r="O113">
-        <v>36.566719999999997</v>
+        <v>35.396470000000001</v>
       </c>
       <c r="P113">
-        <v>35.921880000000002</v>
+        <v>34.860639999999997</v>
       </c>
       <c r="Q113">
         <f t="shared" si="5"/>
-        <v>36.244299999999996</v>
+        <v>35.128554999999999</v>
       </c>
       <c r="R113">
         <f t="shared" si="6"/>
-        <v>346.92</v>
+        <v>252.76000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.15">
@@ -7266,45 +7266,45 @@
         <v>24</v>
       </c>
       <c r="E114">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F114">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>10</v>
       </c>
       <c r="H114">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I114">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J114">
-        <v>80.78</v>
+        <v>69.84</v>
       </c>
       <c r="K114">
-        <v>90.2</v>
+        <v>77.58</v>
       </c>
       <c r="L114">
-        <v>33.340000000000003</v>
+        <v>54.72</v>
       </c>
       <c r="M114">
-        <v>48.44</v>
+        <v>76.94</v>
       </c>
       <c r="O114">
-        <v>35.396470000000001</v>
+        <v>34.171129999999998</v>
       </c>
       <c r="P114">
-        <v>34.860639999999997</v>
+        <v>33.61795</v>
       </c>
       <c r="Q114">
         <f t="shared" si="5"/>
-        <v>35.128554999999999</v>
+        <v>33.894539999999999</v>
       </c>
       <c r="R114">
         <f t="shared" si="6"/>
-        <v>252.76000000000002</v>
+        <v>279.08000000000004</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.15">
@@ -7314,8 +7314,8 @@
       <c r="B115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C115" t="s">
-        <v>25</v>
+      <c r="C115" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>24</v>
@@ -7336,30 +7336,30 @@
         <v>40</v>
       </c>
       <c r="J115">
-        <v>69.84</v>
+        <v>65.8</v>
       </c>
       <c r="K115">
-        <v>77.58</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L115">
-        <v>54.72</v>
+        <v>25.56</v>
       </c>
       <c r="M115">
-        <v>76.94</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="O115">
-        <v>34.171129999999998</v>
+        <v>34.210769999999997</v>
       </c>
       <c r="P115">
-        <v>33.61795</v>
+        <v>33.843409999999999</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="5"/>
-        <v>33.894539999999999</v>
+        <f>(O115+P115)/2</f>
+        <v>34.027090000000001</v>
       </c>
       <c r="R115">
-        <f t="shared" si="6"/>
-        <v>279.08000000000004</v>
+        <f>SUM(J115:M115)</f>
+        <v>198.78</v>
       </c>
     </row>
   </sheetData>
@@ -7388,7 +7388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F12">
+  <conditionalFormatting sqref="E3:F13">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -7400,7 +7400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I34">
+  <conditionalFormatting sqref="H3:I35">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -7412,7 +7412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I45">
+  <conditionalFormatting sqref="H36:I46">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -7424,7 +7424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I56">
+  <conditionalFormatting sqref="H47:I57">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -7436,7 +7436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:I67">
+  <conditionalFormatting sqref="H58:I68">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -7448,7 +7448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:I78">
+  <conditionalFormatting sqref="H69:I79">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -7460,7 +7460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:I89">
+  <conditionalFormatting sqref="H80:I90">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -7472,7 +7472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F89">
+  <conditionalFormatting sqref="E3:F90">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -7484,7 +7484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
+  <conditionalFormatting sqref="E91:E92">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -7496,7 +7496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F91">
+  <conditionalFormatting sqref="F91:F92">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -7508,7 +7508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:I91">
+  <conditionalFormatting sqref="H91:I92">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -7520,7 +7520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E93">
+  <conditionalFormatting sqref="E93:E94">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -7532,7 +7532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F93">
+  <conditionalFormatting sqref="F93:F94">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -7544,7 +7544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:I93">
+  <conditionalFormatting sqref="H93:I94">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -7556,7 +7556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
+  <conditionalFormatting sqref="E95:E96">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -7568,7 +7568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
+  <conditionalFormatting sqref="F95:F96">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -7580,7 +7580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94:I95">
+  <conditionalFormatting sqref="H95:I96">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -7592,7 +7592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
+  <conditionalFormatting sqref="E97:E98">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -7604,7 +7604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F97">
+  <conditionalFormatting sqref="F97:F98">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -7616,7 +7616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96:I97">
+  <conditionalFormatting sqref="H97:I98">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -7628,7 +7628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:I97">
+  <conditionalFormatting sqref="H91:I98">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -7640,7 +7640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90:F97">
+  <conditionalFormatting sqref="E91:F98">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -7652,7 +7652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
+  <conditionalFormatting sqref="E99:E100">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -7664,7 +7664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
+  <conditionalFormatting sqref="F99:F100">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -7676,7 +7676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I99">
+  <conditionalFormatting sqref="H99:I100">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -7688,7 +7688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E101">
+  <conditionalFormatting sqref="E101:E102">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -7700,7 +7700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F101">
+  <conditionalFormatting sqref="F101:F102">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -7712,7 +7712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:I101">
+  <conditionalFormatting sqref="H101:I102">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -7724,7 +7724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E103">
+  <conditionalFormatting sqref="E103:E104">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -7736,7 +7736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F103">
+  <conditionalFormatting sqref="F103:F104">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -7748,7 +7748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102:I103">
+  <conditionalFormatting sqref="H103:I104">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -7760,7 +7760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E105">
+  <conditionalFormatting sqref="E105:E106">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -7772,7 +7772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104:F105">
+  <conditionalFormatting sqref="F105:F106">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -7784,7 +7784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:I105">
+  <conditionalFormatting sqref="H105:I106">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -7796,7 +7796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:I105">
+  <conditionalFormatting sqref="H99:I106">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -7808,7 +7808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98:F105">
+  <conditionalFormatting sqref="E99:F106">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -7820,7 +7820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108:E109">
+  <conditionalFormatting sqref="E107:E108">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -7832,7 +7832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:F109">
+  <conditionalFormatting sqref="F107:F108">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -7844,7 +7844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108:I109">
+  <conditionalFormatting sqref="H107:I108">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -7856,7 +7856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110:E111">
+  <conditionalFormatting sqref="E109:E110">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -7868,7 +7868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:F111">
+  <conditionalFormatting sqref="F109:F110">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -7880,7 +7880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:I111">
+  <conditionalFormatting sqref="H109:I110">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -7892,7 +7892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112:E113">
+  <conditionalFormatting sqref="E111:E112">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -7904,7 +7904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F113">
+  <conditionalFormatting sqref="F111:F112">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -7916,7 +7916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:I113">
+  <conditionalFormatting sqref="H111:I112">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -7928,7 +7928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E115">
+  <conditionalFormatting sqref="E113:E114">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -7940,7 +7940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F115">
+  <conditionalFormatting sqref="F113:F114">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -7952,7 +7952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:I115">
+  <conditionalFormatting sqref="H113:I114">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -7964,7 +7964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108:I115">
+  <conditionalFormatting sqref="H107:I114">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -7976,7 +7976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108:F115">
+  <conditionalFormatting sqref="E107:F114">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -7988,7 +7988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E115">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8000,7 +8000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
+  <conditionalFormatting sqref="F115">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8012,7 +8012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I107">
+  <conditionalFormatting sqref="H115:I115">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8024,7 +8024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I107">
+  <conditionalFormatting sqref="H115:I115">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -8036,7 +8036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107:F107">
+  <conditionalFormatting sqref="E115:F115">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8048,7 +8048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I107">
+  <conditionalFormatting sqref="H115:I115">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -8060,7 +8060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8072,7 +8072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
+  <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8084,7 +8084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I106">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8096,7 +8096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I106">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8108,7 +8108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106:F106">
+  <conditionalFormatting sqref="E2:F2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8120,7 +8120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106:I106">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
